--- a/Cartas Original.xlsx
+++ b/Cartas Original.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="4" r:id="rId1"/>
@@ -17,21 +17,22 @@
     <sheet name="Inventory" sheetId="8" r:id="rId3"/>
     <sheet name="CardPlayers" sheetId="6" r:id="rId4"/>
     <sheet name="Cartas" sheetId="1" r:id="rId5"/>
-    <sheet name="Datos" sheetId="3" r:id="rId6"/>
-    <sheet name="BattleData" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId6"/>
+    <sheet name="Datos" sheetId="3" r:id="rId7"/>
+    <sheet name="BattleData" sheetId="7" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">BattleData!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">BattleData!$A$1:$B$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">CardPlayers!$A$1:$S$463</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Cartas!$A$1:$P$475</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Datos!$A$1:$Z$463</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Datos!$A$1:$Z$463</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8987" uniqueCount="986">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9062" uniqueCount="1007">
   <si>
     <t>Id</t>
   </si>
@@ -2989,6 +2990,69 @@
   </si>
   <si>
     <t>Neutral</t>
+  </si>
+  <si>
+    <t>Wins: %99,31</t>
+  </si>
+  <si>
+    <t>(-5).53.Var-5 Groc</t>
+  </si>
+  <si>
+    <t>58.(4,12,2).Bolt Elemental</t>
+  </si>
+  <si>
+    <t>79.(2,9,1).Chaos Storm</t>
+  </si>
+  <si>
+    <t>80.(3,11,1).Chaos Swell</t>
+  </si>
+  <si>
+    <t>112.(6,14,2).Discordant Angel</t>
+  </si>
+  <si>
+    <t>115.(3,11,2).Dragon Tamer</t>
+  </si>
+  <si>
+    <t>121.(5,10,1).Duoshot Ranger</t>
+  </si>
+  <si>
+    <t>136.(4,5,0).Fire Devil</t>
+  </si>
+  <si>
+    <t>204.(6,15,2).Hemorrhage Demon</t>
+  </si>
+  <si>
+    <t>263.(5,12,2).Mega Garganotos</t>
+  </si>
+  <si>
+    <t>290.(4,17,3).Paladin</t>
+  </si>
+  <si>
+    <t>354.(4,12,1).Smelted Skeleton</t>
+  </si>
+  <si>
+    <t>357.(4,13,2).Soul of Ash</t>
+  </si>
+  <si>
+    <t>396.(7,25,3).Titan of Inferno</t>
+  </si>
+  <si>
+    <t>405.(5,13,2).Toxin Bullfrog</t>
+  </si>
+  <si>
+    <t>Bambori2</t>
+  </si>
+  <si>
+    <t>AethersRaid</t>
+  </si>
+  <si>
+    <t>FallingFeathers</t>
+  </si>
+  <si>
+    <t>Glass titan</t>
+  </si>
+  <si>
+    <t>Pew_PewDie2</t>
   </si>
 </sst>
 </file>
@@ -3520,7 +3584,28 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3825,10 +3910,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ56"/>
+  <dimension ref="A1:AJ60"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4030,7 +4115,7 @@
         <v>807</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D56" si="0">SUM(V3:AJ3)</f>
+        <f t="shared" ref="D3:D60" si="0">SUM(V3:AJ3)</f>
         <v>1013</v>
       </c>
       <c r="E3" t="s">
@@ -4079,7 +4164,7 @@
         <v>441</v>
       </c>
       <c r="U3">
-        <f t="shared" ref="U3:U41" si="1">PRODUCT(V3:AJ3)</f>
+        <f t="shared" ref="U3:U43" si="1">PRODUCT(V3:AJ3)</f>
         <v>1.8608963757035786E+27</v>
       </c>
       <c r="V3">
@@ -4269,7 +4354,7 @@
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>817</v>
+        <v>1006</v>
       </c>
       <c r="B5">
         <v>13</v>
@@ -4393,198 +4478,198 @@
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B6">
         <v>13</v>
       </c>
       <c r="C6" t="s">
+        <v>807</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ref="D6" si="2">SUM(V6:AJ6)</f>
+        <v>1047.5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G6" t="s">
+        <v>126</v>
+      </c>
+      <c r="H6" t="s">
+        <v>126</v>
+      </c>
+      <c r="I6" t="s">
+        <v>865</v>
+      </c>
+      <c r="J6" t="s">
+        <v>865</v>
+      </c>
+      <c r="K6" t="s">
+        <v>332</v>
+      </c>
+      <c r="L6" t="s">
+        <v>233</v>
+      </c>
+      <c r="M6" t="s">
+        <v>334</v>
+      </c>
+      <c r="N6" t="s">
+        <v>297</v>
+      </c>
+      <c r="O6" t="s">
+        <v>844</v>
+      </c>
+      <c r="P6" t="s">
+        <v>903</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>876</v>
+      </c>
+      <c r="R6" t="s">
+        <v>389</v>
+      </c>
+      <c r="S6" t="s">
+        <v>441</v>
+      </c>
+      <c r="U6">
+        <f t="shared" ref="U6" si="3">PRODUCT(V6:AJ6)</f>
+        <v>3.1910492467714371E+27</v>
+      </c>
+      <c r="V6">
+        <f>IFERROR(VLOOKUP(E6,BattleData!$A$2:$B$463,2,FALSE),0)</f>
+        <v>78.600000000000009</v>
+      </c>
+      <c r="W6">
+        <f>IFERROR(VLOOKUP(F6,BattleData!$A$2:$B$463,2,FALSE),0)</f>
+        <v>79.400000000000006</v>
+      </c>
+      <c r="X6">
+        <f>IFERROR(VLOOKUP(G6,BattleData!$A$2:$B$463,2,FALSE),0)</f>
+        <v>91.100000000000009</v>
+      </c>
+      <c r="Y6">
+        <f>IFERROR(VLOOKUP(H6,BattleData!$A$2:$B$463,2,FALSE),0)</f>
+        <v>91.100000000000009</v>
+      </c>
+      <c r="Z6">
+        <f>IFERROR(VLOOKUP(I6,BattleData!$A$2:$B$463,2,FALSE),0)</f>
+        <v>67.100000000000009</v>
+      </c>
+      <c r="AA6">
+        <f>IFERROR(VLOOKUP(J6,BattleData!$A$2:$B$463,2,FALSE),0)</f>
+        <v>67.100000000000009</v>
+      </c>
+      <c r="AB6">
+        <f>IFERROR(VLOOKUP(K6,BattleData!$A$2:$B$463,2,FALSE),0)</f>
+        <v>67.100000000000009</v>
+      </c>
+      <c r="AC6">
+        <f>IFERROR(VLOOKUP(L6,BattleData!$A$2:$B$463,2,FALSE),0)</f>
+        <v>58.9</v>
+      </c>
+      <c r="AD6">
+        <f>IFERROR(VLOOKUP(M6,BattleData!$A$2:$B$463,2,FALSE),0)</f>
+        <v>63.9</v>
+      </c>
+      <c r="AE6">
+        <f>IFERROR(VLOOKUP(N6,BattleData!$A$2:$B$463,2,FALSE),0)</f>
+        <v>59.8</v>
+      </c>
+      <c r="AF6">
+        <f>IFERROR(VLOOKUP(O6,BattleData!$A$2:$B$463,2,FALSE),0)</f>
+        <v>35.199999999999996</v>
+      </c>
+      <c r="AG6">
+        <f>IFERROR(VLOOKUP(P6,BattleData!$A$2:$B$463,2,FALSE),0)</f>
+        <v>73</v>
+      </c>
+      <c r="AH6">
+        <f>IFERROR(VLOOKUP(Q6,BattleData!$A$2:$B$463,2,FALSE),0)</f>
+        <v>75.099999999999994</v>
+      </c>
+      <c r="AI6">
+        <f>IFERROR(VLOOKUP(R6,BattleData!$A$2:$B$463,2,FALSE),0)</f>
+        <v>55.500000000000007</v>
+      </c>
+      <c r="AJ6">
+        <f>IFERROR(VLOOKUP(S6,BattleData!$A$2:$B$463,2,FALSE),0)</f>
+        <v>84.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>819</v>
+      </c>
+      <c r="B7">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
         <v>820</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <f t="shared" si="0"/>
         <v>982.1</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E7" t="s">
         <v>72</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F7" t="s">
         <v>72</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G7" t="s">
         <v>24</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H7" t="s">
         <v>24</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I7" t="s">
         <v>241</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J7" t="s">
         <v>241</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K7" t="s">
         <v>40</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L7" t="s">
         <v>40</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M7" t="s">
         <v>778</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N7" t="s">
         <v>904</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O7" t="s">
         <v>233</v>
       </c>
-      <c r="P6" t="s">
+      <c r="P7" t="s">
         <v>334</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="Q7" t="s">
         <v>331</v>
       </c>
-      <c r="R6" t="s">
+      <c r="R7" t="s">
         <v>423</v>
       </c>
-      <c r="S6" t="s">
+      <c r="S7" t="s">
         <v>264</v>
       </c>
-      <c r="U6">
+      <c r="U7">
         <f t="shared" si="1"/>
         <v>1.2565988452812918E+27</v>
       </c>
-      <c r="V6">
-        <f>IFERROR(VLOOKUP(E6,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>56.8</v>
-      </c>
-      <c r="W6">
-        <f>IFERROR(VLOOKUP(F6,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>56.8</v>
-      </c>
-      <c r="X6">
-        <f>IFERROR(VLOOKUP(G6,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>73.599999999999994</v>
-      </c>
-      <c r="Y6">
-        <f>IFERROR(VLOOKUP(H6,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>73.599999999999994</v>
-      </c>
-      <c r="Z6">
-        <f>IFERROR(VLOOKUP(I6,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>49.8</v>
-      </c>
-      <c r="AA6">
-        <f>IFERROR(VLOOKUP(J6,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>49.8</v>
-      </c>
-      <c r="AB6">
-        <f>IFERROR(VLOOKUP(K6,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>68.8</v>
-      </c>
-      <c r="AC6">
-        <f>IFERROR(VLOOKUP(L6,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>68.8</v>
-      </c>
-      <c r="AD6">
-        <f>IFERROR(VLOOKUP(M6,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>40.6</v>
-      </c>
-      <c r="AE6">
-        <f>IFERROR(VLOOKUP(N6,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>67.100000000000009</v>
-      </c>
-      <c r="AF6">
-        <f>IFERROR(VLOOKUP(O6,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>58.9</v>
-      </c>
-      <c r="AG6">
-        <f>IFERROR(VLOOKUP(P6,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>63.9</v>
-      </c>
-      <c r="AH6">
-        <f>IFERROR(VLOOKUP(Q6,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>92.600000000000009</v>
-      </c>
-      <c r="AI6">
-        <f>IFERROR(VLOOKUP(R6,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>75.099999999999994</v>
-      </c>
-      <c r="AJ6">
-        <f>IFERROR(VLOOKUP(S6,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>85.9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>834</v>
-      </c>
-      <c r="B7">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>820</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>672.7</v>
-      </c>
-      <c r="E7" t="s">
-        <v>242</v>
-      </c>
-      <c r="F7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" t="s">
-        <v>655</v>
-      </c>
-      <c r="I7" t="s">
-        <v>835</v>
-      </c>
-      <c r="J7" t="s">
-        <v>239</v>
-      </c>
-      <c r="K7" t="s">
-        <v>286</v>
-      </c>
-      <c r="L7" t="s">
-        <v>209</v>
-      </c>
-      <c r="M7" t="s">
-        <v>778</v>
-      </c>
-      <c r="N7" t="s">
-        <v>240</v>
-      </c>
-      <c r="O7" t="s">
-        <v>296</v>
-      </c>
-      <c r="P7" t="s">
-        <v>668</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>230</v>
-      </c>
-      <c r="R7" t="s">
-        <v>31</v>
-      </c>
-      <c r="S7" t="s">
-        <v>332</v>
-      </c>
-      <c r="U7">
-        <f t="shared" si="1"/>
-        <v>3.3060654620108191E+23</v>
-      </c>
       <c r="V7">
         <f>IFERROR(VLOOKUP(E7,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>3.2</v>
+        <v>56.8</v>
       </c>
       <c r="W7">
         <f>IFERROR(VLOOKUP(F7,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>73.599999999999994</v>
+        <v>56.8</v>
       </c>
       <c r="X7">
         <f>IFERROR(VLOOKUP(G7,BattleData!$A$2:$B$463,2,FALSE),0)</f>
@@ -4592,23 +4677,23 @@
       </c>
       <c r="Y7">
         <f>IFERROR(VLOOKUP(H7,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>48.3</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="Z7">
         <f>IFERROR(VLOOKUP(I7,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>49.6</v>
+        <v>49.8</v>
       </c>
       <c r="AA7">
         <f>IFERROR(VLOOKUP(J7,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>41.6</v>
+        <v>49.8</v>
       </c>
       <c r="AB7">
         <f>IFERROR(VLOOKUP(K7,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>53.1</v>
+        <v>68.8</v>
       </c>
       <c r="AC7">
         <f>IFERROR(VLOOKUP(L7,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>36.5</v>
+        <v>68.8</v>
       </c>
       <c r="AD7">
         <f>IFERROR(VLOOKUP(M7,BattleData!$A$2:$B$463,2,FALSE),0)</f>
@@ -4616,32 +4701,32 @@
       </c>
       <c r="AE7">
         <f>IFERROR(VLOOKUP(N7,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>36</v>
+        <v>67.100000000000009</v>
       </c>
       <c r="AF7">
         <f>IFERROR(VLOOKUP(O7,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>29.099999999999998</v>
+        <v>58.9</v>
       </c>
       <c r="AG7">
         <f>IFERROR(VLOOKUP(P7,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>12.7</v>
+        <v>63.9</v>
       </c>
       <c r="AH7">
         <f>IFERROR(VLOOKUP(Q7,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>40.6</v>
+        <v>92.600000000000009</v>
       </c>
       <c r="AI7">
         <f>IFERROR(VLOOKUP(R7,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>67.100000000000009</v>
+        <v>75.099999999999994</v>
       </c>
       <c r="AJ7">
         <f>IFERROR(VLOOKUP(S7,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>67.100000000000009</v>
+        <v>85.9</v>
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="B8">
         <v>13</v>
@@ -4651,60 +4736,60 @@
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>932.0999999999998</v>
+        <v>672.7</v>
       </c>
       <c r="E8" t="s">
-        <v>72</v>
+        <v>242</v>
       </c>
       <c r="F8" t="s">
         <v>24</v>
       </c>
       <c r="G8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" t="s">
         <v>655</v>
       </c>
-      <c r="H8" t="s">
-        <v>263</v>
-      </c>
       <c r="I8" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="J8" t="s">
-        <v>838</v>
+        <v>239</v>
       </c>
       <c r="K8" t="s">
-        <v>838</v>
+        <v>286</v>
       </c>
       <c r="L8" t="s">
+        <v>209</v>
+      </c>
+      <c r="M8" t="s">
+        <v>778</v>
+      </c>
+      <c r="N8" t="s">
+        <v>240</v>
+      </c>
+      <c r="O8" t="s">
+        <v>296</v>
+      </c>
+      <c r="P8" t="s">
+        <v>668</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>230</v>
+      </c>
+      <c r="R8" t="s">
         <v>31</v>
       </c>
-      <c r="M8" t="s">
+      <c r="S8" t="s">
         <v>332</v>
-      </c>
-      <c r="N8" t="s">
-        <v>233</v>
-      </c>
-      <c r="O8" t="s">
-        <v>839</v>
-      </c>
-      <c r="P8" t="s">
-        <v>409</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>66</v>
-      </c>
-      <c r="R8" t="s">
-        <v>206</v>
-      </c>
-      <c r="S8" t="s">
-        <v>37</v>
       </c>
       <c r="U8">
         <f t="shared" si="1"/>
-        <v>5.759264601259697E+26</v>
+        <v>3.3060654620108191E+23</v>
       </c>
       <c r="V8">
         <f>IFERROR(VLOOKUP(E8,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>56.8</v>
+        <v>3.2</v>
       </c>
       <c r="W8">
         <f>IFERROR(VLOOKUP(F8,BattleData!$A$2:$B$463,2,FALSE),0)</f>
@@ -4712,159 +4797,159 @@
       </c>
       <c r="X8">
         <f>IFERROR(VLOOKUP(G8,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>48.3</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="Y8">
         <f>IFERROR(VLOOKUP(H8,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>49.6</v>
+        <v>48.3</v>
       </c>
       <c r="Z8">
         <f>IFERROR(VLOOKUP(I8,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>53.1</v>
+        <v>49.6</v>
       </c>
       <c r="AA8">
         <f>IFERROR(VLOOKUP(J8,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>79.400000000000006</v>
+        <v>41.6</v>
       </c>
       <c r="AB8">
         <f>IFERROR(VLOOKUP(K8,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>79.400000000000006</v>
+        <v>53.1</v>
       </c>
       <c r="AC8">
         <f>IFERROR(VLOOKUP(L8,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>67.100000000000009</v>
+        <v>36.5</v>
       </c>
       <c r="AD8">
         <f>IFERROR(VLOOKUP(M8,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>67.100000000000009</v>
+        <v>40.6</v>
       </c>
       <c r="AE8">
         <f>IFERROR(VLOOKUP(N8,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>58.9</v>
+        <v>36</v>
       </c>
       <c r="AF8">
         <f>IFERROR(VLOOKUP(O8,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>63.9</v>
+        <v>29.099999999999998</v>
       </c>
       <c r="AG8">
         <f>IFERROR(VLOOKUP(P8,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>83.8</v>
+        <v>12.7</v>
       </c>
       <c r="AH8">
         <f>IFERROR(VLOOKUP(Q8,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>41.9</v>
+        <v>40.6</v>
       </c>
       <c r="AI8">
         <f>IFERROR(VLOOKUP(R8,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>44.9</v>
+        <v>67.100000000000009</v>
       </c>
       <c r="AJ8">
         <f>IFERROR(VLOOKUP(S8,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>64.3</v>
+        <v>67.100000000000009</v>
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="B9">
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>841</v>
+        <v>820</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>826.4</v>
+        <v>932.0999999999998</v>
       </c>
       <c r="E9" t="s">
-        <v>191</v>
+        <v>72</v>
       </c>
       <c r="F9" t="s">
-        <v>191</v>
+        <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>842</v>
+        <v>655</v>
       </c>
       <c r="H9" t="s">
-        <v>842</v>
+        <v>263</v>
       </c>
       <c r="I9" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="J9" t="s">
-        <v>100</v>
+        <v>838</v>
       </c>
       <c r="K9" t="s">
-        <v>126</v>
+        <v>838</v>
       </c>
       <c r="L9" t="s">
-        <v>843</v>
+        <v>31</v>
       </c>
       <c r="M9" t="s">
-        <v>778</v>
+        <v>332</v>
       </c>
       <c r="N9" t="s">
-        <v>256</v>
+        <v>233</v>
       </c>
       <c r="O9" t="s">
         <v>839</v>
       </c>
       <c r="P9" t="s">
-        <v>844</v>
+        <v>409</v>
       </c>
       <c r="Q9" t="s">
-        <v>845</v>
+        <v>66</v>
       </c>
       <c r="R9" t="s">
-        <v>846</v>
+        <v>206</v>
       </c>
       <c r="S9" t="s">
-        <v>264</v>
+        <v>37</v>
       </c>
       <c r="U9">
         <f t="shared" si="1"/>
-        <v>4.049207150345183E+25</v>
+        <v>5.759264601259697E+26</v>
       </c>
       <c r="V9">
         <f>IFERROR(VLOOKUP(E9,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>29.799999999999997</v>
+        <v>56.8</v>
       </c>
       <c r="W9">
         <f>IFERROR(VLOOKUP(F9,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>29.799999999999997</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="X9">
         <f>IFERROR(VLOOKUP(G9,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>71.2</v>
+        <v>48.3</v>
       </c>
       <c r="Y9">
         <f>IFERROR(VLOOKUP(H9,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>71.2</v>
+        <v>49.6</v>
       </c>
       <c r="Z9">
         <f>IFERROR(VLOOKUP(I9,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>71.2</v>
+        <v>53.1</v>
       </c>
       <c r="AA9">
         <f>IFERROR(VLOOKUP(J9,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>58.3</v>
+        <v>79.400000000000006</v>
       </c>
       <c r="AB9">
         <f>IFERROR(VLOOKUP(K9,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>91.100000000000009</v>
+        <v>79.400000000000006</v>
       </c>
       <c r="AC9">
         <f>IFERROR(VLOOKUP(L9,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>40.6</v>
+        <v>67.100000000000009</v>
       </c>
       <c r="AD9">
         <f>IFERROR(VLOOKUP(M9,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>40.6</v>
+        <v>67.100000000000009</v>
       </c>
       <c r="AE9">
         <f>IFERROR(VLOOKUP(N9,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>26.900000000000002</v>
+        <v>58.9</v>
       </c>
       <c r="AF9">
         <f>IFERROR(VLOOKUP(O9,BattleData!$A$2:$B$463,2,FALSE),0)</f>
@@ -4872,148 +4957,148 @@
       </c>
       <c r="AG9">
         <f>IFERROR(VLOOKUP(P9,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>35.199999999999996</v>
+        <v>83.8</v>
       </c>
       <c r="AH9">
         <f>IFERROR(VLOOKUP(Q9,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>38.4</v>
+        <v>41.9</v>
       </c>
       <c r="AI9">
         <f>IFERROR(VLOOKUP(R9,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>72.3</v>
+        <v>44.9</v>
       </c>
       <c r="AJ9">
         <f>IFERROR(VLOOKUP(S9,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>85.9</v>
+        <v>64.3</v>
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>847</v>
+        <v>840</v>
       </c>
       <c r="B10">
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>807</v>
+        <v>841</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>890.40000000000009</v>
+        <v>826.4</v>
       </c>
       <c r="E10" t="s">
-        <v>848</v>
+        <v>191</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
+        <v>191</v>
       </c>
       <c r="G10" t="s">
-        <v>849</v>
+        <v>842</v>
       </c>
       <c r="H10" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="I10" t="s">
-        <v>209</v>
+        <v>842</v>
       </c>
       <c r="J10" t="s">
-        <v>209</v>
+        <v>100</v>
       </c>
       <c r="K10" t="s">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="L10" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="M10" t="s">
-        <v>842</v>
+        <v>778</v>
       </c>
       <c r="N10" t="s">
-        <v>842</v>
+        <v>256</v>
       </c>
       <c r="O10" t="s">
+        <v>839</v>
+      </c>
+      <c r="P10" t="s">
         <v>844</v>
       </c>
-      <c r="P10" t="s">
-        <v>851</v>
-      </c>
       <c r="Q10" t="s">
-        <v>852</v>
+        <v>845</v>
       </c>
       <c r="R10" t="s">
-        <v>423</v>
+        <v>846</v>
       </c>
       <c r="S10" t="s">
-        <v>853</v>
+        <v>264</v>
       </c>
       <c r="U10">
         <f t="shared" si="1"/>
-        <v>2.2906830290939129E+26</v>
+        <v>4.049207150345183E+25</v>
       </c>
       <c r="V10">
         <f>IFERROR(VLOOKUP(E10,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>73.599999999999994</v>
+        <v>29.799999999999997</v>
       </c>
       <c r="W10">
         <f>IFERROR(VLOOKUP(F10,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>73.599999999999994</v>
+        <v>29.799999999999997</v>
       </c>
       <c r="X10">
         <f>IFERROR(VLOOKUP(G10,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>41.6</v>
+        <v>71.2</v>
       </c>
       <c r="Y10">
         <f>IFERROR(VLOOKUP(H10,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>49.8</v>
+        <v>71.2</v>
       </c>
       <c r="Z10">
         <f>IFERROR(VLOOKUP(I10,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>36.5</v>
+        <v>71.2</v>
       </c>
       <c r="AA10">
         <f>IFERROR(VLOOKUP(J10,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>36.5</v>
+        <v>58.3</v>
       </c>
       <c r="AB10">
         <f>IFERROR(VLOOKUP(K10,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>68.8</v>
+        <v>91.100000000000009</v>
       </c>
       <c r="AC10">
         <f>IFERROR(VLOOKUP(L10,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>71.2</v>
+        <v>40.6</v>
       </c>
       <c r="AD10">
         <f>IFERROR(VLOOKUP(M10,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>71.2</v>
+        <v>40.6</v>
       </c>
       <c r="AE10">
         <f>IFERROR(VLOOKUP(N10,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>71.2</v>
+        <v>26.900000000000002</v>
       </c>
       <c r="AF10">
         <f>IFERROR(VLOOKUP(O10,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>35.199999999999996</v>
+        <v>63.9</v>
       </c>
       <c r="AG10">
         <f>IFERROR(VLOOKUP(P10,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>55.7</v>
+        <v>35.199999999999996</v>
       </c>
       <c r="AH10">
         <f>IFERROR(VLOOKUP(Q10,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>73</v>
+        <v>38.4</v>
       </c>
       <c r="AI10">
         <f>IFERROR(VLOOKUP(R10,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>75.099999999999994</v>
+        <v>72.3</v>
       </c>
       <c r="AJ10">
         <f>IFERROR(VLOOKUP(S10,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>57.4</v>
+        <v>85.9</v>
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
       <c r="B11">
         <v>13</v>
@@ -5023,7 +5108,7 @@
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>1035.0000000000002</v>
+        <v>890.40000000000009</v>
       </c>
       <c r="E11" t="s">
         <v>848</v>
@@ -5032,19 +5117,19 @@
         <v>24</v>
       </c>
       <c r="G11" t="s">
+        <v>849</v>
+      </c>
+      <c r="H11" t="s">
         <v>850</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
+        <v>209</v>
+      </c>
+      <c r="J11" t="s">
+        <v>209</v>
+      </c>
+      <c r="K11" t="s">
         <v>40</v>
-      </c>
-      <c r="I11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J11" t="s">
-        <v>40</v>
-      </c>
-      <c r="K11" t="s">
-        <v>842</v>
       </c>
       <c r="L11" t="s">
         <v>842</v>
@@ -5053,26 +5138,26 @@
         <v>842</v>
       </c>
       <c r="N11" t="s">
-        <v>107</v>
+        <v>842</v>
       </c>
       <c r="O11" t="s">
-        <v>855</v>
+        <v>844</v>
       </c>
       <c r="P11" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="Q11" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="R11" t="s">
-        <v>858</v>
+        <v>423</v>
       </c>
       <c r="S11" t="s">
-        <v>352</v>
+        <v>853</v>
       </c>
       <c r="U11">
         <f t="shared" si="1"/>
-        <v>2.8622121576159374E+27</v>
+        <v>2.2906830290939129E+26</v>
       </c>
       <c r="V11">
         <f>IFERROR(VLOOKUP(E11,BattleData!$A$2:$B$463,2,FALSE),0)</f>
@@ -5084,23 +5169,23 @@
       </c>
       <c r="X11">
         <f>IFERROR(VLOOKUP(G11,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>49.8</v>
+        <v>41.6</v>
       </c>
       <c r="Y11">
         <f>IFERROR(VLOOKUP(H11,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>68.8</v>
+        <v>49.8</v>
       </c>
       <c r="Z11">
         <f>IFERROR(VLOOKUP(I11,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>68.8</v>
+        <v>36.5</v>
       </c>
       <c r="AA11">
         <f>IFERROR(VLOOKUP(J11,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>68.8</v>
+        <v>36.5</v>
       </c>
       <c r="AB11">
         <f>IFERROR(VLOOKUP(K11,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>71.2</v>
+        <v>68.8</v>
       </c>
       <c r="AC11">
         <f>IFERROR(VLOOKUP(L11,BattleData!$A$2:$B$463,2,FALSE),0)</f>
@@ -5112,32 +5197,32 @@
       </c>
       <c r="AE11">
         <f>IFERROR(VLOOKUP(N11,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>78.600000000000009</v>
+        <v>71.2</v>
       </c>
       <c r="AF11">
         <f>IFERROR(VLOOKUP(O11,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>70.399999999999991</v>
+        <v>35.199999999999996</v>
       </c>
       <c r="AG11">
         <f>IFERROR(VLOOKUP(P11,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>40.6</v>
+        <v>55.7</v>
       </c>
       <c r="AH11">
         <f>IFERROR(VLOOKUP(Q11,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>83.1</v>
+        <v>73</v>
       </c>
       <c r="AI11">
         <f>IFERROR(VLOOKUP(R11,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>51.6</v>
+        <v>75.099999999999994</v>
       </c>
       <c r="AJ11">
         <f>IFERROR(VLOOKUP(S11,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>93.7</v>
+        <v>57.4</v>
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="B12">
         <v>13</v>
@@ -5147,356 +5232,356 @@
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>882.90000000000009</v>
+        <v>1035.0000000000002</v>
       </c>
       <c r="E12" t="s">
-        <v>263</v>
+        <v>848</v>
       </c>
       <c r="F12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" t="s">
+        <v>850</v>
+      </c>
+      <c r="H12" t="s">
         <v>40</v>
       </c>
-      <c r="G12" t="s">
-        <v>860</v>
-      </c>
-      <c r="H12" t="s">
-        <v>861</v>
-      </c>
       <c r="I12" t="s">
-        <v>862</v>
+        <v>40</v>
       </c>
       <c r="J12" t="s">
-        <v>806</v>
+        <v>40</v>
       </c>
       <c r="K12" t="s">
-        <v>863</v>
+        <v>842</v>
       </c>
       <c r="L12" t="s">
-        <v>864</v>
+        <v>842</v>
       </c>
       <c r="M12" t="s">
-        <v>865</v>
+        <v>842</v>
       </c>
       <c r="N12" t="s">
-        <v>853</v>
+        <v>107</v>
       </c>
       <c r="O12" t="s">
-        <v>866</v>
+        <v>855</v>
       </c>
       <c r="P12" t="s">
-        <v>867</v>
+        <v>856</v>
       </c>
       <c r="Q12" t="s">
-        <v>402</v>
+        <v>857</v>
       </c>
       <c r="R12" t="s">
-        <v>423</v>
+        <v>858</v>
       </c>
       <c r="S12" t="s">
-        <v>868</v>
+        <v>352</v>
       </c>
       <c r="U12">
         <f t="shared" si="1"/>
-        <v>2.7977899321299637E+26</v>
+        <v>2.8622121576159374E+27</v>
       </c>
       <c r="V12">
         <f>IFERROR(VLOOKUP(E12,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>49.6</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="W12">
         <f>IFERROR(VLOOKUP(F12,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>68.8</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="X12">
         <f>IFERROR(VLOOKUP(G12,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>49.4</v>
+        <v>49.8</v>
       </c>
       <c r="Y12">
         <f>IFERROR(VLOOKUP(H12,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>55.000000000000007</v>
+        <v>68.8</v>
       </c>
       <c r="Z12">
         <f>IFERROR(VLOOKUP(I12,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>50.1</v>
+        <v>68.8</v>
       </c>
       <c r="AA12">
         <f>IFERROR(VLOOKUP(J12,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>71.2</v>
+        <v>68.8</v>
       </c>
       <c r="AB12">
         <f>IFERROR(VLOOKUP(K12,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>43.1</v>
+        <v>71.2</v>
       </c>
       <c r="AC12">
         <f>IFERROR(VLOOKUP(L12,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>56.3</v>
+        <v>71.2</v>
       </c>
       <c r="AD12">
         <f>IFERROR(VLOOKUP(M12,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>67.100000000000009</v>
+        <v>71.2</v>
       </c>
       <c r="AE12">
         <f>IFERROR(VLOOKUP(N12,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>57.4</v>
+        <v>78.600000000000009</v>
       </c>
       <c r="AF12">
         <f>IFERROR(VLOOKUP(O12,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>62.8</v>
+        <v>70.399999999999991</v>
       </c>
       <c r="AG12">
         <f>IFERROR(VLOOKUP(P12,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>55.500000000000007</v>
+        <v>40.6</v>
       </c>
       <c r="AH12">
         <f>IFERROR(VLOOKUP(Q12,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>76</v>
+        <v>83.1</v>
       </c>
       <c r="AI12">
         <f>IFERROR(VLOOKUP(R12,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>75.099999999999994</v>
+        <v>51.6</v>
       </c>
       <c r="AJ12">
         <f>IFERROR(VLOOKUP(S12,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>45.5</v>
+        <v>93.7</v>
       </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>869</v>
+        <v>859</v>
       </c>
       <c r="B13">
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>841</v>
+        <v>807</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>841.30000000000007</v>
+        <v>882.90000000000009</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>263</v>
       </c>
       <c r="F13" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>870</v>
+        <v>860</v>
       </c>
       <c r="H13" t="s">
-        <v>871</v>
+        <v>861</v>
       </c>
       <c r="I13" t="s">
+        <v>862</v>
+      </c>
+      <c r="J13" t="s">
+        <v>806</v>
+      </c>
+      <c r="K13" t="s">
+        <v>863</v>
+      </c>
+      <c r="L13" t="s">
+        <v>864</v>
+      </c>
+      <c r="M13" t="s">
         <v>865</v>
       </c>
-      <c r="J13" t="s">
-        <v>872</v>
-      </c>
-      <c r="K13" t="s">
-        <v>873</v>
-      </c>
-      <c r="L13" t="s">
-        <v>874</v>
-      </c>
-      <c r="M13" t="s">
-        <v>875</v>
-      </c>
       <c r="N13" t="s">
-        <v>428</v>
+        <v>853</v>
       </c>
       <c r="O13" t="s">
-        <v>876</v>
+        <v>866</v>
       </c>
       <c r="P13" t="s">
-        <v>853</v>
+        <v>867</v>
       </c>
       <c r="Q13" t="s">
-        <v>877</v>
+        <v>402</v>
       </c>
       <c r="R13" t="s">
-        <v>206</v>
+        <v>423</v>
       </c>
       <c r="S13" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="U13">
         <f t="shared" si="1"/>
-        <v>8.2510238914110617E+25</v>
+        <v>2.7977899321299637E+26</v>
       </c>
       <c r="V13">
         <f>IFERROR(VLOOKUP(E13,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>33.900000000000006</v>
+        <v>49.6</v>
       </c>
       <c r="W13">
         <f>IFERROR(VLOOKUP(F13,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>33.200000000000003</v>
+        <v>68.8</v>
       </c>
       <c r="X13">
         <f>IFERROR(VLOOKUP(G13,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>46.800000000000004</v>
+        <v>49.4</v>
       </c>
       <c r="Y13">
         <f>IFERROR(VLOOKUP(H13,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>40.6</v>
+        <v>55.000000000000007</v>
       </c>
       <c r="Z13">
         <f>IFERROR(VLOOKUP(I13,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>67.100000000000009</v>
+        <v>50.1</v>
       </c>
       <c r="AA13">
         <f>IFERROR(VLOOKUP(J13,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>58.5</v>
+        <v>71.2</v>
       </c>
       <c r="AB13">
         <f>IFERROR(VLOOKUP(K13,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>42.699999999999996</v>
+        <v>43.1</v>
       </c>
       <c r="AC13">
         <f>IFERROR(VLOOKUP(L13,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>92.600000000000009</v>
+        <v>56.3</v>
       </c>
       <c r="AD13">
         <f>IFERROR(VLOOKUP(M13,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>47.5</v>
+        <v>67.100000000000009</v>
       </c>
       <c r="AE13">
         <f>IFERROR(VLOOKUP(N13,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>73</v>
+        <v>57.4</v>
       </c>
       <c r="AF13">
         <f>IFERROR(VLOOKUP(O13,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>75.099999999999994</v>
+        <v>62.8</v>
       </c>
       <c r="AG13">
         <f>IFERROR(VLOOKUP(P13,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>57.4</v>
+        <v>55.500000000000007</v>
       </c>
       <c r="AH13">
         <f>IFERROR(VLOOKUP(Q13,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>83.8</v>
+        <v>76</v>
       </c>
       <c r="AI13">
         <f>IFERROR(VLOOKUP(R13,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>44.9</v>
+        <v>75.099999999999994</v>
       </c>
       <c r="AJ13">
         <f>IFERROR(VLOOKUP(S13,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>44.2</v>
+        <v>45.5</v>
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>879</v>
+        <v>869</v>
       </c>
       <c r="B14">
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>807</v>
+        <v>841</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>859.19999999999993</v>
+        <v>841.30000000000007</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>860</v>
+        <v>85</v>
       </c>
       <c r="G14" t="s">
-        <v>880</v>
+        <v>870</v>
       </c>
       <c r="H14" t="s">
-        <v>862</v>
+        <v>871</v>
       </c>
       <c r="I14" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="J14" t="s">
-        <v>881</v>
+        <v>872</v>
       </c>
       <c r="K14" t="s">
-        <v>882</v>
+        <v>873</v>
       </c>
       <c r="L14" t="s">
-        <v>443</v>
+        <v>874</v>
       </c>
       <c r="M14" t="s">
+        <v>875</v>
+      </c>
+      <c r="N14" t="s">
+        <v>428</v>
+      </c>
+      <c r="O14" t="s">
         <v>876</v>
       </c>
-      <c r="N14" t="s">
+      <c r="P14" t="s">
+        <v>853</v>
+      </c>
+      <c r="Q14" t="s">
         <v>877</v>
-      </c>
-      <c r="O14" t="s">
-        <v>867</v>
-      </c>
-      <c r="P14" t="s">
-        <v>883</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>66</v>
       </c>
       <c r="R14" t="s">
         <v>206</v>
       </c>
       <c r="S14" t="s">
-        <v>441</v>
+        <v>878</v>
       </c>
       <c r="U14">
         <f t="shared" si="1"/>
-        <v>1.244767939658678E+26</v>
+        <v>8.2510238914110617E+25</v>
       </c>
       <c r="V14">
         <f>IFERROR(VLOOKUP(E14,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>68.8</v>
+        <v>33.900000000000006</v>
       </c>
       <c r="W14">
         <f>IFERROR(VLOOKUP(F14,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>49.4</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="X14">
         <f>IFERROR(VLOOKUP(G14,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>43.1</v>
+        <v>46.800000000000004</v>
       </c>
       <c r="Y14">
         <f>IFERROR(VLOOKUP(H14,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>50.1</v>
+        <v>40.6</v>
       </c>
       <c r="Z14">
         <f>IFERROR(VLOOKUP(I14,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>43.1</v>
+        <v>67.100000000000009</v>
       </c>
       <c r="AA14">
         <f>IFERROR(VLOOKUP(J14,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>47.9</v>
+        <v>58.5</v>
       </c>
       <c r="AB14">
         <f>IFERROR(VLOOKUP(K14,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>44.9</v>
+        <v>42.699999999999996</v>
       </c>
       <c r="AC14">
         <f>IFERROR(VLOOKUP(L14,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>36.9</v>
+        <v>92.600000000000009</v>
       </c>
       <c r="AD14">
         <f>IFERROR(VLOOKUP(M14,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>75.099999999999994</v>
+        <v>47.5</v>
       </c>
       <c r="AE14">
         <f>IFERROR(VLOOKUP(N14,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>83.8</v>
+        <v>73</v>
       </c>
       <c r="AF14">
         <f>IFERROR(VLOOKUP(O14,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>55.500000000000007</v>
+        <v>75.099999999999994</v>
       </c>
       <c r="AG14">
         <f>IFERROR(VLOOKUP(P14,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>89.2</v>
+        <v>57.4</v>
       </c>
       <c r="AH14">
         <f>IFERROR(VLOOKUP(Q14,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>41.9</v>
+        <v>83.8</v>
       </c>
       <c r="AI14">
         <f>IFERROR(VLOOKUP(R14,BattleData!$A$2:$B$463,2,FALSE),0)</f>
@@ -5504,58 +5589,58 @@
       </c>
       <c r="AJ14">
         <f>IFERROR(VLOOKUP(S14,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>84.6</v>
+        <v>44.2</v>
       </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="B15">
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>841</v>
+        <v>807</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>858.09999999999991</v>
+        <v>859.19999999999993</v>
       </c>
       <c r="E15" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="F15" t="s">
-        <v>163</v>
+        <v>860</v>
       </c>
       <c r="G15" t="s">
-        <v>24</v>
+        <v>880</v>
       </c>
       <c r="H15" t="s">
-        <v>93</v>
+        <v>862</v>
       </c>
       <c r="I15" t="s">
-        <v>100</v>
+        <v>863</v>
       </c>
       <c r="J15" t="s">
-        <v>84</v>
+        <v>881</v>
       </c>
       <c r="K15" t="s">
-        <v>31</v>
+        <v>882</v>
       </c>
       <c r="L15" t="s">
-        <v>332</v>
+        <v>443</v>
       </c>
       <c r="M15" t="s">
-        <v>233</v>
+        <v>876</v>
       </c>
       <c r="N15" t="s">
-        <v>443</v>
+        <v>877</v>
       </c>
       <c r="O15" t="s">
-        <v>487</v>
+        <v>867</v>
       </c>
       <c r="P15" t="s">
-        <v>423</v>
+        <v>883</v>
       </c>
       <c r="Q15" t="s">
         <v>66</v>
@@ -5564,59 +5649,59 @@
         <v>206</v>
       </c>
       <c r="S15" t="s">
-        <v>37</v>
+        <v>441</v>
       </c>
       <c r="U15">
         <f t="shared" si="1"/>
-        <v>1.7255853837675559E+26</v>
+        <v>1.244767939658678E+26</v>
       </c>
       <c r="V15">
         <f>IFERROR(VLOOKUP(E15,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>56.8</v>
+        <v>68.8</v>
       </c>
       <c r="W15">
         <f>IFERROR(VLOOKUP(F15,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>46.400000000000006</v>
+        <v>49.4</v>
       </c>
       <c r="X15">
         <f>IFERROR(VLOOKUP(G15,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>73.599999999999994</v>
+        <v>43.1</v>
       </c>
       <c r="Y15">
         <f>IFERROR(VLOOKUP(H15,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>54.400000000000006</v>
+        <v>50.1</v>
       </c>
       <c r="Z15">
         <f>IFERROR(VLOOKUP(I15,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>58.3</v>
+        <v>43.1</v>
       </c>
       <c r="AA15">
         <f>IFERROR(VLOOKUP(J15,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>54.400000000000006</v>
+        <v>47.9</v>
       </c>
       <c r="AB15">
         <f>IFERROR(VLOOKUP(K15,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>67.100000000000009</v>
+        <v>44.9</v>
       </c>
       <c r="AC15">
         <f>IFERROR(VLOOKUP(L15,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>67.100000000000009</v>
+        <v>36.9</v>
       </c>
       <c r="AD15">
         <f>IFERROR(VLOOKUP(M15,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>58.9</v>
+        <v>75.099999999999994</v>
       </c>
       <c r="AE15">
         <f>IFERROR(VLOOKUP(N15,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>36.9</v>
+        <v>83.8</v>
       </c>
       <c r="AF15">
         <f>IFERROR(VLOOKUP(O15,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>57.999999999999993</v>
+        <v>55.500000000000007</v>
       </c>
       <c r="AG15">
         <f>IFERROR(VLOOKUP(P15,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>75.099999999999994</v>
+        <v>89.2</v>
       </c>
       <c r="AH15">
         <f>IFERROR(VLOOKUP(Q15,BattleData!$A$2:$B$463,2,FALSE),0)</f>
@@ -5628,115 +5713,115 @@
       </c>
       <c r="AJ15">
         <f>IFERROR(VLOOKUP(S15,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>64.3</v>
+        <v>84.6</v>
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B16">
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>807</v>
+        <v>841</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>832.6</v>
+        <v>858.09999999999991</v>
       </c>
       <c r="E16" t="s">
-        <v>346</v>
+        <v>72</v>
       </c>
       <c r="F16" t="s">
-        <v>886</v>
+        <v>163</v>
       </c>
       <c r="G16" t="s">
-        <v>887</v>
+        <v>24</v>
       </c>
       <c r="H16" t="s">
-        <v>860</v>
+        <v>93</v>
       </c>
       <c r="I16" t="s">
-        <v>880</v>
+        <v>100</v>
       </c>
       <c r="J16" t="s">
-        <v>863</v>
+        <v>84</v>
       </c>
       <c r="K16" t="s">
-        <v>240</v>
+        <v>31</v>
       </c>
       <c r="L16" t="s">
-        <v>396</v>
+        <v>332</v>
       </c>
       <c r="M16" t="s">
+        <v>233</v>
+      </c>
+      <c r="N16" t="s">
+        <v>443</v>
+      </c>
+      <c r="O16" t="s">
         <v>487</v>
-      </c>
-      <c r="N16" t="s">
-        <v>428</v>
-      </c>
-      <c r="O16" t="s">
-        <v>434</v>
       </c>
       <c r="P16" t="s">
         <v>423</v>
       </c>
       <c r="Q16" t="s">
-        <v>876</v>
+        <v>66</v>
       </c>
       <c r="R16" t="s">
-        <v>853</v>
+        <v>206</v>
       </c>
       <c r="S16" t="s">
-        <v>816</v>
+        <v>37</v>
       </c>
       <c r="U16">
         <f t="shared" si="1"/>
-        <v>6.9196585355259412E+25</v>
+        <v>1.7255853837675559E+26</v>
       </c>
       <c r="V16">
         <f>IFERROR(VLOOKUP(E16,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>39.5</v>
+        <v>56.8</v>
       </c>
       <c r="W16">
         <f>IFERROR(VLOOKUP(F16,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>23.5</v>
+        <v>46.400000000000006</v>
       </c>
       <c r="X16">
         <f>IFERROR(VLOOKUP(G16,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>68.8</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="Y16">
         <f>IFERROR(VLOOKUP(H16,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>49.4</v>
+        <v>54.400000000000006</v>
       </c>
       <c r="Z16">
         <f>IFERROR(VLOOKUP(I16,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>43.1</v>
+        <v>58.3</v>
       </c>
       <c r="AA16">
         <f>IFERROR(VLOOKUP(J16,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>43.1</v>
+        <v>54.400000000000006</v>
       </c>
       <c r="AB16">
         <f>IFERROR(VLOOKUP(K16,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>36</v>
+        <v>67.100000000000009</v>
       </c>
       <c r="AC16">
         <f>IFERROR(VLOOKUP(L16,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>74.7</v>
+        <v>67.100000000000009</v>
       </c>
       <c r="AD16">
         <f>IFERROR(VLOOKUP(M16,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>57.999999999999993</v>
+        <v>58.9</v>
       </c>
       <c r="AE16">
         <f>IFERROR(VLOOKUP(N16,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>73</v>
+        <v>36.9</v>
       </c>
       <c r="AF16">
         <f>IFERROR(VLOOKUP(O16,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>70.399999999999991</v>
+        <v>57.999999999999993</v>
       </c>
       <c r="AG16">
         <f>IFERROR(VLOOKUP(P16,BattleData!$A$2:$B$463,2,FALSE),0)</f>
@@ -5744,392 +5829,392 @@
       </c>
       <c r="AH16">
         <f>IFERROR(VLOOKUP(Q16,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>75.099999999999994</v>
+        <v>41.9</v>
       </c>
       <c r="AI16">
         <f>IFERROR(VLOOKUP(R16,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>57.4</v>
+        <v>44.9</v>
       </c>
       <c r="AJ16">
         <f>IFERROR(VLOOKUP(S16,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>45.5</v>
+        <v>64.3</v>
       </c>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="B17">
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>943.2</v>
+        <v>832.6</v>
       </c>
       <c r="E17" t="s">
-        <v>848</v>
+        <v>346</v>
       </c>
       <c r="F17" t="s">
-        <v>24</v>
+        <v>886</v>
       </c>
       <c r="G17" t="s">
-        <v>24</v>
+        <v>887</v>
       </c>
       <c r="H17" t="s">
-        <v>24</v>
+        <v>860</v>
       </c>
       <c r="I17" t="s">
-        <v>24</v>
+        <v>880</v>
       </c>
       <c r="J17" t="s">
-        <v>239</v>
+        <v>863</v>
       </c>
       <c r="K17" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L17" t="s">
-        <v>241</v>
+        <v>396</v>
       </c>
       <c r="M17" t="s">
-        <v>241</v>
+        <v>487</v>
       </c>
       <c r="N17" t="s">
-        <v>209</v>
+        <v>428</v>
       </c>
       <c r="O17" t="s">
-        <v>158</v>
+        <v>434</v>
       </c>
       <c r="P17" t="s">
-        <v>126</v>
+        <v>423</v>
       </c>
       <c r="Q17" t="s">
-        <v>126</v>
+        <v>876</v>
       </c>
       <c r="R17" t="s">
-        <v>31</v>
+        <v>853</v>
       </c>
       <c r="S17" t="s">
-        <v>889</v>
+        <v>816</v>
       </c>
       <c r="U17">
         <f t="shared" si="1"/>
-        <v>5.2727064594929228E+26</v>
+        <v>6.9196585355259412E+25</v>
       </c>
       <c r="V17">
         <f>IFERROR(VLOOKUP(E17,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>73.599999999999994</v>
+        <v>39.5</v>
       </c>
       <c r="W17">
         <f>IFERROR(VLOOKUP(F17,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>73.599999999999994</v>
+        <v>23.5</v>
       </c>
       <c r="X17">
         <f>IFERROR(VLOOKUP(G17,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>73.599999999999994</v>
+        <v>68.8</v>
       </c>
       <c r="Y17">
         <f>IFERROR(VLOOKUP(H17,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>73.599999999999994</v>
+        <v>49.4</v>
       </c>
       <c r="Z17">
         <f>IFERROR(VLOOKUP(I17,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>73.599999999999994</v>
+        <v>43.1</v>
       </c>
       <c r="AA17">
         <f>IFERROR(VLOOKUP(J17,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>41.6</v>
+        <v>43.1</v>
       </c>
       <c r="AB17">
         <f>IFERROR(VLOOKUP(K17,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>41.6</v>
+        <v>36</v>
       </c>
       <c r="AC17">
         <f>IFERROR(VLOOKUP(L17,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>49.8</v>
+        <v>74.7</v>
       </c>
       <c r="AD17">
         <f>IFERROR(VLOOKUP(M17,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>49.8</v>
+        <v>57.999999999999993</v>
       </c>
       <c r="AE17">
         <f>IFERROR(VLOOKUP(N17,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>36.5</v>
+        <v>73</v>
       </c>
       <c r="AF17">
         <f>IFERROR(VLOOKUP(O17,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>46.800000000000004</v>
+        <v>70.399999999999991</v>
       </c>
       <c r="AG17">
         <f>IFERROR(VLOOKUP(P17,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>91.100000000000009</v>
+        <v>75.099999999999994</v>
       </c>
       <c r="AH17">
         <f>IFERROR(VLOOKUP(Q17,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>91.100000000000009</v>
+        <v>75.099999999999994</v>
       </c>
       <c r="AI17">
         <f>IFERROR(VLOOKUP(R17,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>67.100000000000009</v>
+        <v>57.4</v>
       </c>
       <c r="AJ17">
         <f>IFERROR(VLOOKUP(S17,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>59.8</v>
+        <v>45.5</v>
       </c>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B18">
         <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>841</v>
+        <v>804</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>717.09999999999991</v>
+        <v>943.2</v>
       </c>
       <c r="E18" t="s">
-        <v>55</v>
+        <v>848</v>
       </c>
       <c r="F18" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="G18" t="s">
-        <v>109</v>
+        <v>24</v>
       </c>
       <c r="H18" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="I18" t="s">
-        <v>191</v>
+        <v>24</v>
       </c>
       <c r="J18" t="s">
-        <v>163</v>
+        <v>239</v>
       </c>
       <c r="K18" t="s">
-        <v>891</v>
+        <v>239</v>
       </c>
       <c r="L18" t="s">
-        <v>134</v>
+        <v>241</v>
       </c>
       <c r="M18" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="N18" t="s">
-        <v>125</v>
+        <v>209</v>
       </c>
       <c r="O18" t="s">
-        <v>100</v>
+        <v>158</v>
       </c>
       <c r="P18" t="s">
-        <v>158</v>
+        <v>126</v>
       </c>
       <c r="Q18" t="s">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c r="R18" t="s">
-        <v>251</v>
+        <v>31</v>
       </c>
       <c r="S18" t="s">
-        <v>206</v>
+        <v>889</v>
       </c>
       <c r="U18">
         <f t="shared" si="1"/>
-        <v>6.6285300669330637E+24</v>
+        <v>5.2727064594929228E+26</v>
       </c>
       <c r="V18">
         <f>IFERROR(VLOOKUP(E18,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>20.7</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="W18">
         <f>IFERROR(VLOOKUP(F18,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>32.1</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="X18">
         <f>IFERROR(VLOOKUP(G18,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>37.5</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="Y18">
         <f>IFERROR(VLOOKUP(H18,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>56.8</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="Z18">
         <f>IFERROR(VLOOKUP(I18,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>29.799999999999997</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="AA18">
         <f>IFERROR(VLOOKUP(J18,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>46.400000000000006</v>
+        <v>41.6</v>
       </c>
       <c r="AB18">
         <f>IFERROR(VLOOKUP(K18,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>78.600000000000009</v>
+        <v>41.6</v>
       </c>
       <c r="AC18">
         <f>IFERROR(VLOOKUP(L18,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>48.3</v>
+        <v>49.8</v>
       </c>
       <c r="AD18">
         <f>IFERROR(VLOOKUP(M18,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>47.9</v>
+        <v>49.8</v>
       </c>
       <c r="AE18">
         <f>IFERROR(VLOOKUP(N18,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>79.400000000000006</v>
+        <v>36.5</v>
       </c>
       <c r="AF18">
         <f>IFERROR(VLOOKUP(O18,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>58.3</v>
+        <v>46.800000000000004</v>
       </c>
       <c r="AG18">
         <f>IFERROR(VLOOKUP(P18,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>46.800000000000004</v>
+        <v>91.100000000000009</v>
       </c>
       <c r="AH18">
         <f>IFERROR(VLOOKUP(Q18,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>54.400000000000006</v>
+        <v>91.100000000000009</v>
       </c>
       <c r="AI18">
         <f>IFERROR(VLOOKUP(R18,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>35.199999999999996</v>
+        <v>67.100000000000009</v>
       </c>
       <c r="AJ18">
         <f>IFERROR(VLOOKUP(S18,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>44.9</v>
+        <v>59.8</v>
       </c>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B19">
         <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>804</v>
+        <v>841</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
-        <v>955.6</v>
+        <v>717.09999999999991</v>
       </c>
       <c r="E19" t="s">
-        <v>848</v>
+        <v>55</v>
       </c>
       <c r="F19" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="G19" t="s">
-        <v>887</v>
+        <v>109</v>
       </c>
       <c r="H19" t="s">
-        <v>806</v>
+        <v>72</v>
       </c>
       <c r="I19" t="s">
-        <v>85</v>
+        <v>191</v>
       </c>
       <c r="J19" t="s">
+        <v>163</v>
+      </c>
+      <c r="K19" t="s">
+        <v>891</v>
+      </c>
+      <c r="L19" t="s">
+        <v>134</v>
+      </c>
+      <c r="M19" t="s">
+        <v>140</v>
+      </c>
+      <c r="N19" t="s">
+        <v>125</v>
+      </c>
+      <c r="O19" t="s">
+        <v>100</v>
+      </c>
+      <c r="P19" t="s">
         <v>158</v>
       </c>
-      <c r="K19" t="s">
-        <v>126</v>
-      </c>
-      <c r="L19" t="s">
-        <v>230</v>
-      </c>
-      <c r="M19" t="s">
-        <v>233</v>
-      </c>
-      <c r="N19" t="s">
-        <v>334</v>
-      </c>
-      <c r="O19" t="s">
-        <v>844</v>
-      </c>
-      <c r="P19" t="s">
-        <v>220</v>
-      </c>
       <c r="Q19" t="s">
-        <v>852</v>
+        <v>84</v>
       </c>
       <c r="R19" t="s">
-        <v>423</v>
+        <v>251</v>
       </c>
       <c r="S19" t="s">
-        <v>146</v>
+        <v>206</v>
       </c>
       <c r="U19">
         <f t="shared" si="1"/>
-        <v>6.2204809785057418E+26</v>
+        <v>6.6285300669330637E+24</v>
       </c>
       <c r="V19">
         <f>IFERROR(VLOOKUP(E19,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>73.599999999999994</v>
+        <v>20.7</v>
       </c>
       <c r="W19">
         <f>IFERROR(VLOOKUP(F19,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>68.8</v>
+        <v>32.1</v>
       </c>
       <c r="X19">
         <f>IFERROR(VLOOKUP(G19,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>68.8</v>
+        <v>37.5</v>
       </c>
       <c r="Y19">
         <f>IFERROR(VLOOKUP(H19,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>71.2</v>
+        <v>56.8</v>
       </c>
       <c r="Z19">
         <f>IFERROR(VLOOKUP(I19,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>33.200000000000003</v>
+        <v>29.799999999999997</v>
       </c>
       <c r="AA19">
         <f>IFERROR(VLOOKUP(J19,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>46.800000000000004</v>
+        <v>46.400000000000006</v>
       </c>
       <c r="AB19">
         <f>IFERROR(VLOOKUP(K19,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>91.100000000000009</v>
+        <v>78.600000000000009</v>
       </c>
       <c r="AC19">
         <f>IFERROR(VLOOKUP(L19,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>40.6</v>
+        <v>48.3</v>
       </c>
       <c r="AD19">
         <f>IFERROR(VLOOKUP(M19,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>58.9</v>
+        <v>47.9</v>
       </c>
       <c r="AE19">
         <f>IFERROR(VLOOKUP(N19,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>63.9</v>
+        <v>79.400000000000006</v>
       </c>
       <c r="AF19">
         <f>IFERROR(VLOOKUP(O19,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>35.199999999999996</v>
+        <v>58.3</v>
       </c>
       <c r="AG19">
         <f>IFERROR(VLOOKUP(P19,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>83.1</v>
+        <v>46.800000000000004</v>
       </c>
       <c r="AH19">
         <f>IFERROR(VLOOKUP(Q19,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>73</v>
+        <v>54.400000000000006</v>
       </c>
       <c r="AI19">
         <f>IFERROR(VLOOKUP(R19,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>75.099999999999994</v>
+        <v>35.199999999999996</v>
       </c>
       <c r="AJ19">
         <f>IFERROR(VLOOKUP(S19,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>72.3</v>
+        <v>44.9</v>
       </c>
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B20">
         <v>13</v>
@@ -6139,108 +6224,108 @@
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
-        <v>905.00000000000011</v>
+        <v>955.6</v>
       </c>
       <c r="E20" t="s">
-        <v>125</v>
+        <v>848</v>
       </c>
       <c r="F20" t="s">
-        <v>894</v>
+        <v>40</v>
       </c>
       <c r="G20" t="s">
+        <v>887</v>
+      </c>
+      <c r="H20" t="s">
+        <v>806</v>
+      </c>
+      <c r="I20" t="s">
+        <v>85</v>
+      </c>
+      <c r="J20" t="s">
+        <v>158</v>
+      </c>
+      <c r="K20" t="s">
         <v>126</v>
       </c>
-      <c r="H20" t="s">
-        <v>84</v>
-      </c>
-      <c r="I20" t="s">
-        <v>226</v>
-      </c>
-      <c r="J20" t="s">
-        <v>31</v>
-      </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
+        <v>230</v>
+      </c>
+      <c r="M20" t="s">
         <v>233</v>
       </c>
-      <c r="L20" t="s">
+      <c r="N20" t="s">
         <v>334</v>
       </c>
-      <c r="M20" t="s">
-        <v>297</v>
-      </c>
-      <c r="N20" t="s">
-        <v>251</v>
-      </c>
       <c r="O20" t="s">
-        <v>392</v>
+        <v>844</v>
       </c>
       <c r="P20" t="s">
-        <v>396</v>
+        <v>220</v>
       </c>
       <c r="Q20" t="s">
-        <v>449</v>
+        <v>852</v>
       </c>
       <c r="R20" t="s">
         <v>423</v>
       </c>
       <c r="S20" t="s">
-        <v>816</v>
+        <v>146</v>
       </c>
       <c r="U20">
         <f t="shared" si="1"/>
-        <v>3.0403232058677027E+26</v>
+        <v>6.2204809785057418E+26</v>
       </c>
       <c r="V20">
         <f>IFERROR(VLOOKUP(E20,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>79.400000000000006</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="W20">
         <f>IFERROR(VLOOKUP(F20,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>58.3</v>
+        <v>68.8</v>
       </c>
       <c r="X20">
         <f>IFERROR(VLOOKUP(G20,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>91.100000000000009</v>
+        <v>68.8</v>
       </c>
       <c r="Y20">
         <f>IFERROR(VLOOKUP(H20,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>54.400000000000006</v>
+        <v>71.2</v>
       </c>
       <c r="Z20">
         <f>IFERROR(VLOOKUP(I20,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>34.5</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="AA20">
         <f>IFERROR(VLOOKUP(J20,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>67.100000000000009</v>
+        <v>46.800000000000004</v>
       </c>
       <c r="AB20">
         <f>IFERROR(VLOOKUP(K20,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>58.9</v>
+        <v>91.100000000000009</v>
       </c>
       <c r="AC20">
         <f>IFERROR(VLOOKUP(L20,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>63.9</v>
+        <v>40.6</v>
       </c>
       <c r="AD20">
         <f>IFERROR(VLOOKUP(M20,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>59.8</v>
+        <v>58.9</v>
       </c>
       <c r="AE20">
         <f>IFERROR(VLOOKUP(N20,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>35.199999999999996</v>
+        <v>63.9</v>
       </c>
       <c r="AF20">
         <f>IFERROR(VLOOKUP(O20,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>59.599999999999994</v>
+        <v>35.199999999999996</v>
       </c>
       <c r="AG20">
         <f>IFERROR(VLOOKUP(P20,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>74.7</v>
+        <v>83.1</v>
       </c>
       <c r="AH20">
         <f>IFERROR(VLOOKUP(Q20,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>47.5</v>
+        <v>73</v>
       </c>
       <c r="AI20">
         <f>IFERROR(VLOOKUP(R20,BattleData!$A$2:$B$463,2,FALSE),0)</f>
@@ -6248,327 +6333,259 @@
       </c>
       <c r="AJ20">
         <f>IFERROR(VLOOKUP(S20,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>45.5</v>
+        <v>72.3</v>
       </c>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B21">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
-        <v>1030.5999999999999</v>
+        <v>905.00000000000011</v>
       </c>
       <c r="E21" t="s">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="F21" t="s">
-        <v>860</v>
+        <v>894</v>
       </c>
       <c r="G21" t="s">
-        <v>842</v>
+        <v>126</v>
       </c>
       <c r="H21" t="s">
-        <v>806</v>
+        <v>84</v>
       </c>
       <c r="I21" t="s">
-        <v>865</v>
+        <v>226</v>
       </c>
       <c r="J21" t="s">
+        <v>31</v>
+      </c>
+      <c r="K21" t="s">
+        <v>233</v>
+      </c>
+      <c r="L21" t="s">
         <v>334</v>
       </c>
-      <c r="K21" t="s">
+      <c r="M21" t="s">
         <v>297</v>
       </c>
-      <c r="L21" t="s">
-        <v>287</v>
-      </c>
-      <c r="M21" t="s">
-        <v>815</v>
-      </c>
       <c r="N21" t="s">
-        <v>896</v>
+        <v>251</v>
       </c>
       <c r="O21" t="s">
-        <v>876</v>
+        <v>392</v>
       </c>
       <c r="P21" t="s">
-        <v>853</v>
+        <v>396</v>
       </c>
       <c r="Q21" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="R21" t="s">
-        <v>167</v>
+        <v>423</v>
       </c>
       <c r="S21" t="s">
-        <v>897</v>
+        <v>816</v>
       </c>
       <c r="U21">
         <f t="shared" si="1"/>
-        <v>2.8533595867371494E+27</v>
+        <v>3.0403232058677027E+26</v>
       </c>
       <c r="V21">
         <f>IFERROR(VLOOKUP(E21,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>68.8</v>
+        <v>79.400000000000006</v>
       </c>
       <c r="W21">
         <f>IFERROR(VLOOKUP(F21,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>49.4</v>
+        <v>58.3</v>
       </c>
       <c r="X21">
         <f>IFERROR(VLOOKUP(G21,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>71.2</v>
+        <v>91.100000000000009</v>
       </c>
       <c r="Y21">
         <f>IFERROR(VLOOKUP(H21,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>71.2</v>
+        <v>54.400000000000006</v>
       </c>
       <c r="Z21">
         <f>IFERROR(VLOOKUP(I21,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>67.100000000000009</v>
+        <v>34.5</v>
       </c>
       <c r="AA21">
         <f>IFERROR(VLOOKUP(J21,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>63.9</v>
+        <v>67.100000000000009</v>
       </c>
       <c r="AB21">
         <f>IFERROR(VLOOKUP(K21,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>59.8</v>
+        <v>58.9</v>
       </c>
       <c r="AC21">
         <f>IFERROR(VLOOKUP(L21,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>82.199999999999989</v>
+        <v>63.9</v>
       </c>
       <c r="AD21">
         <f>IFERROR(VLOOKUP(M21,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>51.6</v>
+        <v>59.8</v>
       </c>
       <c r="AE21">
         <f>IFERROR(VLOOKUP(N21,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>79.400000000000006</v>
+        <v>35.199999999999996</v>
       </c>
       <c r="AF21">
         <f>IFERROR(VLOOKUP(O21,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>75.099999999999994</v>
+        <v>59.599999999999994</v>
       </c>
       <c r="AG21">
         <f>IFERROR(VLOOKUP(P21,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>57.4</v>
+        <v>74.7</v>
       </c>
       <c r="AH21">
         <f>IFERROR(VLOOKUP(Q21,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>62.8</v>
+        <v>47.5</v>
       </c>
       <c r="AI21">
         <f>IFERROR(VLOOKUP(R21,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>71.2</v>
+        <v>75.099999999999994</v>
       </c>
       <c r="AJ21">
         <f>IFERROR(VLOOKUP(S21,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>99.5</v>
+        <v>45.5</v>
       </c>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="B22">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>820</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="0"/>
-        <v>912.7</v>
+        <v>807</v>
       </c>
       <c r="E22" t="s">
-        <v>140</v>
+        <v>848</v>
       </c>
       <c r="F22" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22" t="s">
+        <v>860</v>
+      </c>
+      <c r="H22" t="s">
+        <v>806</v>
+      </c>
+      <c r="I22" t="s">
+        <v>806</v>
+      </c>
+      <c r="J22" t="s">
         <v>100</v>
       </c>
-      <c r="G22" t="s">
-        <v>126</v>
-      </c>
-      <c r="H22" t="s">
-        <v>57</v>
-      </c>
-      <c r="I22" t="s">
-        <v>240</v>
-      </c>
-      <c r="J22" t="s">
-        <v>899</v>
-      </c>
       <c r="K22" t="s">
-        <v>332</v>
+        <v>31</v>
       </c>
       <c r="L22" t="s">
         <v>334</v>
       </c>
       <c r="M22" t="s">
-        <v>220</v>
+        <v>297</v>
       </c>
       <c r="N22" t="s">
+        <v>287</v>
+      </c>
+      <c r="O22" t="s">
         <v>815</v>
       </c>
-      <c r="O22" t="s">
-        <v>392</v>
-      </c>
       <c r="P22" t="s">
-        <v>396</v>
+        <v>853</v>
       </c>
       <c r="Q22" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="R22" t="s">
-        <v>37</v>
+        <v>167</v>
       </c>
       <c r="S22" t="s">
-        <v>816</v>
-      </c>
-      <c r="U22">
-        <f t="shared" si="1"/>
-        <v>2.5091061526747454E+26</v>
-      </c>
-      <c r="V22">
-        <f>IFERROR(VLOOKUP(E22,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>47.9</v>
-      </c>
-      <c r="W22">
-        <f>IFERROR(VLOOKUP(F22,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>58.3</v>
-      </c>
-      <c r="X22">
-        <f>IFERROR(VLOOKUP(G22,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>91.100000000000009</v>
-      </c>
-      <c r="Y22">
-        <f>IFERROR(VLOOKUP(H22,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>64.7</v>
-      </c>
-      <c r="Z22">
-        <f>IFERROR(VLOOKUP(I22,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>36</v>
-      </c>
-      <c r="AA22">
-        <f>IFERROR(VLOOKUP(J22,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>21.099999999999998</v>
-      </c>
-      <c r="AB22">
-        <f>IFERROR(VLOOKUP(K22,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>67.100000000000009</v>
-      </c>
-      <c r="AC22">
-        <f>IFERROR(VLOOKUP(L22,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>63.9</v>
-      </c>
-      <c r="AD22">
-        <f>IFERROR(VLOOKUP(M22,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>83.1</v>
-      </c>
-      <c r="AE22">
-        <f>IFERROR(VLOOKUP(N22,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>51.6</v>
-      </c>
-      <c r="AF22">
-        <f>IFERROR(VLOOKUP(O22,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>59.599999999999994</v>
-      </c>
-      <c r="AG22">
-        <f>IFERROR(VLOOKUP(P22,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>74.7</v>
-      </c>
-      <c r="AH22">
-        <f>IFERROR(VLOOKUP(Q22,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>83.8</v>
-      </c>
-      <c r="AI22">
-        <f>IFERROR(VLOOKUP(R22,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>64.3</v>
-      </c>
-      <c r="AJ22">
-        <f>IFERROR(VLOOKUP(S22,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>45.5</v>
+        <v>897</v>
       </c>
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>900</v>
+        <v>1002</v>
       </c>
       <c r="B23">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>820</v>
+        <v>807</v>
       </c>
       <c r="D23">
         <f t="shared" si="0"/>
-        <v>915.69999999999993</v>
+        <v>1030.5999999999999</v>
       </c>
       <c r="E23" t="s">
-        <v>848</v>
+        <v>40</v>
       </c>
       <c r="F23" t="s">
-        <v>40</v>
+        <v>860</v>
       </c>
       <c r="G23" t="s">
         <v>842</v>
       </c>
       <c r="H23" t="s">
-        <v>901</v>
+        <v>806</v>
       </c>
       <c r="I23" t="s">
-        <v>84</v>
+        <v>865</v>
       </c>
       <c r="J23" t="s">
-        <v>902</v>
+        <v>334</v>
       </c>
       <c r="K23" t="s">
-        <v>240</v>
+        <v>297</v>
       </c>
       <c r="L23" t="s">
-        <v>31</v>
+        <v>287</v>
       </c>
       <c r="M23" t="s">
-        <v>334</v>
+        <v>815</v>
       </c>
       <c r="N23" t="s">
-        <v>297</v>
+        <v>896</v>
       </c>
       <c r="O23" t="s">
-        <v>844</v>
+        <v>876</v>
       </c>
       <c r="P23" t="s">
-        <v>903</v>
+        <v>853</v>
       </c>
       <c r="Q23" t="s">
-        <v>876</v>
+        <v>454</v>
       </c>
       <c r="R23" t="s">
-        <v>206</v>
+        <v>167</v>
       </c>
       <c r="S23" t="s">
-        <v>37</v>
+        <v>897</v>
       </c>
       <c r="U23">
         <f t="shared" si="1"/>
-        <v>3.0654804514291717E+26</v>
+        <v>2.8533595867371494E+27</v>
       </c>
       <c r="V23">
         <f>IFERROR(VLOOKUP(E23,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>73.599999999999994</v>
+        <v>68.8</v>
       </c>
       <c r="W23">
         <f>IFERROR(VLOOKUP(F23,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>68.8</v>
+        <v>49.4</v>
       </c>
       <c r="X23">
         <f>IFERROR(VLOOKUP(G23,BattleData!$A$2:$B$463,2,FALSE),0)</f>
@@ -6576,190 +6593,190 @@
       </c>
       <c r="Y23">
         <f>IFERROR(VLOOKUP(H23,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>31.3</v>
+        <v>71.2</v>
       </c>
       <c r="Z23">
         <f>IFERROR(VLOOKUP(I23,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>54.400000000000006</v>
+        <v>67.100000000000009</v>
       </c>
       <c r="AA23">
         <f>IFERROR(VLOOKUP(J23,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>97.1</v>
+        <v>63.9</v>
       </c>
       <c r="AB23">
         <f>IFERROR(VLOOKUP(K23,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>36</v>
+        <v>59.8</v>
       </c>
       <c r="AC23">
         <f>IFERROR(VLOOKUP(L23,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>67.100000000000009</v>
+        <v>82.199999999999989</v>
       </c>
       <c r="AD23">
         <f>IFERROR(VLOOKUP(M23,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>63.9</v>
+        <v>51.6</v>
       </c>
       <c r="AE23">
         <f>IFERROR(VLOOKUP(N23,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>59.8</v>
+        <v>79.400000000000006</v>
       </c>
       <c r="AF23">
         <f>IFERROR(VLOOKUP(O23,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>35.199999999999996</v>
+        <v>75.099999999999994</v>
       </c>
       <c r="AG23">
         <f>IFERROR(VLOOKUP(P23,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>73</v>
+        <v>57.4</v>
       </c>
       <c r="AH23">
         <f>IFERROR(VLOOKUP(Q23,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>75.099999999999994</v>
+        <v>62.8</v>
       </c>
       <c r="AI23">
         <f>IFERROR(VLOOKUP(R23,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>44.9</v>
+        <v>71.2</v>
       </c>
       <c r="AJ23">
         <f>IFERROR(VLOOKUP(S23,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>64.3</v>
+        <v>99.5</v>
       </c>
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="B24">
         <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>807</v>
+        <v>820</v>
       </c>
       <c r="D24">
         <f t="shared" si="0"/>
-        <v>872.40000000000009</v>
+        <v>912.7</v>
       </c>
       <c r="E24" t="s">
-        <v>72</v>
+        <v>140</v>
       </c>
       <c r="F24" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="G24" t="s">
-        <v>850</v>
+        <v>126</v>
       </c>
       <c r="H24" t="s">
-        <v>850</v>
+        <v>57</v>
       </c>
       <c r="I24" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J24" t="s">
-        <v>906</v>
+        <v>899</v>
       </c>
       <c r="K24" t="s">
-        <v>906</v>
+        <v>332</v>
       </c>
       <c r="L24" t="s">
-        <v>906</v>
+        <v>334</v>
       </c>
       <c r="M24" t="s">
-        <v>906</v>
+        <v>220</v>
       </c>
       <c r="N24" t="s">
-        <v>906</v>
+        <v>815</v>
       </c>
       <c r="O24" t="s">
-        <v>85</v>
+        <v>392</v>
       </c>
       <c r="P24" t="s">
-        <v>153</v>
+        <v>396</v>
       </c>
       <c r="Q24" t="s">
-        <v>778</v>
+        <v>877</v>
       </c>
       <c r="R24" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="S24" t="s">
-        <v>31</v>
+        <v>816</v>
       </c>
       <c r="U24">
         <f t="shared" si="1"/>
-        <v>2.1396756330585993E+26</v>
+        <v>2.5091061526747454E+26</v>
       </c>
       <c r="V24">
         <f>IFERROR(VLOOKUP(E24,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>56.8</v>
+        <v>47.9</v>
       </c>
       <c r="W24">
         <f>IFERROR(VLOOKUP(F24,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>56.8</v>
+        <v>58.3</v>
       </c>
       <c r="X24">
         <f>IFERROR(VLOOKUP(G24,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>49.8</v>
+        <v>91.100000000000009</v>
       </c>
       <c r="Y24">
         <f>IFERROR(VLOOKUP(H24,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>49.8</v>
+        <v>64.7</v>
       </c>
       <c r="Z24">
         <f>IFERROR(VLOOKUP(I24,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>49.8</v>
+        <v>36</v>
       </c>
       <c r="AA24">
         <f>IFERROR(VLOOKUP(J24,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>68.8</v>
+        <v>21.099999999999998</v>
       </c>
       <c r="AB24">
         <f>IFERROR(VLOOKUP(K24,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>68.8</v>
+        <v>67.100000000000009</v>
       </c>
       <c r="AC24">
         <f>IFERROR(VLOOKUP(L24,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>68.8</v>
+        <v>63.9</v>
       </c>
       <c r="AD24">
         <f>IFERROR(VLOOKUP(M24,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>68.8</v>
+        <v>83.1</v>
       </c>
       <c r="AE24">
         <f>IFERROR(VLOOKUP(N24,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>68.8</v>
+        <v>51.6</v>
       </c>
       <c r="AF24">
         <f>IFERROR(VLOOKUP(O24,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>33.200000000000003</v>
+        <v>59.599999999999994</v>
       </c>
       <c r="AG24">
         <f>IFERROR(VLOOKUP(P24,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>57.4</v>
+        <v>74.7</v>
       </c>
       <c r="AH24">
         <f>IFERROR(VLOOKUP(Q24,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>40.6</v>
+        <v>83.8</v>
       </c>
       <c r="AI24">
         <f>IFERROR(VLOOKUP(R24,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>67.100000000000009</v>
+        <v>64.3</v>
       </c>
       <c r="AJ24">
         <f>IFERROR(VLOOKUP(S24,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>67.100000000000009</v>
+        <v>45.5</v>
       </c>
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>907</v>
+        <v>900</v>
       </c>
       <c r="B25">
         <v>13</v>
       </c>
       <c r="C25" t="s">
-        <v>804</v>
+        <v>820</v>
       </c>
       <c r="D25">
         <f t="shared" si="0"/>
-        <v>885.9</v>
+        <v>915.69999999999993</v>
       </c>
       <c r="E25" t="s">
         <v>848</v>
@@ -6768,47 +6785,47 @@
         <v>40</v>
       </c>
       <c r="G25" t="s">
-        <v>860</v>
+        <v>842</v>
       </c>
       <c r="H25" t="s">
-        <v>483</v>
+        <v>901</v>
       </c>
       <c r="I25" t="s">
-        <v>778</v>
+        <v>84</v>
       </c>
       <c r="J25" t="s">
+        <v>902</v>
+      </c>
+      <c r="K25" t="s">
+        <v>240</v>
+      </c>
+      <c r="L25" t="s">
         <v>31</v>
       </c>
-      <c r="K25" t="s">
-        <v>307</v>
-      </c>
-      <c r="L25" t="s">
-        <v>392</v>
-      </c>
       <c r="M25" t="s">
-        <v>471</v>
+        <v>334</v>
       </c>
       <c r="N25" t="s">
-        <v>428</v>
+        <v>297</v>
       </c>
       <c r="O25" t="s">
-        <v>456</v>
+        <v>844</v>
       </c>
       <c r="P25" t="s">
-        <v>409</v>
+        <v>903</v>
       </c>
       <c r="Q25" t="s">
-        <v>66</v>
+        <v>876</v>
       </c>
       <c r="R25" t="s">
-        <v>419</v>
+        <v>206</v>
       </c>
       <c r="S25" t="s">
-        <v>441</v>
+        <v>37</v>
       </c>
       <c r="U25">
         <f t="shared" si="1"/>
-        <v>1.912608567085972E+26</v>
+        <v>3.0654804514291717E+26</v>
       </c>
       <c r="V25">
         <f>IFERROR(VLOOKUP(E25,BattleData!$A$2:$B$463,2,FALSE),0)</f>
@@ -6820,60 +6837,60 @@
       </c>
       <c r="X25">
         <f>IFERROR(VLOOKUP(G25,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>49.4</v>
+        <v>71.2</v>
       </c>
       <c r="Y25">
         <f>IFERROR(VLOOKUP(H25,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>43.1</v>
+        <v>31.3</v>
       </c>
       <c r="Z25">
         <f>IFERROR(VLOOKUP(I25,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>40.6</v>
+        <v>54.400000000000006</v>
       </c>
       <c r="AA25">
         <f>IFERROR(VLOOKUP(J25,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>67.100000000000009</v>
+        <v>97.1</v>
       </c>
       <c r="AB25">
         <f>IFERROR(VLOOKUP(K25,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>27.6</v>
+        <v>36</v>
       </c>
       <c r="AC25">
         <f>IFERROR(VLOOKUP(L25,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>59.599999999999994</v>
+        <v>67.100000000000009</v>
       </c>
       <c r="AD25">
         <f>IFERROR(VLOOKUP(M25,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>69.899999999999991</v>
+        <v>63.9</v>
       </c>
       <c r="AE25">
         <f>IFERROR(VLOOKUP(N25,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>73</v>
+        <v>59.8</v>
       </c>
       <c r="AF25">
         <f>IFERROR(VLOOKUP(O25,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>57.4</v>
+        <v>35.199999999999996</v>
       </c>
       <c r="AG25">
         <f>IFERROR(VLOOKUP(P25,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>83.8</v>
+        <v>73</v>
       </c>
       <c r="AH25">
         <f>IFERROR(VLOOKUP(Q25,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>41.9</v>
+        <v>75.099999999999994</v>
       </c>
       <c r="AI25">
         <f>IFERROR(VLOOKUP(R25,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>45.5</v>
+        <v>44.9</v>
       </c>
       <c r="AJ25">
         <f>IFERROR(VLOOKUP(S25,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>84.6</v>
+        <v>64.3</v>
       </c>
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="B26">
         <v>13</v>
@@ -6883,84 +6900,84 @@
       </c>
       <c r="D26">
         <f t="shared" si="0"/>
-        <v>828.20000000000016</v>
+        <v>872.40000000000009</v>
       </c>
       <c r="E26" t="s">
-        <v>276</v>
+        <v>72</v>
       </c>
       <c r="F26" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="G26" t="s">
-        <v>24</v>
+        <v>850</v>
       </c>
       <c r="H26" t="s">
-        <v>437</v>
+        <v>850</v>
       </c>
       <c r="I26" t="s">
-        <v>458</v>
+        <v>241</v>
       </c>
       <c r="J26" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="K26" t="s">
-        <v>386</v>
+        <v>906</v>
       </c>
       <c r="L26" t="s">
-        <v>40</v>
+        <v>906</v>
       </c>
       <c r="M26" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="N26" t="s">
-        <v>107</v>
+        <v>906</v>
       </c>
       <c r="O26" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="P26" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q26" t="s">
         <v>778</v>
       </c>
-      <c r="Q26" t="s">
-        <v>815</v>
-      </c>
       <c r="R26" t="s">
-        <v>396</v>
+        <v>31</v>
       </c>
       <c r="S26" t="s">
-        <v>471</v>
+        <v>31</v>
       </c>
       <c r="U26">
         <f t="shared" si="1"/>
-        <v>3.2408820230603756E+25</v>
+        <v>2.1396756330585993E+26</v>
       </c>
       <c r="V26">
         <f>IFERROR(VLOOKUP(E26,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>13.8</v>
+        <v>56.8</v>
       </c>
       <c r="W26">
         <f>IFERROR(VLOOKUP(F26,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>73.599999999999994</v>
+        <v>56.8</v>
       </c>
       <c r="X26">
         <f>IFERROR(VLOOKUP(G26,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>73.599999999999994</v>
+        <v>49.8</v>
       </c>
       <c r="Y26">
         <f>IFERROR(VLOOKUP(H26,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>22</v>
+        <v>49.8</v>
       </c>
       <c r="Z26">
         <f>IFERROR(VLOOKUP(I26,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>52.400000000000006</v>
+        <v>49.8</v>
       </c>
       <c r="AA26">
         <f>IFERROR(VLOOKUP(J26,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>40.1</v>
+        <v>68.8</v>
       </c>
       <c r="AB26">
         <f>IFERROR(VLOOKUP(K26,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>46.800000000000004</v>
+        <v>68.8</v>
       </c>
       <c r="AC26">
         <f>IFERROR(VLOOKUP(L26,BattleData!$A$2:$B$463,2,FALSE),0)</f>
@@ -6968,36 +6985,36 @@
       </c>
       <c r="AD26">
         <f>IFERROR(VLOOKUP(M26,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>43.1</v>
+        <v>68.8</v>
       </c>
       <c r="AE26">
         <f>IFERROR(VLOOKUP(N26,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>78.600000000000009</v>
+        <v>68.8</v>
       </c>
       <c r="AF26">
         <f>IFERROR(VLOOKUP(O26,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>78.600000000000009</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="AG26">
         <f>IFERROR(VLOOKUP(P26,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>40.6</v>
+        <v>57.4</v>
       </c>
       <c r="AH26">
         <f>IFERROR(VLOOKUP(Q26,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>51.6</v>
+        <v>40.6</v>
       </c>
       <c r="AI26">
         <f>IFERROR(VLOOKUP(R26,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>74.7</v>
+        <v>67.100000000000009</v>
       </c>
       <c r="AJ26">
         <f>IFERROR(VLOOKUP(S26,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>69.899999999999991</v>
+        <v>67.100000000000009</v>
       </c>
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="B27">
         <v>13</v>
@@ -7007,56 +7024,56 @@
       </c>
       <c r="D27">
         <f t="shared" si="0"/>
-        <v>942.3</v>
+        <v>885.9</v>
       </c>
       <c r="E27" t="s">
         <v>848</v>
       </c>
       <c r="F27" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="G27" t="s">
-        <v>24</v>
+        <v>860</v>
       </c>
       <c r="H27" t="s">
-        <v>837</v>
+        <v>483</v>
       </c>
       <c r="I27" t="s">
-        <v>862</v>
+        <v>778</v>
       </c>
       <c r="J27" t="s">
-        <v>806</v>
+        <v>31</v>
       </c>
       <c r="K27" t="s">
-        <v>806</v>
+        <v>307</v>
       </c>
       <c r="L27" t="s">
-        <v>84</v>
+        <v>392</v>
       </c>
       <c r="M27" t="s">
-        <v>256</v>
+        <v>471</v>
       </c>
       <c r="N27" t="s">
-        <v>904</v>
+        <v>428</v>
       </c>
       <c r="O27" t="s">
-        <v>317</v>
+        <v>456</v>
       </c>
       <c r="P27" t="s">
-        <v>903</v>
+        <v>409</v>
       </c>
       <c r="Q27" t="s">
-        <v>876</v>
+        <v>66</v>
       </c>
       <c r="R27" t="s">
-        <v>912</v>
+        <v>419</v>
       </c>
       <c r="S27" t="s">
-        <v>206</v>
+        <v>441</v>
       </c>
       <c r="U27">
         <f t="shared" si="1"/>
-        <v>5.7780058018544408E+26</v>
+        <v>1.912608567085972E+26</v>
       </c>
       <c r="V27">
         <f>IFERROR(VLOOKUP(E27,BattleData!$A$2:$B$463,2,FALSE),0)</f>
@@ -7064,64 +7081,64 @@
       </c>
       <c r="W27">
         <f>IFERROR(VLOOKUP(F27,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>73.599999999999994</v>
+        <v>68.8</v>
       </c>
       <c r="X27">
         <f>IFERROR(VLOOKUP(G27,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>73.599999999999994</v>
+        <v>49.4</v>
       </c>
       <c r="Y27">
         <f>IFERROR(VLOOKUP(H27,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>53.1</v>
+        <v>43.1</v>
       </c>
       <c r="Z27">
         <f>IFERROR(VLOOKUP(I27,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>50.1</v>
+        <v>40.6</v>
       </c>
       <c r="AA27">
         <f>IFERROR(VLOOKUP(J27,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>71.2</v>
+        <v>67.100000000000009</v>
       </c>
       <c r="AB27">
         <f>IFERROR(VLOOKUP(K27,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>71.2</v>
+        <v>27.6</v>
       </c>
       <c r="AC27">
         <f>IFERROR(VLOOKUP(L27,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>54.400000000000006</v>
+        <v>59.599999999999994</v>
       </c>
       <c r="AD27">
         <f>IFERROR(VLOOKUP(M27,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>26.900000000000002</v>
+        <v>69.899999999999991</v>
       </c>
       <c r="AE27">
         <f>IFERROR(VLOOKUP(N27,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>67.100000000000009</v>
+        <v>73</v>
       </c>
       <c r="AF27">
         <f>IFERROR(VLOOKUP(O27,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>58.5</v>
+        <v>57.4</v>
       </c>
       <c r="AG27">
         <f>IFERROR(VLOOKUP(P27,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>73</v>
+        <v>83.8</v>
       </c>
       <c r="AH27">
         <f>IFERROR(VLOOKUP(Q27,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>75.099999999999994</v>
+        <v>41.9</v>
       </c>
       <c r="AI27">
         <f>IFERROR(VLOOKUP(R27,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>76</v>
+        <v>45.5</v>
       </c>
       <c r="AJ27">
         <f>IFERROR(VLOOKUP(S27,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>44.9</v>
+        <v>84.6</v>
       </c>
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="B28">
         <v>13</v>
@@ -7131,180 +7148,180 @@
       </c>
       <c r="D28">
         <f t="shared" si="0"/>
-        <v>946.4</v>
+        <v>828.20000000000016</v>
       </c>
       <c r="E28" t="s">
-        <v>848</v>
+        <v>276</v>
       </c>
       <c r="F28" t="s">
-        <v>914</v>
+        <v>24</v>
       </c>
       <c r="G28" t="s">
-        <v>887</v>
+        <v>24</v>
       </c>
       <c r="H28" t="s">
-        <v>862</v>
+        <v>437</v>
       </c>
       <c r="I28" t="s">
-        <v>806</v>
+        <v>458</v>
       </c>
       <c r="J28" t="s">
-        <v>100</v>
+        <v>909</v>
       </c>
       <c r="K28" t="s">
-        <v>126</v>
+        <v>386</v>
       </c>
       <c r="L28" t="s">
-        <v>808</v>
+        <v>40</v>
       </c>
       <c r="M28" t="s">
-        <v>332</v>
+        <v>910</v>
       </c>
       <c r="N28" t="s">
-        <v>334</v>
+        <v>107</v>
       </c>
       <c r="O28" t="s">
-        <v>876</v>
+        <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>867</v>
+        <v>778</v>
       </c>
       <c r="Q28" t="s">
-        <v>206</v>
+        <v>815</v>
       </c>
       <c r="R28" t="s">
-        <v>37</v>
+        <v>396</v>
       </c>
       <c r="S28" t="s">
-        <v>816</v>
+        <v>471</v>
       </c>
       <c r="U28">
         <f t="shared" si="1"/>
-        <v>7.6417230161370151E+26</v>
+        <v>3.2408820230603756E+25</v>
       </c>
       <c r="V28">
         <f>IFERROR(VLOOKUP(E28,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>73.599999999999994</v>
+        <v>13.8</v>
       </c>
       <c r="W28">
         <f>IFERROR(VLOOKUP(F28,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>53.1</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="X28">
         <f>IFERROR(VLOOKUP(G28,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>68.8</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="Y28">
         <f>IFERROR(VLOOKUP(H28,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>50.1</v>
+        <v>22</v>
       </c>
       <c r="Z28">
         <f>IFERROR(VLOOKUP(I28,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>71.2</v>
+        <v>52.400000000000006</v>
       </c>
       <c r="AA28">
         <f>IFERROR(VLOOKUP(J28,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>58.3</v>
+        <v>40.1</v>
       </c>
       <c r="AB28">
         <f>IFERROR(VLOOKUP(K28,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>91.100000000000009</v>
+        <v>46.800000000000004</v>
       </c>
       <c r="AC28">
         <f>IFERROR(VLOOKUP(L28,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>63.9</v>
+        <v>68.8</v>
       </c>
       <c r="AD28">
         <f>IFERROR(VLOOKUP(M28,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>67.100000000000009</v>
+        <v>43.1</v>
       </c>
       <c r="AE28">
         <f>IFERROR(VLOOKUP(N28,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>63.9</v>
+        <v>78.600000000000009</v>
       </c>
       <c r="AF28">
         <f>IFERROR(VLOOKUP(O28,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>75.099999999999994</v>
+        <v>78.600000000000009</v>
       </c>
       <c r="AG28">
         <f>IFERROR(VLOOKUP(P28,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>55.500000000000007</v>
+        <v>40.6</v>
       </c>
       <c r="AH28">
         <f>IFERROR(VLOOKUP(Q28,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>44.9</v>
+        <v>51.6</v>
       </c>
       <c r="AI28">
         <f>IFERROR(VLOOKUP(R28,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>64.3</v>
+        <v>74.7</v>
       </c>
       <c r="AJ28">
         <f>IFERROR(VLOOKUP(S28,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>45.5</v>
+        <v>69.899999999999991</v>
       </c>
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="B29">
         <v>13</v>
       </c>
       <c r="C29" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="D29">
         <f t="shared" si="0"/>
-        <v>843.59999999999991</v>
+        <v>942.3</v>
       </c>
       <c r="E29" t="s">
         <v>848</v>
       </c>
       <c r="F29" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="G29" t="s">
-        <v>483</v>
+        <v>24</v>
       </c>
       <c r="H29" t="s">
+        <v>837</v>
+      </c>
+      <c r="I29" t="s">
         <v>862</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>806</v>
       </c>
-      <c r="J29" t="s">
-        <v>107</v>
-      </c>
       <c r="K29" t="s">
-        <v>213</v>
+        <v>806</v>
       </c>
       <c r="L29" t="s">
-        <v>332</v>
+        <v>84</v>
       </c>
       <c r="M29" t="s">
-        <v>815</v>
+        <v>256</v>
       </c>
       <c r="N29" t="s">
-        <v>392</v>
+        <v>904</v>
       </c>
       <c r="O29" t="s">
-        <v>916</v>
+        <v>317</v>
       </c>
       <c r="P29" t="s">
-        <v>456</v>
+        <v>903</v>
       </c>
       <c r="Q29" t="s">
-        <v>917</v>
+        <v>876</v>
       </c>
       <c r="R29" t="s">
-        <v>643</v>
+        <v>912</v>
       </c>
       <c r="S29" t="s">
-        <v>419</v>
+        <v>206</v>
       </c>
       <c r="U29">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.7780058018544408E+26</v>
       </c>
       <c r="V29">
         <f>IFERROR(VLOOKUP(E29,BattleData!$A$2:$B$463,2,FALSE),0)</f>
@@ -7312,163 +7329,163 @@
       </c>
       <c r="W29">
         <f>IFERROR(VLOOKUP(F29,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>68.8</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="X29">
         <f>IFERROR(VLOOKUP(G29,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>43.1</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="Y29">
         <f>IFERROR(VLOOKUP(H29,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>50.1</v>
+        <v>53.1</v>
       </c>
       <c r="Z29">
         <f>IFERROR(VLOOKUP(I29,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>71.2</v>
+        <v>50.1</v>
       </c>
       <c r="AA29">
         <f>IFERROR(VLOOKUP(J29,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>78.600000000000009</v>
+        <v>71.2</v>
       </c>
       <c r="AB29">
         <f>IFERROR(VLOOKUP(K29,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>27.200000000000003</v>
+        <v>71.2</v>
       </c>
       <c r="AC29">
         <f>IFERROR(VLOOKUP(L29,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>67.100000000000009</v>
+        <v>54.400000000000006</v>
       </c>
       <c r="AD29">
         <f>IFERROR(VLOOKUP(M29,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>51.6</v>
+        <v>26.900000000000002</v>
       </c>
       <c r="AE29">
         <f>IFERROR(VLOOKUP(N29,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>59.599999999999994</v>
+        <v>67.100000000000009</v>
       </c>
       <c r="AF29">
         <f>IFERROR(VLOOKUP(O29,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>85.5</v>
+        <v>58.5</v>
       </c>
       <c r="AG29">
         <f>IFERROR(VLOOKUP(P29,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>57.4</v>
+        <v>73</v>
       </c>
       <c r="AH29">
         <f>IFERROR(VLOOKUP(Q29,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>0</v>
+        <v>75.099999999999994</v>
       </c>
       <c r="AI29">
         <f>IFERROR(VLOOKUP(R29,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>64.3</v>
+        <v>76</v>
       </c>
       <c r="AJ29">
         <f>IFERROR(VLOOKUP(S29,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>45.5</v>
+        <v>44.9</v>
       </c>
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="B30">
         <v>13</v>
       </c>
       <c r="C30" t="s">
-        <v>820</v>
+        <v>807</v>
       </c>
       <c r="D30">
         <f t="shared" si="0"/>
-        <v>804.3</v>
+        <v>946.4</v>
       </c>
       <c r="E30" t="s">
-        <v>483</v>
+        <v>848</v>
       </c>
       <c r="F30" t="s">
-        <v>778</v>
+        <v>914</v>
       </c>
       <c r="G30" t="s">
-        <v>240</v>
+        <v>887</v>
       </c>
       <c r="H30" t="s">
-        <v>296</v>
+        <v>862</v>
       </c>
       <c r="I30" t="s">
-        <v>668</v>
+        <v>806</v>
       </c>
       <c r="J30" t="s">
+        <v>100</v>
+      </c>
+      <c r="K30" t="s">
+        <v>126</v>
+      </c>
+      <c r="L30" t="s">
+        <v>808</v>
+      </c>
+      <c r="M30" t="s">
         <v>332</v>
       </c>
-      <c r="K30" t="s">
-        <v>815</v>
-      </c>
-      <c r="L30" t="s">
-        <v>392</v>
-      </c>
-      <c r="M30" t="s">
-        <v>396</v>
-      </c>
       <c r="N30" t="s">
-        <v>434</v>
+        <v>334</v>
       </c>
       <c r="O30" t="s">
         <v>876</v>
       </c>
       <c r="P30" t="s">
-        <v>853</v>
+        <v>867</v>
       </c>
       <c r="Q30" t="s">
-        <v>919</v>
+        <v>206</v>
       </c>
       <c r="R30" t="s">
-        <v>206</v>
+        <v>37</v>
       </c>
       <c r="S30" t="s">
-        <v>441</v>
+        <v>816</v>
       </c>
       <c r="U30">
         <f t="shared" si="1"/>
-        <v>2.3746230701478327E+25</v>
+        <v>7.6417230161370151E+26</v>
       </c>
       <c r="V30">
         <f>IFERROR(VLOOKUP(E30,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>43.1</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="W30">
         <f>IFERROR(VLOOKUP(F30,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>40.6</v>
+        <v>53.1</v>
       </c>
       <c r="X30">
         <f>IFERROR(VLOOKUP(G30,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>36</v>
+        <v>68.8</v>
       </c>
       <c r="Y30">
         <f>IFERROR(VLOOKUP(H30,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>29.099999999999998</v>
+        <v>50.1</v>
       </c>
       <c r="Z30">
         <f>IFERROR(VLOOKUP(I30,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>12.7</v>
+        <v>71.2</v>
       </c>
       <c r="AA30">
         <f>IFERROR(VLOOKUP(J30,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>67.100000000000009</v>
+        <v>58.3</v>
       </c>
       <c r="AB30">
         <f>IFERROR(VLOOKUP(K30,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>51.6</v>
+        <v>91.100000000000009</v>
       </c>
       <c r="AC30">
         <f>IFERROR(VLOOKUP(L30,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>59.599999999999994</v>
+        <v>63.9</v>
       </c>
       <c r="AD30">
         <f>IFERROR(VLOOKUP(M30,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>74.7</v>
+        <v>67.100000000000009</v>
       </c>
       <c r="AE30">
         <f>IFERROR(VLOOKUP(N30,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>70.399999999999991</v>
+        <v>63.9</v>
       </c>
       <c r="AF30">
         <f>IFERROR(VLOOKUP(O30,BattleData!$A$2:$B$463,2,FALSE),0)</f>
@@ -7476,111 +7493,111 @@
       </c>
       <c r="AG30">
         <f>IFERROR(VLOOKUP(P30,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>57.4</v>
+        <v>55.500000000000007</v>
       </c>
       <c r="AH30">
         <f>IFERROR(VLOOKUP(Q30,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>57.4</v>
+        <v>44.9</v>
       </c>
       <c r="AI30">
         <f>IFERROR(VLOOKUP(R30,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>44.9</v>
+        <v>64.3</v>
       </c>
       <c r="AJ30">
         <f>IFERROR(VLOOKUP(S30,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>84.6</v>
+        <v>45.5</v>
       </c>
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="B31">
         <v>13</v>
       </c>
       <c r="C31" t="s">
-        <v>841</v>
+        <v>807</v>
       </c>
       <c r="D31">
         <f t="shared" si="0"/>
-        <v>874.8</v>
+        <v>843.59999999999991</v>
       </c>
       <c r="E31" t="s">
+        <v>848</v>
+      </c>
+      <c r="F31" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" t="s">
         <v>483</v>
       </c>
-      <c r="F31" t="s">
-        <v>367</v>
-      </c>
-      <c r="G31" t="s">
-        <v>100</v>
-      </c>
       <c r="H31" t="s">
-        <v>158</v>
+        <v>862</v>
       </c>
       <c r="I31" t="s">
-        <v>57</v>
+        <v>806</v>
       </c>
       <c r="J31" t="s">
-        <v>921</v>
+        <v>107</v>
       </c>
       <c r="K31" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="L31" t="s">
-        <v>31</v>
+        <v>332</v>
       </c>
       <c r="M31" t="s">
+        <v>815</v>
+      </c>
+      <c r="N31" t="s">
         <v>392</v>
       </c>
-      <c r="N31" t="s">
-        <v>443</v>
-      </c>
       <c r="O31" t="s">
-        <v>428</v>
+        <v>916</v>
       </c>
       <c r="P31" t="s">
-        <v>409</v>
+        <v>456</v>
       </c>
       <c r="Q31" t="s">
+        <v>917</v>
+      </c>
+      <c r="R31" t="s">
+        <v>643</v>
+      </c>
+      <c r="S31" t="s">
         <v>419</v>
-      </c>
-      <c r="R31" t="s">
-        <v>419</v>
-      </c>
-      <c r="S31" t="s">
-        <v>441</v>
       </c>
       <c r="U31">
         <f t="shared" si="1"/>
-        <v>1.7303193365709867E+26</v>
+        <v>0</v>
       </c>
       <c r="V31">
         <f>IFERROR(VLOOKUP(E31,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>43.1</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="W31">
         <f>IFERROR(VLOOKUP(F31,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>43.1</v>
+        <v>68.8</v>
       </c>
       <c r="X31">
         <f>IFERROR(VLOOKUP(G31,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>58.3</v>
+        <v>43.1</v>
       </c>
       <c r="Y31">
         <f>IFERROR(VLOOKUP(H31,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>46.800000000000004</v>
+        <v>50.1</v>
       </c>
       <c r="Z31">
         <f>IFERROR(VLOOKUP(I31,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>64.7</v>
+        <v>71.2</v>
       </c>
       <c r="AA31">
         <f>IFERROR(VLOOKUP(J31,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>82.199999999999989</v>
+        <v>78.600000000000009</v>
       </c>
       <c r="AB31">
         <f>IFERROR(VLOOKUP(K31,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>40.6</v>
+        <v>27.200000000000003</v>
       </c>
       <c r="AC31">
         <f>IFERROR(VLOOKUP(L31,BattleData!$A$2:$B$463,2,FALSE),0)</f>
@@ -7588,143 +7605,143 @@
       </c>
       <c r="AD31">
         <f>IFERROR(VLOOKUP(M31,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>59.599999999999994</v>
+        <v>51.6</v>
       </c>
       <c r="AE31">
         <f>IFERROR(VLOOKUP(N31,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>36.9</v>
+        <v>59.599999999999994</v>
       </c>
       <c r="AF31">
         <f>IFERROR(VLOOKUP(O31,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>73</v>
+        <v>85.5</v>
       </c>
       <c r="AG31">
         <f>IFERROR(VLOOKUP(P31,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>83.8</v>
+        <v>57.4</v>
       </c>
       <c r="AH31">
         <f>IFERROR(VLOOKUP(Q31,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>45.5</v>
+        <v>0</v>
       </c>
       <c r="AI31">
         <f>IFERROR(VLOOKUP(R31,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>45.5</v>
+        <v>64.3</v>
       </c>
       <c r="AJ31">
         <f>IFERROR(VLOOKUP(S31,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>84.6</v>
+        <v>45.5</v>
       </c>
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="B32">
         <v>13</v>
       </c>
       <c r="C32" t="s">
-        <v>807</v>
+        <v>820</v>
       </c>
       <c r="D32">
         <f t="shared" si="0"/>
-        <v>920.5</v>
+        <v>804.3</v>
       </c>
       <c r="E32" t="s">
-        <v>72</v>
+        <v>483</v>
       </c>
       <c r="F32" t="s">
-        <v>24</v>
+        <v>778</v>
       </c>
       <c r="G32" t="s">
-        <v>887</v>
+        <v>240</v>
       </c>
       <c r="H32" t="s">
-        <v>40</v>
+        <v>296</v>
       </c>
       <c r="I32" t="s">
-        <v>22</v>
+        <v>668</v>
       </c>
       <c r="J32" t="s">
-        <v>107</v>
+        <v>332</v>
       </c>
       <c r="K32" t="s">
-        <v>126</v>
+        <v>815</v>
       </c>
       <c r="L32" t="s">
-        <v>330</v>
+        <v>392</v>
       </c>
       <c r="M32" t="s">
-        <v>31</v>
+        <v>396</v>
       </c>
       <c r="N32" t="s">
-        <v>815</v>
+        <v>434</v>
       </c>
       <c r="O32" t="s">
-        <v>392</v>
+        <v>876</v>
       </c>
       <c r="P32" t="s">
-        <v>443</v>
+        <v>853</v>
       </c>
       <c r="Q32" t="s">
         <v>919</v>
       </c>
       <c r="R32" t="s">
-        <v>264</v>
+        <v>206</v>
       </c>
       <c r="S32" t="s">
-        <v>816</v>
+        <v>441</v>
       </c>
       <c r="U32">
         <f t="shared" si="1"/>
-        <v>3.6842686389455807E+26</v>
+        <v>2.3746230701478327E+25</v>
       </c>
       <c r="V32">
         <f>IFERROR(VLOOKUP(E32,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>56.8</v>
+        <v>43.1</v>
       </c>
       <c r="W32">
         <f>IFERROR(VLOOKUP(F32,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>73.599999999999994</v>
+        <v>40.6</v>
       </c>
       <c r="X32">
         <f>IFERROR(VLOOKUP(G32,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>68.8</v>
+        <v>36</v>
       </c>
       <c r="Y32">
         <f>IFERROR(VLOOKUP(H32,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>68.8</v>
+        <v>29.099999999999998</v>
       </c>
       <c r="Z32">
         <f>IFERROR(VLOOKUP(I32,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>33.900000000000006</v>
+        <v>12.7</v>
       </c>
       <c r="AA32">
         <f>IFERROR(VLOOKUP(J32,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>78.600000000000009</v>
+        <v>67.100000000000009</v>
       </c>
       <c r="AB32">
         <f>IFERROR(VLOOKUP(K32,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>91.100000000000009</v>
+        <v>51.6</v>
       </c>
       <c r="AC32">
         <f>IFERROR(VLOOKUP(L32,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>44.9</v>
+        <v>59.599999999999994</v>
       </c>
       <c r="AD32">
         <f>IFERROR(VLOOKUP(M32,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>67.100000000000009</v>
+        <v>74.7</v>
       </c>
       <c r="AE32">
         <f>IFERROR(VLOOKUP(N32,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>51.6</v>
+        <v>70.399999999999991</v>
       </c>
       <c r="AF32">
         <f>IFERROR(VLOOKUP(O32,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>59.599999999999994</v>
+        <v>75.099999999999994</v>
       </c>
       <c r="AG32">
         <f>IFERROR(VLOOKUP(P32,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>36.9</v>
+        <v>57.4</v>
       </c>
       <c r="AH32">
         <f>IFERROR(VLOOKUP(Q32,BattleData!$A$2:$B$463,2,FALSE),0)</f>
@@ -7732,103 +7749,103 @@
       </c>
       <c r="AI32">
         <f>IFERROR(VLOOKUP(R32,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>85.9</v>
+        <v>44.9</v>
       </c>
       <c r="AJ32">
         <f>IFERROR(VLOOKUP(S32,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>45.5</v>
+        <v>84.6</v>
       </c>
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="B33">
         <v>13</v>
       </c>
       <c r="C33" t="s">
-        <v>820</v>
+        <v>841</v>
       </c>
       <c r="D33">
         <f t="shared" si="0"/>
-        <v>841.60000000000014</v>
+        <v>874.8</v>
       </c>
       <c r="E33" t="s">
-        <v>155</v>
+        <v>483</v>
       </c>
       <c r="F33" t="s">
-        <v>104</v>
+        <v>367</v>
       </c>
       <c r="G33" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="H33" t="s">
-        <v>100</v>
+        <v>158</v>
       </c>
       <c r="I33" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="J33" t="s">
+        <v>921</v>
+      </c>
+      <c r="K33" t="s">
         <v>230</v>
-      </c>
-      <c r="K33" t="s">
-        <v>223</v>
       </c>
       <c r="L33" t="s">
         <v>31</v>
       </c>
       <c r="M33" t="s">
-        <v>332</v>
+        <v>392</v>
       </c>
       <c r="N33" t="s">
-        <v>334</v>
+        <v>443</v>
       </c>
       <c r="O33" t="s">
-        <v>392</v>
+        <v>428</v>
       </c>
       <c r="P33" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="Q33" t="s">
-        <v>389</v>
+        <v>419</v>
       </c>
       <c r="R33" t="s">
-        <v>66</v>
+        <v>419</v>
       </c>
       <c r="S33" t="s">
-        <v>167</v>
+        <v>441</v>
       </c>
       <c r="U33">
         <f t="shared" si="1"/>
-        <v>1.1421933853052432E+26</v>
+        <v>1.7303193365709867E+26</v>
       </c>
       <c r="V33">
         <f>IFERROR(VLOOKUP(E33,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>37.1</v>
+        <v>43.1</v>
       </c>
       <c r="W33">
         <f>IFERROR(VLOOKUP(F33,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>62.8</v>
+        <v>43.1</v>
       </c>
       <c r="X33">
         <f>IFERROR(VLOOKUP(G33,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>54.400000000000006</v>
+        <v>58.3</v>
       </c>
       <c r="Y33">
         <f>IFERROR(VLOOKUP(H33,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>58.3</v>
+        <v>46.800000000000004</v>
       </c>
       <c r="Z33">
         <f>IFERROR(VLOOKUP(I33,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>54.400000000000006</v>
+        <v>64.7</v>
       </c>
       <c r="AA33">
         <f>IFERROR(VLOOKUP(J33,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>40.6</v>
+        <v>82.199999999999989</v>
       </c>
       <c r="AB33">
         <f>IFERROR(VLOOKUP(K33,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>33</v>
+        <v>40.6</v>
       </c>
       <c r="AC33">
         <f>IFERROR(VLOOKUP(L33,BattleData!$A$2:$B$463,2,FALSE),0)</f>
@@ -7836,73 +7853,73 @@
       </c>
       <c r="AD33">
         <f>IFERROR(VLOOKUP(M33,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>67.100000000000009</v>
+        <v>59.599999999999994</v>
       </c>
       <c r="AE33">
         <f>IFERROR(VLOOKUP(N33,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>63.9</v>
+        <v>36.9</v>
       </c>
       <c r="AF33">
         <f>IFERROR(VLOOKUP(O33,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>59.599999999999994</v>
+        <v>73</v>
       </c>
       <c r="AG33">
         <f>IFERROR(VLOOKUP(P33,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>74.7</v>
+        <v>83.8</v>
       </c>
       <c r="AH33">
         <f>IFERROR(VLOOKUP(Q33,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>55.500000000000007</v>
+        <v>45.5</v>
       </c>
       <c r="AI33">
         <f>IFERROR(VLOOKUP(R33,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>41.9</v>
+        <v>45.5</v>
       </c>
       <c r="AJ33">
         <f>IFERROR(VLOOKUP(S33,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>71.2</v>
+        <v>84.6</v>
       </c>
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="B34">
         <v>13</v>
       </c>
       <c r="C34" t="s">
-        <v>841</v>
+        <v>807</v>
       </c>
       <c r="D34">
         <f t="shared" si="0"/>
-        <v>927.69999999999993</v>
+        <v>920.5</v>
       </c>
       <c r="E34" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="F34" t="s">
         <v>24</v>
       </c>
       <c r="G34" t="s">
-        <v>209</v>
+        <v>887</v>
       </c>
       <c r="H34" t="s">
         <v>40</v>
       </c>
       <c r="I34" t="s">
-        <v>125</v>
+        <v>22</v>
       </c>
       <c r="J34" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="K34" t="s">
         <v>126</v>
       </c>
       <c r="L34" t="s">
+        <v>330</v>
+      </c>
+      <c r="M34" t="s">
         <v>31</v>
-      </c>
-      <c r="M34" t="s">
-        <v>233</v>
       </c>
       <c r="N34" t="s">
         <v>815</v>
@@ -7911,24 +7928,24 @@
         <v>392</v>
       </c>
       <c r="P34" t="s">
-        <v>392</v>
+        <v>443</v>
       </c>
       <c r="Q34" t="s">
-        <v>811</v>
+        <v>919</v>
       </c>
       <c r="R34" t="s">
-        <v>389</v>
+        <v>264</v>
       </c>
       <c r="S34" t="s">
-        <v>643</v>
+        <v>816</v>
       </c>
       <c r="U34">
         <f t="shared" si="1"/>
-        <v>5.3201057786922664E+26</v>
+        <v>3.6842686389455807E+26</v>
       </c>
       <c r="V34">
         <f>IFERROR(VLOOKUP(E34,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>46</v>
+        <v>56.8</v>
       </c>
       <c r="W34">
         <f>IFERROR(VLOOKUP(F34,BattleData!$A$2:$B$463,2,FALSE),0)</f>
@@ -7936,7 +7953,7 @@
       </c>
       <c r="X34">
         <f>IFERROR(VLOOKUP(G34,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>36.5</v>
+        <v>68.8</v>
       </c>
       <c r="Y34">
         <f>IFERROR(VLOOKUP(H34,BattleData!$A$2:$B$463,2,FALSE),0)</f>
@@ -7944,11 +7961,11 @@
       </c>
       <c r="Z34">
         <f>IFERROR(VLOOKUP(I34,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>79.400000000000006</v>
+        <v>33.900000000000006</v>
       </c>
       <c r="AA34">
         <f>IFERROR(VLOOKUP(J34,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>58.3</v>
+        <v>78.600000000000009</v>
       </c>
       <c r="AB34">
         <f>IFERROR(VLOOKUP(K34,BattleData!$A$2:$B$463,2,FALSE),0)</f>
@@ -7956,11 +7973,11 @@
       </c>
       <c r="AC34">
         <f>IFERROR(VLOOKUP(L34,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>67.100000000000009</v>
+        <v>44.9</v>
       </c>
       <c r="AD34">
         <f>IFERROR(VLOOKUP(M34,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>58.9</v>
+        <v>67.100000000000009</v>
       </c>
       <c r="AE34">
         <f>IFERROR(VLOOKUP(N34,BattleData!$A$2:$B$463,2,FALSE),0)</f>
@@ -7972,7 +7989,7 @@
       </c>
       <c r="AG34">
         <f>IFERROR(VLOOKUP(P34,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>59.599999999999994</v>
+        <v>36.9</v>
       </c>
       <c r="AH34">
         <f>IFERROR(VLOOKUP(Q34,BattleData!$A$2:$B$463,2,FALSE),0)</f>
@@ -7980,16 +7997,16 @@
       </c>
       <c r="AI34">
         <f>IFERROR(VLOOKUP(R34,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>55.500000000000007</v>
+        <v>85.9</v>
       </c>
       <c r="AJ34">
         <f>IFERROR(VLOOKUP(S34,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>64.3</v>
+        <v>45.5</v>
       </c>
     </row>
     <row r="35" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="B35">
         <v>13</v>
@@ -7999,184 +8016,184 @@
       </c>
       <c r="D35">
         <f t="shared" si="0"/>
-        <v>720.10000000000014</v>
+        <v>841.60000000000014</v>
       </c>
       <c r="E35" t="s">
-        <v>72</v>
+        <v>155</v>
       </c>
       <c r="F35" t="s">
-        <v>24</v>
+        <v>104</v>
       </c>
       <c r="G35" t="s">
-        <v>849</v>
+        <v>93</v>
       </c>
       <c r="H35" t="s">
-        <v>837</v>
+        <v>100</v>
       </c>
       <c r="I35" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="J35" t="s">
-        <v>806</v>
+        <v>230</v>
       </c>
       <c r="K35" t="s">
-        <v>22</v>
+        <v>223</v>
       </c>
       <c r="L35" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="M35" t="s">
-        <v>93</v>
+        <v>332</v>
       </c>
       <c r="N35" t="s">
-        <v>778</v>
+        <v>334</v>
       </c>
       <c r="O35" t="s">
-        <v>240</v>
+        <v>392</v>
       </c>
       <c r="P35" t="s">
-        <v>296</v>
+        <v>396</v>
       </c>
       <c r="Q35" t="s">
-        <v>856</v>
+        <v>389</v>
       </c>
       <c r="R35" t="s">
-        <v>307</v>
+        <v>66</v>
       </c>
       <c r="S35" t="s">
-        <v>392</v>
+        <v>167</v>
       </c>
       <c r="U35">
         <f t="shared" si="1"/>
-        <v>7.8672330235517378E+24</v>
+        <v>1.1421933853052432E+26</v>
       </c>
       <c r="V35">
         <f>IFERROR(VLOOKUP(E35,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>56.8</v>
+        <v>37.1</v>
       </c>
       <c r="W35">
         <f>IFERROR(VLOOKUP(F35,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>73.599999999999994</v>
+        <v>62.8</v>
       </c>
       <c r="X35">
         <f>IFERROR(VLOOKUP(G35,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>41.6</v>
+        <v>54.400000000000006</v>
       </c>
       <c r="Y35">
         <f>IFERROR(VLOOKUP(H35,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>53.1</v>
+        <v>58.3</v>
       </c>
       <c r="Z35">
         <f>IFERROR(VLOOKUP(I35,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>68.8</v>
+        <v>54.400000000000006</v>
       </c>
       <c r="AA35">
         <f>IFERROR(VLOOKUP(J35,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>71.2</v>
+        <v>40.6</v>
       </c>
       <c r="AB35">
         <f>IFERROR(VLOOKUP(K35,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>33.900000000000006</v>
+        <v>33</v>
       </c>
       <c r="AC35">
         <f>IFERROR(VLOOKUP(L35,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>33.200000000000003</v>
+        <v>67.100000000000009</v>
       </c>
       <c r="AD35">
         <f>IFERROR(VLOOKUP(M35,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>54.400000000000006</v>
+        <v>67.100000000000009</v>
       </c>
       <c r="AE35">
         <f>IFERROR(VLOOKUP(N35,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>40.6</v>
+        <v>63.9</v>
       </c>
       <c r="AF35">
         <f>IFERROR(VLOOKUP(O35,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>36</v>
+        <v>59.599999999999994</v>
       </c>
       <c r="AG35">
         <f>IFERROR(VLOOKUP(P35,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>29.099999999999998</v>
+        <v>74.7</v>
       </c>
       <c r="AH35">
         <f>IFERROR(VLOOKUP(Q35,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>40.6</v>
+        <v>55.500000000000007</v>
       </c>
       <c r="AI35">
         <f>IFERROR(VLOOKUP(R35,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>27.6</v>
+        <v>41.9</v>
       </c>
       <c r="AJ35">
         <f>IFERROR(VLOOKUP(S35,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>59.599999999999994</v>
+        <v>71.2</v>
       </c>
     </row>
     <row r="36" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="B36">
         <v>13</v>
       </c>
       <c r="C36" t="s">
-        <v>820</v>
+        <v>841</v>
       </c>
       <c r="D36">
         <f t="shared" si="0"/>
-        <v>869.9</v>
+        <v>927.69999999999993</v>
       </c>
       <c r="E36" t="s">
-        <v>927</v>
+        <v>64</v>
       </c>
       <c r="F36" t="s">
         <v>24</v>
       </c>
       <c r="G36" t="s">
-        <v>480</v>
+        <v>209</v>
       </c>
       <c r="H36" t="s">
+        <v>40</v>
+      </c>
+      <c r="I36" t="s">
         <v>125</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>100</v>
       </c>
-      <c r="J36" t="s">
+      <c r="K36" t="s">
         <v>126</v>
       </c>
-      <c r="K36" t="s">
-        <v>778</v>
-      </c>
       <c r="L36" t="s">
-        <v>899</v>
+        <v>31</v>
       </c>
       <c r="M36" t="s">
-        <v>865</v>
+        <v>233</v>
       </c>
       <c r="N36" t="s">
-        <v>233</v>
+        <v>815</v>
       </c>
       <c r="O36" t="s">
-        <v>297</v>
+        <v>392</v>
       </c>
       <c r="P36" t="s">
-        <v>423</v>
+        <v>392</v>
       </c>
       <c r="Q36" t="s">
         <v>811</v>
       </c>
       <c r="R36" t="s">
-        <v>206</v>
+        <v>389</v>
       </c>
       <c r="S36" t="s">
-        <v>377</v>
+        <v>643</v>
       </c>
       <c r="U36">
         <f t="shared" si="1"/>
-        <v>1.1833873902526164E+26</v>
+        <v>5.3201057786922664E+26</v>
       </c>
       <c r="V36">
         <f>IFERROR(VLOOKUP(E36,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>37.1</v>
+        <v>46</v>
       </c>
       <c r="W36">
         <f>IFERROR(VLOOKUP(F36,BattleData!$A$2:$B$463,2,FALSE),0)</f>
@@ -8184,43 +8201,43 @@
       </c>
       <c r="X36">
         <f>IFERROR(VLOOKUP(G36,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>40.1</v>
+        <v>36.5</v>
       </c>
       <c r="Y36">
         <f>IFERROR(VLOOKUP(H36,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>79.400000000000006</v>
+        <v>68.8</v>
       </c>
       <c r="Z36">
         <f>IFERROR(VLOOKUP(I36,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>58.3</v>
+        <v>79.400000000000006</v>
       </c>
       <c r="AA36">
         <f>IFERROR(VLOOKUP(J36,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>91.100000000000009</v>
+        <v>58.3</v>
       </c>
       <c r="AB36">
         <f>IFERROR(VLOOKUP(K36,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>40.6</v>
+        <v>91.100000000000009</v>
       </c>
       <c r="AC36">
         <f>IFERROR(VLOOKUP(L36,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>21.099999999999998</v>
+        <v>67.100000000000009</v>
       </c>
       <c r="AD36">
         <f>IFERROR(VLOOKUP(M36,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>67.100000000000009</v>
+        <v>58.9</v>
       </c>
       <c r="AE36">
         <f>IFERROR(VLOOKUP(N36,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>58.9</v>
+        <v>51.6</v>
       </c>
       <c r="AF36">
         <f>IFERROR(VLOOKUP(O36,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>59.8</v>
+        <v>59.599999999999994</v>
       </c>
       <c r="AG36">
         <f>IFERROR(VLOOKUP(P36,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>75.099999999999994</v>
+        <v>59.599999999999994</v>
       </c>
       <c r="AH36">
         <f>IFERROR(VLOOKUP(Q36,BattleData!$A$2:$B$463,2,FALSE),0)</f>
@@ -8228,239 +8245,239 @@
       </c>
       <c r="AI36">
         <f>IFERROR(VLOOKUP(R36,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>44.9</v>
+        <v>55.500000000000007</v>
       </c>
       <c r="AJ36">
         <f>IFERROR(VLOOKUP(S36,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>65.400000000000006</v>
+        <v>64.3</v>
       </c>
     </row>
     <row r="37" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="B37">
         <v>13</v>
       </c>
       <c r="C37" t="s">
-        <v>841</v>
+        <v>820</v>
       </c>
       <c r="D37">
         <f t="shared" si="0"/>
-        <v>884.8</v>
+        <v>720.10000000000014</v>
       </c>
       <c r="E37" t="s">
-        <v>345</v>
+        <v>72</v>
       </c>
       <c r="F37" t="s">
-        <v>813</v>
+        <v>24</v>
       </c>
       <c r="G37" t="s">
-        <v>107</v>
+        <v>849</v>
       </c>
       <c r="H37" t="s">
-        <v>100</v>
+        <v>837</v>
       </c>
       <c r="I37" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="J37" t="s">
-        <v>31</v>
+        <v>806</v>
       </c>
       <c r="K37" t="s">
-        <v>815</v>
+        <v>22</v>
       </c>
       <c r="L37" t="s">
-        <v>443</v>
+        <v>85</v>
       </c>
       <c r="M37" t="s">
-        <v>875</v>
+        <v>93</v>
       </c>
       <c r="N37" t="s">
-        <v>423</v>
+        <v>778</v>
       </c>
       <c r="O37" t="s">
-        <v>409</v>
+        <v>240</v>
       </c>
       <c r="P37" t="s">
-        <v>919</v>
+        <v>296</v>
       </c>
       <c r="Q37" t="s">
-        <v>206</v>
+        <v>856</v>
       </c>
       <c r="R37" t="s">
-        <v>37</v>
+        <v>307</v>
       </c>
       <c r="S37" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="U37">
         <f t="shared" si="1"/>
-        <v>2.5537464925139453E+26</v>
+        <v>7.8672330235517378E+24</v>
       </c>
       <c r="V37">
         <f>IFERROR(VLOOKUP(E37,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>49.4</v>
+        <v>56.8</v>
       </c>
       <c r="W37">
         <f>IFERROR(VLOOKUP(F37,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>50.1</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="X37">
         <f>IFERROR(VLOOKUP(G37,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>78.600000000000009</v>
+        <v>41.6</v>
       </c>
       <c r="Y37">
         <f>IFERROR(VLOOKUP(H37,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>58.3</v>
+        <v>53.1</v>
       </c>
       <c r="Z37">
         <f>IFERROR(VLOOKUP(I37,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>54.400000000000006</v>
+        <v>68.8</v>
       </c>
       <c r="AA37">
         <f>IFERROR(VLOOKUP(J37,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>67.100000000000009</v>
+        <v>71.2</v>
       </c>
       <c r="AB37">
         <f>IFERROR(VLOOKUP(K37,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>51.6</v>
+        <v>33.900000000000006</v>
       </c>
       <c r="AC37">
         <f>IFERROR(VLOOKUP(L37,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>36.9</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="AD37">
         <f>IFERROR(VLOOKUP(M37,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>47.5</v>
+        <v>54.400000000000006</v>
       </c>
       <c r="AE37">
         <f>IFERROR(VLOOKUP(N37,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>75.099999999999994</v>
+        <v>40.6</v>
       </c>
       <c r="AF37">
         <f>IFERROR(VLOOKUP(O37,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>83.8</v>
+        <v>36</v>
       </c>
       <c r="AG37">
         <f>IFERROR(VLOOKUP(P37,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>57.4</v>
+        <v>29.099999999999998</v>
       </c>
       <c r="AH37">
         <f>IFERROR(VLOOKUP(Q37,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>44.9</v>
+        <v>40.6</v>
       </c>
       <c r="AI37">
         <f>IFERROR(VLOOKUP(R37,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>64.3</v>
+        <v>27.6</v>
       </c>
       <c r="AJ37">
         <f>IFERROR(VLOOKUP(S37,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>65.400000000000006</v>
+        <v>59.599999999999994</v>
       </c>
     </row>
     <row r="38" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="B38">
         <v>13</v>
       </c>
       <c r="C38" t="s">
-        <v>804</v>
+        <v>820</v>
       </c>
       <c r="D38">
         <f t="shared" si="0"/>
-        <v>913.59999999999991</v>
+        <v>869.9</v>
       </c>
       <c r="E38" t="s">
-        <v>40</v>
+        <v>927</v>
       </c>
       <c r="F38" t="s">
-        <v>930</v>
+        <v>24</v>
       </c>
       <c r="G38" t="s">
+        <v>480</v>
+      </c>
+      <c r="H38" t="s">
+        <v>125</v>
+      </c>
+      <c r="I38" t="s">
         <v>100</v>
       </c>
-      <c r="H38" t="s">
-        <v>158</v>
-      </c>
-      <c r="I38" t="s">
-        <v>128</v>
-      </c>
       <c r="J38" t="s">
-        <v>330</v>
+        <v>126</v>
       </c>
       <c r="K38" t="s">
-        <v>873</v>
+        <v>778</v>
       </c>
       <c r="L38" t="s">
-        <v>392</v>
+        <v>899</v>
       </c>
       <c r="M38" t="s">
-        <v>487</v>
+        <v>865</v>
       </c>
       <c r="N38" t="s">
-        <v>428</v>
+        <v>233</v>
       </c>
       <c r="O38" t="s">
-        <v>810</v>
+        <v>297</v>
       </c>
       <c r="P38" t="s">
-        <v>409</v>
+        <v>423</v>
       </c>
       <c r="Q38" t="s">
-        <v>919</v>
+        <v>811</v>
       </c>
       <c r="R38" t="s">
-        <v>66</v>
+        <v>206</v>
       </c>
       <c r="S38" t="s">
-        <v>441</v>
+        <v>377</v>
       </c>
       <c r="U38">
         <f t="shared" si="1"/>
-        <v>4.1405238817852954E+26</v>
+        <v>1.1833873902526164E+26</v>
       </c>
       <c r="V38">
         <f>IFERROR(VLOOKUP(E38,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>68.8</v>
+        <v>37.1</v>
       </c>
       <c r="W38">
         <f>IFERROR(VLOOKUP(F38,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>71.2</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="X38">
         <f>IFERROR(VLOOKUP(G38,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>58.3</v>
+        <v>40.1</v>
       </c>
       <c r="Y38">
         <f>IFERROR(VLOOKUP(H38,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>46.800000000000004</v>
+        <v>79.400000000000006</v>
       </c>
       <c r="Z38">
         <f>IFERROR(VLOOKUP(I38,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>62.8</v>
+        <v>58.3</v>
       </c>
       <c r="AA38">
         <f>IFERROR(VLOOKUP(J38,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>44.9</v>
+        <v>91.100000000000009</v>
       </c>
       <c r="AB38">
         <f>IFERROR(VLOOKUP(K38,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>42.699999999999996</v>
+        <v>40.6</v>
       </c>
       <c r="AC38">
         <f>IFERROR(VLOOKUP(L38,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>59.599999999999994</v>
+        <v>21.099999999999998</v>
       </c>
       <c r="AD38">
         <f>IFERROR(VLOOKUP(M38,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>57.999999999999993</v>
+        <v>67.100000000000009</v>
       </c>
       <c r="AE38">
         <f>IFERROR(VLOOKUP(N38,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>73</v>
+        <v>58.9</v>
       </c>
       <c r="AF38">
         <f>IFERROR(VLOOKUP(O38,BattleData!$A$2:$B$463,2,FALSE),0)</f>
@@ -8468,7 +8485,7 @@
       </c>
       <c r="AG38">
         <f>IFERROR(VLOOKUP(P38,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>83.8</v>
+        <v>75.099999999999994</v>
       </c>
       <c r="AH38">
         <f>IFERROR(VLOOKUP(Q38,BattleData!$A$2:$B$463,2,FALSE),0)</f>
@@ -8476,219 +8493,219 @@
       </c>
       <c r="AI38">
         <f>IFERROR(VLOOKUP(R38,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>41.9</v>
+        <v>44.9</v>
       </c>
       <c r="AJ38">
         <f>IFERROR(VLOOKUP(S38,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>84.6</v>
+        <v>65.400000000000006</v>
       </c>
     </row>
     <row r="39" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="B39">
         <v>13</v>
       </c>
       <c r="C39" t="s">
-        <v>807</v>
+        <v>841</v>
       </c>
       <c r="D39">
         <f t="shared" si="0"/>
-        <v>1012.6000000000001</v>
+        <v>884.8</v>
       </c>
       <c r="E39" t="s">
-        <v>848</v>
+        <v>345</v>
       </c>
       <c r="F39" t="s">
-        <v>24</v>
+        <v>813</v>
       </c>
       <c r="G39" t="s">
-        <v>850</v>
+        <v>107</v>
       </c>
       <c r="H39" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="I39" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="J39" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="K39" t="s">
-        <v>40</v>
+        <v>815</v>
       </c>
       <c r="L39" t="s">
-        <v>126</v>
+        <v>443</v>
       </c>
       <c r="M39" t="s">
-        <v>199</v>
+        <v>875</v>
       </c>
       <c r="N39" t="s">
-        <v>31</v>
+        <v>423</v>
       </c>
       <c r="O39" t="s">
-        <v>317</v>
+        <v>409</v>
       </c>
       <c r="P39" t="s">
-        <v>903</v>
+        <v>919</v>
       </c>
       <c r="Q39" t="s">
-        <v>876</v>
+        <v>206</v>
       </c>
       <c r="R39" t="s">
-        <v>423</v>
+        <v>37</v>
       </c>
       <c r="S39" t="s">
-        <v>853</v>
+        <v>377</v>
       </c>
       <c r="U39">
         <f t="shared" si="1"/>
-        <v>2.2015440740522447E+27</v>
+        <v>2.5537464925139453E+26</v>
       </c>
       <c r="V39">
         <f>IFERROR(VLOOKUP(E39,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>73.599999999999994</v>
+        <v>49.4</v>
       </c>
       <c r="W39">
         <f>IFERROR(VLOOKUP(F39,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>73.599999999999994</v>
+        <v>50.1</v>
       </c>
       <c r="X39">
         <f>IFERROR(VLOOKUP(G39,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>49.8</v>
+        <v>78.600000000000009</v>
       </c>
       <c r="Y39">
         <f>IFERROR(VLOOKUP(H39,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>68.8</v>
+        <v>58.3</v>
       </c>
       <c r="Z39">
         <f>IFERROR(VLOOKUP(I39,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>68.8</v>
+        <v>54.400000000000006</v>
       </c>
       <c r="AA39">
         <f>IFERROR(VLOOKUP(J39,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>68.8</v>
+        <v>67.100000000000009</v>
       </c>
       <c r="AB39">
         <f>IFERROR(VLOOKUP(K39,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>68.8</v>
+        <v>51.6</v>
       </c>
       <c r="AC39">
         <f>IFERROR(VLOOKUP(L39,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>91.100000000000009</v>
+        <v>36.9</v>
       </c>
       <c r="AD39">
         <f>IFERROR(VLOOKUP(M39,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>43.1</v>
+        <v>47.5</v>
       </c>
       <c r="AE39">
         <f>IFERROR(VLOOKUP(N39,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>67.100000000000009</v>
+        <v>75.099999999999994</v>
       </c>
       <c r="AF39">
         <f>IFERROR(VLOOKUP(O39,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>58.5</v>
+        <v>83.8</v>
       </c>
       <c r="AG39">
         <f>IFERROR(VLOOKUP(P39,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>73</v>
+        <v>57.4</v>
       </c>
       <c r="AH39">
         <f>IFERROR(VLOOKUP(Q39,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>75.099999999999994</v>
+        <v>44.9</v>
       </c>
       <c r="AI39">
         <f>IFERROR(VLOOKUP(R39,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>75.099999999999994</v>
+        <v>64.3</v>
       </c>
       <c r="AJ39">
         <f>IFERROR(VLOOKUP(S39,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>57.4</v>
+        <v>65.400000000000006</v>
       </c>
     </row>
     <row r="40" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="B40">
         <v>13</v>
       </c>
       <c r="C40" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="D40">
         <f t="shared" si="0"/>
-        <v>845</v>
+        <v>913.59999999999991</v>
       </c>
       <c r="E40" t="s">
-        <v>848</v>
+        <v>40</v>
       </c>
       <c r="F40" t="s">
-        <v>458</v>
+        <v>930</v>
       </c>
       <c r="G40" t="s">
-        <v>933</v>
+        <v>100</v>
       </c>
       <c r="H40" t="s">
-        <v>107</v>
+        <v>158</v>
       </c>
       <c r="I40" t="s">
-        <v>81</v>
+        <v>128</v>
       </c>
       <c r="J40" t="s">
         <v>330</v>
       </c>
       <c r="K40" t="s">
-        <v>240</v>
+        <v>873</v>
       </c>
       <c r="L40" t="s">
-        <v>256</v>
+        <v>392</v>
       </c>
       <c r="M40" t="s">
-        <v>815</v>
+        <v>487</v>
       </c>
       <c r="N40" t="s">
-        <v>396</v>
+        <v>428</v>
       </c>
       <c r="O40" t="s">
-        <v>428</v>
+        <v>810</v>
       </c>
       <c r="P40" t="s">
-        <v>876</v>
+        <v>409</v>
       </c>
       <c r="Q40" t="s">
         <v>919</v>
       </c>
       <c r="R40" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="S40" t="s">
-        <v>419</v>
+        <v>441</v>
       </c>
       <c r="U40">
         <f t="shared" si="1"/>
-        <v>9.675384972233697E+25</v>
+        <v>4.1405238817852954E+26</v>
       </c>
       <c r="V40">
         <f>IFERROR(VLOOKUP(E40,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>73.599999999999994</v>
+        <v>68.8</v>
       </c>
       <c r="W40">
         <f>IFERROR(VLOOKUP(F40,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>52.400000000000006</v>
+        <v>71.2</v>
       </c>
       <c r="X40">
         <f>IFERROR(VLOOKUP(G40,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>46.800000000000004</v>
+        <v>58.3</v>
       </c>
       <c r="Y40">
         <f>IFERROR(VLOOKUP(H40,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>78.600000000000009</v>
+        <v>46.800000000000004</v>
       </c>
       <c r="Z40">
         <f>IFERROR(VLOOKUP(I40,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>44.2</v>
+        <v>62.8</v>
       </c>
       <c r="AA40">
         <f>IFERROR(VLOOKUP(J40,BattleData!$A$2:$B$463,2,FALSE),0)</f>
@@ -8696,27 +8713,27 @@
       </c>
       <c r="AB40">
         <f>IFERROR(VLOOKUP(K40,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>36</v>
+        <v>42.699999999999996</v>
       </c>
       <c r="AC40">
         <f>IFERROR(VLOOKUP(L40,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>26.900000000000002</v>
+        <v>59.599999999999994</v>
       </c>
       <c r="AD40">
         <f>IFERROR(VLOOKUP(M40,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>51.6</v>
+        <v>57.999999999999993</v>
       </c>
       <c r="AE40">
         <f>IFERROR(VLOOKUP(N40,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>74.7</v>
+        <v>73</v>
       </c>
       <c r="AF40">
         <f>IFERROR(VLOOKUP(O40,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>73</v>
+        <v>59.8</v>
       </c>
       <c r="AG40">
         <f>IFERROR(VLOOKUP(P40,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>75.099999999999994</v>
+        <v>83.8</v>
       </c>
       <c r="AH40">
         <f>IFERROR(VLOOKUP(Q40,BattleData!$A$2:$B$463,2,FALSE),0)</f>
@@ -8724,16 +8741,16 @@
       </c>
       <c r="AI40">
         <f>IFERROR(VLOOKUP(R40,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>64.3</v>
+        <v>41.9</v>
       </c>
       <c r="AJ40">
         <f>IFERROR(VLOOKUP(S40,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>45.5</v>
+        <v>84.6</v>
       </c>
     </row>
     <row r="41" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="B41">
         <v>13</v>
@@ -8743,56 +8760,56 @@
       </c>
       <c r="D41">
         <f t="shared" si="0"/>
-        <v>952.1</v>
+        <v>1012.6000000000001</v>
       </c>
       <c r="E41" t="s">
         <v>848</v>
       </c>
       <c r="F41" t="s">
+        <v>24</v>
+      </c>
+      <c r="G41" t="s">
+        <v>850</v>
+      </c>
+      <c r="H41" t="s">
         <v>40</v>
       </c>
-      <c r="G41" t="s">
-        <v>445</v>
-      </c>
-      <c r="H41" t="s">
-        <v>806</v>
-      </c>
       <c r="I41" t="s">
-        <v>806</v>
+        <v>40</v>
       </c>
       <c r="J41" t="s">
-        <v>107</v>
+        <v>40</v>
       </c>
       <c r="K41" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="L41" t="s">
-        <v>240</v>
+        <v>126</v>
       </c>
       <c r="M41" t="s">
-        <v>334</v>
+        <v>199</v>
       </c>
       <c r="N41" t="s">
-        <v>650</v>
+        <v>31</v>
       </c>
       <c r="O41" t="s">
-        <v>220</v>
+        <v>317</v>
       </c>
       <c r="P41" t="s">
-        <v>815</v>
+        <v>903</v>
       </c>
       <c r="Q41" t="s">
         <v>876</v>
       </c>
       <c r="R41" t="s">
-        <v>409</v>
+        <v>423</v>
       </c>
       <c r="S41" t="s">
-        <v>37</v>
+        <v>853</v>
       </c>
       <c r="U41">
         <f t="shared" si="1"/>
-        <v>6.2795199858192417E+26</v>
+        <v>2.2015440740522447E+27</v>
       </c>
       <c r="V41">
         <f>IFERROR(VLOOKUP(E41,BattleData!$A$2:$B$463,2,FALSE),0)</f>
@@ -8800,47 +8817,47 @@
       </c>
       <c r="W41">
         <f>IFERROR(VLOOKUP(F41,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>68.8</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="X41">
         <f>IFERROR(VLOOKUP(G41,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>55.000000000000007</v>
+        <v>49.8</v>
       </c>
       <c r="Y41">
         <f>IFERROR(VLOOKUP(H41,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>71.2</v>
+        <v>68.8</v>
       </c>
       <c r="Z41">
         <f>IFERROR(VLOOKUP(I41,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>71.2</v>
+        <v>68.8</v>
       </c>
       <c r="AA41">
         <f>IFERROR(VLOOKUP(J41,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>78.600000000000009</v>
+        <v>68.8</v>
       </c>
       <c r="AB41">
         <f>IFERROR(VLOOKUP(K41,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>33.200000000000003</v>
+        <v>68.8</v>
       </c>
       <c r="AC41">
         <f>IFERROR(VLOOKUP(L41,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>36</v>
+        <v>91.100000000000009</v>
       </c>
       <c r="AD41">
         <f>IFERROR(VLOOKUP(M41,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>63.9</v>
+        <v>43.1</v>
       </c>
       <c r="AE41">
         <f>IFERROR(VLOOKUP(N41,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>42.699999999999996</v>
+        <v>67.100000000000009</v>
       </c>
       <c r="AF41">
         <f>IFERROR(VLOOKUP(O41,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>83.1</v>
+        <v>58.5</v>
       </c>
       <c r="AG41">
         <f>IFERROR(VLOOKUP(P41,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>51.6</v>
+        <v>73</v>
       </c>
       <c r="AH41">
         <f>IFERROR(VLOOKUP(Q41,BattleData!$A$2:$B$463,2,FALSE),0)</f>
@@ -8848,264 +8865,264 @@
       </c>
       <c r="AI41">
         <f>IFERROR(VLOOKUP(R41,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>83.8</v>
+        <v>75.099999999999994</v>
       </c>
       <c r="AJ41">
         <f>IFERROR(VLOOKUP(S41,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>64.3</v>
+        <v>57.4</v>
       </c>
     </row>
     <row r="42" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>944</v>
+        <v>932</v>
       </c>
       <c r="B42">
         <v>13</v>
       </c>
       <c r="C42" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="D42">
         <f t="shared" si="0"/>
-        <v>944.09999999999991</v>
+        <v>845</v>
       </c>
       <c r="E42" t="s">
-        <v>264</v>
+        <v>848</v>
       </c>
       <c r="F42" t="s">
-        <v>317</v>
+        <v>458</v>
       </c>
       <c r="G42" t="s">
-        <v>126</v>
+        <v>933</v>
       </c>
       <c r="H42" t="s">
+        <v>107</v>
+      </c>
+      <c r="I42" t="s">
+        <v>81</v>
+      </c>
+      <c r="J42" t="s">
+        <v>330</v>
+      </c>
+      <c r="K42" t="s">
+        <v>240</v>
+      </c>
+      <c r="L42" t="s">
+        <v>256</v>
+      </c>
+      <c r="M42" t="s">
+        <v>815</v>
+      </c>
+      <c r="N42" t="s">
+        <v>396</v>
+      </c>
+      <c r="O42" t="s">
+        <v>428</v>
+      </c>
+      <c r="P42" t="s">
         <v>876</v>
       </c>
-      <c r="I42" t="s">
-        <v>206</v>
-      </c>
-      <c r="J42" t="s">
-        <v>945</v>
-      </c>
-      <c r="K42" t="s">
-        <v>946</v>
-      </c>
-      <c r="L42" t="s">
-        <v>947</v>
-      </c>
-      <c r="M42" t="s">
-        <v>134</v>
-      </c>
-      <c r="N42" t="s">
-        <v>297</v>
-      </c>
-      <c r="O42" t="s">
-        <v>948</v>
-      </c>
-      <c r="P42" t="s">
-        <v>949</v>
-      </c>
       <c r="Q42" t="s">
-        <v>903</v>
+        <v>919</v>
       </c>
       <c r="R42" t="s">
-        <v>904</v>
+        <v>37</v>
       </c>
       <c r="S42" t="s">
-        <v>22</v>
+        <v>419</v>
       </c>
       <c r="U42">
-        <f t="shared" ref="U42" si="2">PRODUCT(V42:AJ42)</f>
-        <v>4.8493968164393817E+26</v>
+        <f t="shared" si="1"/>
+        <v>9.675384972233697E+25</v>
       </c>
       <c r="V42">
         <f>IFERROR(VLOOKUP(E42,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>85.9</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="W42">
         <f>IFERROR(VLOOKUP(F42,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>58.5</v>
+        <v>52.400000000000006</v>
       </c>
       <c r="X42">
         <f>IFERROR(VLOOKUP(G42,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>91.100000000000009</v>
+        <v>46.800000000000004</v>
       </c>
       <c r="Y42">
         <f>IFERROR(VLOOKUP(H42,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>75.099999999999994</v>
+        <v>78.600000000000009</v>
       </c>
       <c r="Z42">
         <f>IFERROR(VLOOKUP(I42,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>44.9</v>
+        <v>44.2</v>
       </c>
       <c r="AA42">
         <f>IFERROR(VLOOKUP(J42,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>49.6</v>
+        <v>44.9</v>
       </c>
       <c r="AB42">
         <f>IFERROR(VLOOKUP(K42,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>35.199999999999996</v>
+        <v>36</v>
       </c>
       <c r="AC42">
         <f>IFERROR(VLOOKUP(L42,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>73.599999999999994</v>
+        <v>26.900000000000002</v>
       </c>
       <c r="AD42">
         <f>IFERROR(VLOOKUP(M42,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>48.3</v>
+        <v>51.6</v>
       </c>
       <c r="AE42">
         <f>IFERROR(VLOOKUP(N42,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>59.8</v>
+        <v>74.7</v>
       </c>
       <c r="AF42">
         <f>IFERROR(VLOOKUP(O42,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>93.7</v>
+        <v>73</v>
       </c>
       <c r="AG42">
         <f>IFERROR(VLOOKUP(P42,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>54.400000000000006</v>
+        <v>75.099999999999994</v>
       </c>
       <c r="AH42">
         <f>IFERROR(VLOOKUP(Q42,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>73</v>
+        <v>57.4</v>
       </c>
       <c r="AI42">
         <f>IFERROR(VLOOKUP(R42,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>67.100000000000009</v>
+        <v>64.3</v>
       </c>
       <c r="AJ42">
         <f>IFERROR(VLOOKUP(S42,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>33.900000000000006</v>
+        <v>45.5</v>
       </c>
     </row>
     <row r="43" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>965</v>
+        <v>934</v>
       </c>
       <c r="B43">
         <v>13</v>
       </c>
       <c r="C43" t="s">
-        <v>820</v>
+        <v>807</v>
       </c>
       <c r="D43">
         <f t="shared" si="0"/>
-        <v>974.09999999999991</v>
+        <v>952.1</v>
       </c>
       <c r="E43" t="s">
-        <v>125</v>
+        <v>848</v>
       </c>
       <c r="F43" t="s">
-        <v>894</v>
+        <v>40</v>
       </c>
       <c r="G43" t="s">
-        <v>142</v>
+        <v>445</v>
       </c>
       <c r="H43" t="s">
-        <v>902</v>
+        <v>806</v>
       </c>
       <c r="I43" t="s">
-        <v>31</v>
+        <v>806</v>
       </c>
       <c r="J43" t="s">
+        <v>107</v>
+      </c>
+      <c r="K43" t="s">
+        <v>85</v>
+      </c>
+      <c r="L43" t="s">
+        <v>240</v>
+      </c>
+      <c r="M43" t="s">
         <v>334</v>
       </c>
-      <c r="K43" t="s">
-        <v>297</v>
-      </c>
-      <c r="L43" t="s">
-        <v>317</v>
-      </c>
-      <c r="M43" t="s">
-        <v>443</v>
-      </c>
       <c r="N43" t="s">
-        <v>428</v>
+        <v>650</v>
       </c>
       <c r="O43" t="s">
+        <v>220</v>
+      </c>
+      <c r="P43" t="s">
+        <v>815</v>
+      </c>
+      <c r="Q43" t="s">
         <v>876</v>
       </c>
-      <c r="P43" t="s">
-        <v>454</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>389</v>
-      </c>
       <c r="R43" t="s">
-        <v>919</v>
+        <v>409</v>
       </c>
       <c r="S43" t="s">
-        <v>377</v>
+        <v>37</v>
       </c>
       <c r="U43">
-        <f t="shared" ref="U43:U56" si="3">PRODUCT(V43:AJ43)</f>
-        <v>1.1403049367178568E+27</v>
+        <f t="shared" si="1"/>
+        <v>6.2795199858192417E+26</v>
       </c>
       <c r="V43">
         <f>IFERROR(VLOOKUP(E43,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>79.400000000000006</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="W43">
         <f>IFERROR(VLOOKUP(F43,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>58.3</v>
+        <v>68.8</v>
       </c>
       <c r="X43">
         <f>IFERROR(VLOOKUP(G43,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>63.9</v>
+        <v>55.000000000000007</v>
       </c>
       <c r="Y43">
         <f>IFERROR(VLOOKUP(H43,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>97.1</v>
+        <v>71.2</v>
       </c>
       <c r="Z43">
         <f>IFERROR(VLOOKUP(I43,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>67.100000000000009</v>
+        <v>71.2</v>
       </c>
       <c r="AA43">
         <f>IFERROR(VLOOKUP(J43,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>63.9</v>
+        <v>78.600000000000009</v>
       </c>
       <c r="AB43">
         <f>IFERROR(VLOOKUP(K43,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>59.8</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="AC43">
         <f>IFERROR(VLOOKUP(L43,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>58.5</v>
+        <v>36</v>
       </c>
       <c r="AD43">
         <f>IFERROR(VLOOKUP(M43,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>36.9</v>
+        <v>63.9</v>
       </c>
       <c r="AE43">
         <f>IFERROR(VLOOKUP(N43,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>73</v>
+        <v>42.699999999999996</v>
       </c>
       <c r="AF43">
         <f>IFERROR(VLOOKUP(O43,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>75.099999999999994</v>
+        <v>83.1</v>
       </c>
       <c r="AG43">
         <f>IFERROR(VLOOKUP(P43,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>62.8</v>
+        <v>51.6</v>
       </c>
       <c r="AH43">
         <f>IFERROR(VLOOKUP(Q43,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>55.500000000000007</v>
+        <v>75.099999999999994</v>
       </c>
       <c r="AI43">
         <f>IFERROR(VLOOKUP(R43,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>57.4</v>
+        <v>83.8</v>
       </c>
       <c r="AJ43">
         <f>IFERROR(VLOOKUP(S43,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>65.400000000000006</v>
+        <v>64.3</v>
       </c>
     </row>
     <row r="44" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>966</v>
+        <v>944</v>
       </c>
       <c r="B44">
         <v>13</v>
@@ -9115,146 +9132,146 @@
       </c>
       <c r="D44">
         <f t="shared" si="0"/>
-        <v>788.6</v>
+        <v>944.09999999999991</v>
       </c>
       <c r="E44" t="s">
-        <v>848</v>
+        <v>264</v>
       </c>
       <c r="F44" t="s">
-        <v>24</v>
+        <v>317</v>
       </c>
       <c r="G44" t="s">
-        <v>842</v>
+        <v>126</v>
       </c>
       <c r="H44" t="s">
-        <v>842</v>
+        <v>876</v>
       </c>
       <c r="I44" t="s">
-        <v>967</v>
+        <v>206</v>
       </c>
       <c r="J44" t="s">
-        <v>100</v>
+        <v>945</v>
       </c>
       <c r="K44" t="s">
-        <v>778</v>
+        <v>946</v>
       </c>
       <c r="L44" t="s">
-        <v>778</v>
+        <v>947</v>
       </c>
       <c r="M44" t="s">
-        <v>778</v>
+        <v>134</v>
       </c>
       <c r="N44" t="s">
-        <v>210</v>
+        <v>297</v>
       </c>
       <c r="O44" t="s">
-        <v>199</v>
+        <v>948</v>
       </c>
       <c r="P44" t="s">
-        <v>844</v>
+        <v>949</v>
       </c>
       <c r="Q44" t="s">
-        <v>896</v>
+        <v>903</v>
       </c>
       <c r="R44" t="s">
-        <v>423</v>
+        <v>904</v>
       </c>
       <c r="S44" t="s">
-        <v>264</v>
+        <v>22</v>
       </c>
       <c r="U44">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ref="U44" si="4">PRODUCT(V44:AJ44)</f>
+        <v>4.8493968164393817E+26</v>
       </c>
       <c r="V44">
         <f>IFERROR(VLOOKUP(E44,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>73.599999999999994</v>
+        <v>85.9</v>
       </c>
       <c r="W44">
         <f>IFERROR(VLOOKUP(F44,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>73.599999999999994</v>
+        <v>58.5</v>
       </c>
       <c r="X44">
         <f>IFERROR(VLOOKUP(G44,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>71.2</v>
+        <v>91.100000000000009</v>
       </c>
       <c r="Y44">
         <f>IFERROR(VLOOKUP(H44,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>71.2</v>
+        <v>75.099999999999994</v>
       </c>
       <c r="Z44">
         <f>IFERROR(VLOOKUP(I44,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>0</v>
+        <v>44.9</v>
       </c>
       <c r="AA44">
         <f>IFERROR(VLOOKUP(J44,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>58.3</v>
+        <v>49.6</v>
       </c>
       <c r="AB44">
         <f>IFERROR(VLOOKUP(K44,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>40.6</v>
+        <v>35.199999999999996</v>
       </c>
       <c r="AC44">
         <f>IFERROR(VLOOKUP(L44,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>40.6</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="AD44">
         <f>IFERROR(VLOOKUP(M44,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>40.6</v>
+        <v>48.3</v>
       </c>
       <c r="AE44">
         <f>IFERROR(VLOOKUP(N44,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>0.2</v>
+        <v>59.8</v>
       </c>
       <c r="AF44">
         <f>IFERROR(VLOOKUP(O44,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>43.1</v>
+        <v>93.7</v>
       </c>
       <c r="AG44">
         <f>IFERROR(VLOOKUP(P44,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>35.199999999999996</v>
+        <v>54.400000000000006</v>
       </c>
       <c r="AH44">
         <f>IFERROR(VLOOKUP(Q44,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>79.400000000000006</v>
+        <v>73</v>
       </c>
       <c r="AI44">
         <f>IFERROR(VLOOKUP(R44,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>75.099999999999994</v>
+        <v>67.100000000000009</v>
       </c>
       <c r="AJ44">
         <f>IFERROR(VLOOKUP(S44,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>85.9</v>
+        <v>33.900000000000006</v>
       </c>
     </row>
     <row r="45" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="B45">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C45" t="s">
         <v>820</v>
       </c>
       <c r="D45">
         <f t="shared" si="0"/>
-        <v>782.99999999999989</v>
+        <v>974.09999999999991</v>
       </c>
       <c r="E45" t="s">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="F45" t="s">
-        <v>140</v>
+        <v>894</v>
       </c>
       <c r="G45" t="s">
-        <v>899</v>
+        <v>142</v>
       </c>
       <c r="H45" t="s">
-        <v>256</v>
+        <v>902</v>
       </c>
       <c r="I45" t="s">
-        <v>865</v>
+        <v>31</v>
       </c>
       <c r="J45" t="s">
         <v>334</v>
@@ -9263,48 +9280,48 @@
         <v>297</v>
       </c>
       <c r="L45" t="s">
-        <v>650</v>
+        <v>317</v>
       </c>
       <c r="M45" t="s">
-        <v>473</v>
+        <v>443</v>
       </c>
       <c r="N45" t="s">
-        <v>481</v>
+        <v>428</v>
       </c>
       <c r="O45" t="s">
-        <v>428</v>
+        <v>876</v>
       </c>
       <c r="P45" t="s">
-        <v>206</v>
+        <v>454</v>
       </c>
       <c r="Q45" t="s">
-        <v>37</v>
+        <v>389</v>
       </c>
       <c r="R45" t="s">
-        <v>321</v>
+        <v>919</v>
       </c>
       <c r="S45" t="s">
-        <v>441</v>
+        <v>377</v>
       </c>
       <c r="U45">
-        <f t="shared" si="3"/>
-        <v>1.9036678374297756E+25</v>
+        <f t="shared" ref="U45:U58" si="5">PRODUCT(V45:AJ45)</f>
+        <v>1.1403049367178568E+27</v>
       </c>
       <c r="V45">
         <f>IFERROR(VLOOKUP(E45,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>68.8</v>
+        <v>79.400000000000006</v>
       </c>
       <c r="W45">
         <f>IFERROR(VLOOKUP(F45,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>47.9</v>
+        <v>58.3</v>
       </c>
       <c r="X45">
         <f>IFERROR(VLOOKUP(G45,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>21.099999999999998</v>
+        <v>63.9</v>
       </c>
       <c r="Y45">
         <f>IFERROR(VLOOKUP(H45,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>26.900000000000002</v>
+        <v>97.1</v>
       </c>
       <c r="Z45">
         <f>IFERROR(VLOOKUP(I45,BattleData!$A$2:$B$463,2,FALSE),0)</f>
@@ -9320,487 +9337,487 @@
       </c>
       <c r="AC45">
         <f>IFERROR(VLOOKUP(L45,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>42.699999999999996</v>
+        <v>58.5</v>
       </c>
       <c r="AD45">
         <f>IFERROR(VLOOKUP(M45,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>56.8</v>
+        <v>36.9</v>
       </c>
       <c r="AE45">
         <f>IFERROR(VLOOKUP(N45,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>26.3</v>
+        <v>73</v>
       </c>
       <c r="AF45">
         <f>IFERROR(VLOOKUP(O45,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>73</v>
+        <v>75.099999999999994</v>
       </c>
       <c r="AG45">
         <f>IFERROR(VLOOKUP(P45,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>44.9</v>
+        <v>62.8</v>
       </c>
       <c r="AH45">
         <f>IFERROR(VLOOKUP(Q45,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>64.3</v>
+        <v>55.500000000000007</v>
       </c>
       <c r="AI45">
         <f>IFERROR(VLOOKUP(R45,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>34.9</v>
+        <v>57.4</v>
       </c>
       <c r="AJ45">
         <f>IFERROR(VLOOKUP(S45,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>84.6</v>
+        <v>65.400000000000006</v>
       </c>
     </row>
     <row r="46" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="B46">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C46" t="s">
         <v>804</v>
       </c>
       <c r="D46">
         <f t="shared" si="0"/>
-        <v>799.09999999999991</v>
+        <v>788.6</v>
       </c>
       <c r="E46" t="s">
-        <v>345</v>
+        <v>848</v>
       </c>
       <c r="F46" t="s">
-        <v>345</v>
+        <v>24</v>
       </c>
       <c r="G46" t="s">
-        <v>445</v>
+        <v>842</v>
       </c>
       <c r="H46" t="s">
-        <v>483</v>
+        <v>842</v>
       </c>
       <c r="I46" t="s">
-        <v>862</v>
+        <v>967</v>
       </c>
       <c r="J46" t="s">
-        <v>806</v>
+        <v>100</v>
       </c>
       <c r="K46" t="s">
-        <v>863</v>
+        <v>778</v>
       </c>
       <c r="L46" t="s">
-        <v>863</v>
+        <v>778</v>
       </c>
       <c r="M46" t="s">
-        <v>815</v>
+        <v>778</v>
       </c>
       <c r="N46" t="s">
-        <v>392</v>
+        <v>210</v>
       </c>
       <c r="O46" t="s">
-        <v>443</v>
+        <v>199</v>
       </c>
       <c r="P46" t="s">
-        <v>449</v>
+        <v>844</v>
       </c>
       <c r="Q46" t="s">
-        <v>486</v>
+        <v>896</v>
       </c>
       <c r="R46" t="s">
-        <v>409</v>
+        <v>423</v>
       </c>
       <c r="S46" t="s">
-        <v>389</v>
+        <v>264</v>
       </c>
       <c r="U46">
-        <f t="shared" si="3"/>
-        <v>5.7467226847706183E+25</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="V46">
         <f>IFERROR(VLOOKUP(E46,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>49.4</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="W46">
         <f>IFERROR(VLOOKUP(F46,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>49.4</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="X46">
         <f>IFERROR(VLOOKUP(G46,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>55.000000000000007</v>
+        <v>71.2</v>
       </c>
       <c r="Y46">
         <f>IFERROR(VLOOKUP(H46,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>43.1</v>
+        <v>71.2</v>
       </c>
       <c r="Z46">
         <f>IFERROR(VLOOKUP(I46,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>50.1</v>
+        <v>0</v>
       </c>
       <c r="AA46">
         <f>IFERROR(VLOOKUP(J46,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>71.2</v>
+        <v>58.3</v>
       </c>
       <c r="AB46">
         <f>IFERROR(VLOOKUP(K46,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>43.1</v>
+        <v>40.6</v>
       </c>
       <c r="AC46">
         <f>IFERROR(VLOOKUP(L46,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>43.1</v>
+        <v>40.6</v>
       </c>
       <c r="AD46">
         <f>IFERROR(VLOOKUP(M46,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>51.6</v>
+        <v>40.6</v>
       </c>
       <c r="AE46">
         <f>IFERROR(VLOOKUP(N46,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>59.599999999999994</v>
+        <v>0.2</v>
       </c>
       <c r="AF46">
         <f>IFERROR(VLOOKUP(O46,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>36.9</v>
+        <v>43.1</v>
       </c>
       <c r="AG46">
         <f>IFERROR(VLOOKUP(P46,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>47.5</v>
+        <v>35.199999999999996</v>
       </c>
       <c r="AH46">
         <f>IFERROR(VLOOKUP(Q46,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>59.8</v>
+        <v>79.400000000000006</v>
       </c>
       <c r="AI46">
         <f>IFERROR(VLOOKUP(R46,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>83.8</v>
+        <v>75.099999999999994</v>
       </c>
       <c r="AJ46">
         <f>IFERROR(VLOOKUP(S46,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>55.500000000000007</v>
+        <v>85.9</v>
       </c>
     </row>
     <row r="47" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="B47">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>807</v>
+        <v>820</v>
       </c>
       <c r="D47">
         <f t="shared" si="0"/>
-        <v>931.09999999999991</v>
+        <v>782.99999999999989</v>
       </c>
       <c r="E47" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="F47" t="s">
-        <v>89</v>
+        <v>140</v>
       </c>
       <c r="G47" t="s">
-        <v>24</v>
+        <v>899</v>
       </c>
       <c r="H47" t="s">
-        <v>837</v>
+        <v>256</v>
       </c>
       <c r="I47" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="J47" t="s">
-        <v>99</v>
+        <v>334</v>
       </c>
       <c r="K47" t="s">
-        <v>891</v>
+        <v>297</v>
       </c>
       <c r="L47" t="s">
-        <v>125</v>
+        <v>650</v>
       </c>
       <c r="M47" t="s">
-        <v>158</v>
+        <v>473</v>
       </c>
       <c r="N47" t="s">
-        <v>84</v>
+        <v>481</v>
       </c>
       <c r="O47" t="s">
-        <v>331</v>
+        <v>428</v>
       </c>
       <c r="P47" t="s">
-        <v>449</v>
+        <v>206</v>
       </c>
       <c r="Q47" t="s">
-        <v>471</v>
+        <v>37</v>
       </c>
       <c r="R47" t="s">
-        <v>423</v>
+        <v>321</v>
       </c>
       <c r="S47" t="s">
-        <v>853</v>
+        <v>441</v>
       </c>
       <c r="U47">
-        <f t="shared" si="3"/>
-        <v>5.3599307837503127E+26</v>
+        <f t="shared" si="5"/>
+        <v>1.9036678374297756E+25</v>
       </c>
       <c r="V47">
         <f>IFERROR(VLOOKUP(E47,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>56.8</v>
+        <v>68.8</v>
       </c>
       <c r="W47">
         <f>IFERROR(VLOOKUP(F47,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>50.3</v>
+        <v>47.9</v>
       </c>
       <c r="X47">
         <f>IFERROR(VLOOKUP(G47,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>73.599999999999994</v>
+        <v>21.099999999999998</v>
       </c>
       <c r="Y47">
         <f>IFERROR(VLOOKUP(H47,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>53.1</v>
+        <v>26.900000000000002</v>
       </c>
       <c r="Z47">
         <f>IFERROR(VLOOKUP(I47,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>50.1</v>
+        <v>67.100000000000009</v>
       </c>
       <c r="AA47">
         <f>IFERROR(VLOOKUP(J47,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>45.5</v>
+        <v>63.9</v>
       </c>
       <c r="AB47">
         <f>IFERROR(VLOOKUP(K47,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>78.600000000000009</v>
+        <v>59.8</v>
       </c>
       <c r="AC47">
         <f>IFERROR(VLOOKUP(L47,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>79.400000000000006</v>
+        <v>42.699999999999996</v>
       </c>
       <c r="AD47">
         <f>IFERROR(VLOOKUP(M47,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>46.800000000000004</v>
+        <v>56.8</v>
       </c>
       <c r="AE47">
         <f>IFERROR(VLOOKUP(N47,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>54.400000000000006</v>
+        <v>26.3</v>
       </c>
       <c r="AF47">
         <f>IFERROR(VLOOKUP(O47,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>92.600000000000009</v>
+        <v>73</v>
       </c>
       <c r="AG47">
         <f>IFERROR(VLOOKUP(P47,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>47.5</v>
+        <v>44.9</v>
       </c>
       <c r="AH47">
         <f>IFERROR(VLOOKUP(Q47,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>69.899999999999991</v>
+        <v>64.3</v>
       </c>
       <c r="AI47">
         <f>IFERROR(VLOOKUP(R47,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>75.099999999999994</v>
+        <v>34.9</v>
       </c>
       <c r="AJ47">
         <f>IFERROR(VLOOKUP(S47,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>57.4</v>
+        <v>84.6</v>
       </c>
     </row>
     <row r="48" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="B48">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="D48">
         <f t="shared" si="0"/>
-        <v>1039.5</v>
+        <v>799.09999999999991</v>
       </c>
       <c r="E48" t="s">
-        <v>848</v>
+        <v>345</v>
       </c>
       <c r="F48" t="s">
-        <v>848</v>
+        <v>345</v>
       </c>
       <c r="G48" t="s">
-        <v>848</v>
+        <v>445</v>
       </c>
       <c r="H48" t="s">
-        <v>40</v>
+        <v>483</v>
       </c>
       <c r="I48" t="s">
-        <v>40</v>
+        <v>862</v>
       </c>
       <c r="J48" t="s">
-        <v>40</v>
+        <v>806</v>
       </c>
       <c r="K48" t="s">
-        <v>806</v>
+        <v>863</v>
       </c>
       <c r="L48" t="s">
-        <v>806</v>
+        <v>863</v>
       </c>
       <c r="M48" t="s">
-        <v>806</v>
+        <v>815</v>
       </c>
       <c r="N48" t="s">
-        <v>107</v>
+        <v>392</v>
       </c>
       <c r="O48" t="s">
-        <v>107</v>
+        <v>443</v>
       </c>
       <c r="P48" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="Q48" t="s">
-        <v>876</v>
+        <v>486</v>
       </c>
       <c r="R48" t="s">
-        <v>206</v>
+        <v>409</v>
       </c>
       <c r="S48" t="s">
-        <v>441</v>
+        <v>389</v>
       </c>
       <c r="U48">
-        <f t="shared" si="3"/>
-        <v>3.047662265747873E+27</v>
+        <f t="shared" si="5"/>
+        <v>5.7467226847706183E+25</v>
       </c>
       <c r="V48">
         <f>IFERROR(VLOOKUP(E48,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>73.599999999999994</v>
+        <v>49.4</v>
       </c>
       <c r="W48">
         <f>IFERROR(VLOOKUP(F48,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>73.599999999999994</v>
+        <v>49.4</v>
       </c>
       <c r="X48">
         <f>IFERROR(VLOOKUP(G48,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>73.599999999999994</v>
+        <v>55.000000000000007</v>
       </c>
       <c r="Y48">
         <f>IFERROR(VLOOKUP(H48,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>68.8</v>
+        <v>43.1</v>
       </c>
       <c r="Z48">
         <f>IFERROR(VLOOKUP(I48,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>68.8</v>
+        <v>50.1</v>
       </c>
       <c r="AA48">
         <f>IFERROR(VLOOKUP(J48,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>68.8</v>
+        <v>71.2</v>
       </c>
       <c r="AB48">
         <f>IFERROR(VLOOKUP(K48,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>71.2</v>
+        <v>43.1</v>
       </c>
       <c r="AC48">
         <f>IFERROR(VLOOKUP(L48,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>71.2</v>
+        <v>43.1</v>
       </c>
       <c r="AD48">
         <f>IFERROR(VLOOKUP(M48,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>71.2</v>
+        <v>51.6</v>
       </c>
       <c r="AE48">
         <f>IFERROR(VLOOKUP(N48,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>78.600000000000009</v>
+        <v>59.599999999999994</v>
       </c>
       <c r="AF48">
         <f>IFERROR(VLOOKUP(O48,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>78.600000000000009</v>
+        <v>36.9</v>
       </c>
       <c r="AG48">
         <f>IFERROR(VLOOKUP(P48,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>36.9</v>
+        <v>47.5</v>
       </c>
       <c r="AH48">
         <f>IFERROR(VLOOKUP(Q48,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>75.099999999999994</v>
+        <v>59.8</v>
       </c>
       <c r="AI48">
         <f>IFERROR(VLOOKUP(R48,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>44.9</v>
+        <v>83.8</v>
       </c>
       <c r="AJ48">
         <f>IFERROR(VLOOKUP(S48,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>84.6</v>
+        <v>55.500000000000007</v>
       </c>
     </row>
     <row r="49" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="B49">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C49" t="s">
-        <v>841</v>
+        <v>807</v>
       </c>
       <c r="D49">
         <f t="shared" si="0"/>
-        <v>751.9</v>
+        <v>931.09999999999991</v>
       </c>
       <c r="E49" t="s">
-        <v>886</v>
+        <v>72</v>
       </c>
       <c r="F49" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="G49" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="H49" t="s">
-        <v>860</v>
+        <v>837</v>
       </c>
       <c r="I49" t="s">
         <v>862</v>
       </c>
       <c r="J49" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="K49" t="s">
-        <v>100</v>
+        <v>891</v>
       </c>
       <c r="L49" t="s">
+        <v>125</v>
+      </c>
+      <c r="M49" t="s">
         <v>158</v>
       </c>
-      <c r="M49" t="s">
-        <v>473</v>
-      </c>
       <c r="N49" t="s">
-        <v>392</v>
+        <v>84</v>
       </c>
       <c r="O49" t="s">
+        <v>331</v>
+      </c>
+      <c r="P49" t="s">
         <v>449</v>
       </c>
-      <c r="P49" t="s">
-        <v>903</v>
-      </c>
       <c r="Q49" t="s">
-        <v>811</v>
+        <v>471</v>
       </c>
       <c r="R49" t="s">
-        <v>167</v>
+        <v>423</v>
       </c>
       <c r="S49" t="s">
-        <v>146</v>
+        <v>853</v>
       </c>
       <c r="U49">
-        <f t="shared" si="3"/>
-        <v>1.2681807259649813E+25</v>
+        <f t="shared" si="5"/>
+        <v>5.3599307837503127E+26</v>
       </c>
       <c r="V49">
         <f>IFERROR(VLOOKUP(E49,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>23.5</v>
+        <v>56.8</v>
       </c>
       <c r="W49">
         <f>IFERROR(VLOOKUP(F49,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>23.9</v>
+        <v>50.3</v>
       </c>
       <c r="X49">
         <f>IFERROR(VLOOKUP(G49,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>30.8</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="Y49">
         <f>IFERROR(VLOOKUP(H49,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>49.4</v>
+        <v>53.1</v>
       </c>
       <c r="Z49">
         <f>IFERROR(VLOOKUP(I49,BattleData!$A$2:$B$463,2,FALSE),0)</f>
@@ -9808,107 +9825,107 @@
       </c>
       <c r="AA49">
         <f>IFERROR(VLOOKUP(J49,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>31.3</v>
+        <v>45.5</v>
       </c>
       <c r="AB49">
         <f>IFERROR(VLOOKUP(K49,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>58.3</v>
+        <v>78.600000000000009</v>
       </c>
       <c r="AC49">
         <f>IFERROR(VLOOKUP(L49,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>46.800000000000004</v>
+        <v>79.400000000000006</v>
       </c>
       <c r="AD49">
         <f>IFERROR(VLOOKUP(M49,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>56.8</v>
+        <v>46.800000000000004</v>
       </c>
       <c r="AE49">
         <f>IFERROR(VLOOKUP(N49,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>59.599999999999994</v>
+        <v>54.400000000000006</v>
       </c>
       <c r="AF49">
         <f>IFERROR(VLOOKUP(O49,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>47.5</v>
+        <v>92.600000000000009</v>
       </c>
       <c r="AG49">
         <f>IFERROR(VLOOKUP(P49,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>73</v>
+        <v>47.5</v>
       </c>
       <c r="AH49">
         <f>IFERROR(VLOOKUP(Q49,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>57.4</v>
+        <v>69.899999999999991</v>
       </c>
       <c r="AI49">
         <f>IFERROR(VLOOKUP(R49,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>71.2</v>
+        <v>75.099999999999994</v>
       </c>
       <c r="AJ49">
         <f>IFERROR(VLOOKUP(S49,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>72.3</v>
+        <v>57.4</v>
       </c>
     </row>
     <row r="50" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="B50">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C50" t="s">
-        <v>820</v>
+        <v>807</v>
       </c>
       <c r="D50">
         <f t="shared" si="0"/>
-        <v>822</v>
+        <v>1039.5</v>
       </c>
       <c r="E50" t="s">
         <v>848</v>
       </c>
       <c r="F50" t="s">
-        <v>118</v>
+        <v>848</v>
       </c>
       <c r="G50" t="s">
-        <v>140</v>
+        <v>848</v>
       </c>
       <c r="H50" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="I50" t="s">
-        <v>240</v>
+        <v>40</v>
       </c>
       <c r="J50" t="s">
-        <v>230</v>
+        <v>40</v>
       </c>
       <c r="K50" t="s">
-        <v>899</v>
+        <v>806</v>
       </c>
       <c r="L50" t="s">
-        <v>31</v>
+        <v>806</v>
       </c>
       <c r="M50" t="s">
-        <v>332</v>
+        <v>806</v>
       </c>
       <c r="N50" t="s">
-        <v>334</v>
+        <v>107</v>
       </c>
       <c r="O50" t="s">
-        <v>307</v>
+        <v>107</v>
       </c>
       <c r="P50" t="s">
-        <v>392</v>
+        <v>443</v>
       </c>
       <c r="Q50" t="s">
-        <v>919</v>
+        <v>876</v>
       </c>
       <c r="R50" t="s">
-        <v>264</v>
+        <v>206</v>
       </c>
       <c r="S50" t="s">
         <v>441</v>
       </c>
       <c r="U50">
-        <f t="shared" si="3"/>
-        <v>3.9166419325558998E+25</v>
+        <f t="shared" si="5"/>
+        <v>3.047662265747873E+27</v>
       </c>
       <c r="V50">
         <f>IFERROR(VLOOKUP(E50,BattleData!$A$2:$B$463,2,FALSE),0)</f>
@@ -9916,55 +9933,55 @@
       </c>
       <c r="W50">
         <f>IFERROR(VLOOKUP(F50,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>31.3</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="X50">
         <f>IFERROR(VLOOKUP(G50,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>47.9</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="Y50">
         <f>IFERROR(VLOOKUP(H50,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>58.3</v>
+        <v>68.8</v>
       </c>
       <c r="Z50">
         <f>IFERROR(VLOOKUP(I50,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>36</v>
+        <v>68.8</v>
       </c>
       <c r="AA50">
         <f>IFERROR(VLOOKUP(J50,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>40.6</v>
+        <v>68.8</v>
       </c>
       <c r="AB50">
         <f>IFERROR(VLOOKUP(K50,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>21.099999999999998</v>
+        <v>71.2</v>
       </c>
       <c r="AC50">
         <f>IFERROR(VLOOKUP(L50,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>67.100000000000009</v>
+        <v>71.2</v>
       </c>
       <c r="AD50">
         <f>IFERROR(VLOOKUP(M50,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>67.100000000000009</v>
+        <v>71.2</v>
       </c>
       <c r="AE50">
         <f>IFERROR(VLOOKUP(N50,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>63.9</v>
+        <v>78.600000000000009</v>
       </c>
       <c r="AF50">
         <f>IFERROR(VLOOKUP(O50,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>27.6</v>
+        <v>78.600000000000009</v>
       </c>
       <c r="AG50">
         <f>IFERROR(VLOOKUP(P50,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>59.599999999999994</v>
+        <v>36.9</v>
       </c>
       <c r="AH50">
         <f>IFERROR(VLOOKUP(Q50,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>57.4</v>
+        <v>75.099999999999994</v>
       </c>
       <c r="AI50">
         <f>IFERROR(VLOOKUP(R50,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>85.9</v>
+        <v>44.9</v>
       </c>
       <c r="AJ50">
         <f>IFERROR(VLOOKUP(S50,BattleData!$A$2:$B$463,2,FALSE),0)</f>
@@ -9973,114 +9990,114 @@
     </row>
     <row r="51" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="B51">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>820</v>
+        <v>841</v>
       </c>
       <c r="D51">
         <f t="shared" si="0"/>
-        <v>779.7</v>
+        <v>751.9</v>
       </c>
       <c r="E51" t="s">
-        <v>425</v>
+        <v>886</v>
       </c>
       <c r="F51" t="s">
-        <v>24</v>
+        <v>115</v>
       </c>
       <c r="G51" t="s">
-        <v>263</v>
+        <v>113</v>
       </c>
       <c r="H51" t="s">
-        <v>837</v>
+        <v>860</v>
       </c>
       <c r="I51" t="s">
-        <v>209</v>
+        <v>862</v>
       </c>
       <c r="J51" t="s">
-        <v>813</v>
+        <v>118</v>
       </c>
       <c r="K51" t="s">
-        <v>806</v>
+        <v>100</v>
       </c>
       <c r="L51" t="s">
-        <v>240</v>
+        <v>158</v>
       </c>
       <c r="M51" t="s">
-        <v>899</v>
+        <v>473</v>
       </c>
       <c r="N51" t="s">
-        <v>31</v>
+        <v>392</v>
       </c>
       <c r="O51" t="s">
-        <v>297</v>
+        <v>449</v>
       </c>
       <c r="P51" t="s">
-        <v>392</v>
+        <v>903</v>
       </c>
       <c r="Q51" t="s">
-        <v>919</v>
+        <v>811</v>
       </c>
       <c r="R51" t="s">
-        <v>206</v>
+        <v>167</v>
       </c>
       <c r="S51" t="s">
-        <v>441</v>
+        <v>146</v>
       </c>
       <c r="U51">
-        <f t="shared" si="3"/>
-        <v>1.509471993367163E+25</v>
+        <f t="shared" si="5"/>
+        <v>1.2681807259649813E+25</v>
       </c>
       <c r="V51">
         <f>IFERROR(VLOOKUP(E51,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>15.1</v>
+        <v>23.5</v>
       </c>
       <c r="W51">
         <f>IFERROR(VLOOKUP(F51,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>73.599999999999994</v>
+        <v>23.9</v>
       </c>
       <c r="X51">
         <f>IFERROR(VLOOKUP(G51,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>49.6</v>
+        <v>30.8</v>
       </c>
       <c r="Y51">
         <f>IFERROR(VLOOKUP(H51,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>53.1</v>
+        <v>49.4</v>
       </c>
       <c r="Z51">
         <f>IFERROR(VLOOKUP(I51,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>36.5</v>
+        <v>50.1</v>
       </c>
       <c r="AA51">
         <f>IFERROR(VLOOKUP(J51,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>50.1</v>
+        <v>31.3</v>
       </c>
       <c r="AB51">
         <f>IFERROR(VLOOKUP(K51,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>71.2</v>
+        <v>58.3</v>
       </c>
       <c r="AC51">
         <f>IFERROR(VLOOKUP(L51,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>36</v>
+        <v>46.800000000000004</v>
       </c>
       <c r="AD51">
         <f>IFERROR(VLOOKUP(M51,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>21.099999999999998</v>
+        <v>56.8</v>
       </c>
       <c r="AE51">
         <f>IFERROR(VLOOKUP(N51,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>67.100000000000009</v>
+        <v>59.599999999999994</v>
       </c>
       <c r="AF51">
         <f>IFERROR(VLOOKUP(O51,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>59.8</v>
+        <v>47.5</v>
       </c>
       <c r="AG51">
         <f>IFERROR(VLOOKUP(P51,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>59.599999999999994</v>
+        <v>73</v>
       </c>
       <c r="AH51">
         <f>IFERROR(VLOOKUP(Q51,BattleData!$A$2:$B$463,2,FALSE),0)</f>
@@ -10088,47 +10105,47 @@
       </c>
       <c r="AI51">
         <f>IFERROR(VLOOKUP(R51,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>44.9</v>
+        <v>71.2</v>
       </c>
       <c r="AJ51">
         <f>IFERROR(VLOOKUP(S51,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>84.6</v>
+        <v>72.3</v>
       </c>
     </row>
     <row r="52" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="B52">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>976</v>
+        <v>820</v>
       </c>
       <c r="D52">
         <f t="shared" si="0"/>
-        <v>849.7</v>
+        <v>822</v>
       </c>
       <c r="E52" t="s">
-        <v>805</v>
+        <v>848</v>
       </c>
       <c r="F52" t="s">
-        <v>24</v>
+        <v>118</v>
       </c>
       <c r="G52" t="s">
-        <v>24</v>
+        <v>140</v>
       </c>
       <c r="H52" t="s">
-        <v>850</v>
+        <v>100</v>
       </c>
       <c r="I52" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J52" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="K52" t="s">
-        <v>209</v>
+        <v>899</v>
       </c>
       <c r="L52" t="s">
         <v>31</v>
@@ -10137,54 +10154,54 @@
         <v>332</v>
       </c>
       <c r="N52" t="s">
-        <v>233</v>
+        <v>334</v>
       </c>
       <c r="O52" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="P52" t="s">
-        <v>844</v>
+        <v>392</v>
       </c>
       <c r="Q52" t="s">
-        <v>271</v>
+        <v>919</v>
       </c>
       <c r="R52" t="s">
-        <v>423</v>
+        <v>264</v>
       </c>
       <c r="S52" t="s">
-        <v>206</v>
+        <v>441</v>
       </c>
       <c r="U52">
-        <f t="shared" si="3"/>
-        <v>1.3512046472451228E+26</v>
+        <f t="shared" si="5"/>
+        <v>3.9166419325558998E+25</v>
       </c>
       <c r="V52">
         <f>IFERROR(VLOOKUP(E52,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>52.400000000000006</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="W52">
         <f>IFERROR(VLOOKUP(F52,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>73.599999999999994</v>
+        <v>31.3</v>
       </c>
       <c r="X52">
         <f>IFERROR(VLOOKUP(G52,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>73.599999999999994</v>
+        <v>47.9</v>
       </c>
       <c r="Y52">
         <f>IFERROR(VLOOKUP(H52,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>49.8</v>
+        <v>58.3</v>
       </c>
       <c r="Z52">
         <f>IFERROR(VLOOKUP(I52,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>49.8</v>
+        <v>36</v>
       </c>
       <c r="AA52">
         <f>IFERROR(VLOOKUP(J52,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>49.8</v>
+        <v>40.6</v>
       </c>
       <c r="AB52">
         <f>IFERROR(VLOOKUP(K52,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>36.5</v>
+        <v>21.099999999999998</v>
       </c>
       <c r="AC52">
         <f>IFERROR(VLOOKUP(L52,BattleData!$A$2:$B$463,2,FALSE),0)</f>
@@ -10196,32 +10213,32 @@
       </c>
       <c r="AE52">
         <f>IFERROR(VLOOKUP(N52,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>58.9</v>
+        <v>63.9</v>
       </c>
       <c r="AF52">
         <f>IFERROR(VLOOKUP(O52,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>59.8</v>
+        <v>27.6</v>
       </c>
       <c r="AG52">
         <f>IFERROR(VLOOKUP(P52,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>35.199999999999996</v>
+        <v>59.599999999999994</v>
       </c>
       <c r="AH52">
         <f>IFERROR(VLOOKUP(Q52,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>56.100000000000009</v>
+        <v>57.4</v>
       </c>
       <c r="AI52">
         <f>IFERROR(VLOOKUP(R52,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>75.099999999999994</v>
+        <v>85.9</v>
       </c>
       <c r="AJ52">
         <f>IFERROR(VLOOKUP(S52,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>44.9</v>
+        <v>84.6</v>
       </c>
     </row>
     <row r="53" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="B53">
         <v>12</v>
@@ -10231,304 +10248,304 @@
       </c>
       <c r="D53">
         <f t="shared" si="0"/>
-        <v>866.30000000000007</v>
+        <v>779.7</v>
       </c>
       <c r="E53" t="s">
-        <v>72</v>
+        <v>425</v>
       </c>
       <c r="F53" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="G53" t="s">
-        <v>850</v>
+        <v>263</v>
       </c>
       <c r="H53" t="s">
-        <v>85</v>
+        <v>837</v>
       </c>
       <c r="I53" t="s">
-        <v>81</v>
+        <v>209</v>
       </c>
       <c r="J53" t="s">
-        <v>126</v>
+        <v>813</v>
       </c>
       <c r="K53" t="s">
-        <v>101</v>
+        <v>806</v>
       </c>
       <c r="L53" t="s">
-        <v>778</v>
+        <v>240</v>
       </c>
       <c r="M53" t="s">
+        <v>899</v>
+      </c>
+      <c r="N53" t="s">
         <v>31</v>
       </c>
-      <c r="N53" t="s">
-        <v>233</v>
-      </c>
       <c r="O53" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="P53" t="s">
-        <v>844</v>
+        <v>392</v>
       </c>
       <c r="Q53" t="s">
-        <v>876</v>
+        <v>919</v>
       </c>
       <c r="R53" t="s">
-        <v>423</v>
+        <v>206</v>
       </c>
       <c r="S53" t="s">
-        <v>643</v>
+        <v>441</v>
       </c>
       <c r="U53">
-        <f t="shared" si="3"/>
-        <v>1.467371650705056E+26</v>
+        <f t="shared" si="5"/>
+        <v>1.509471993367163E+25</v>
       </c>
       <c r="V53">
         <f>IFERROR(VLOOKUP(E53,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>56.8</v>
+        <v>15.1</v>
       </c>
       <c r="W53">
         <f>IFERROR(VLOOKUP(F53,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>46</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="X53">
         <f>IFERROR(VLOOKUP(G53,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>49.8</v>
+        <v>49.6</v>
       </c>
       <c r="Y53">
         <f>IFERROR(VLOOKUP(H53,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>33.200000000000003</v>
+        <v>53.1</v>
       </c>
       <c r="Z53">
         <f>IFERROR(VLOOKUP(I53,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>44.2</v>
+        <v>36.5</v>
       </c>
       <c r="AA53">
         <f>IFERROR(VLOOKUP(J53,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>91.100000000000009</v>
+        <v>50.1</v>
       </c>
       <c r="AB53">
         <f>IFERROR(VLOOKUP(K53,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>70.399999999999991</v>
+        <v>71.2</v>
       </c>
       <c r="AC53">
         <f>IFERROR(VLOOKUP(L53,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>40.6</v>
+        <v>36</v>
       </c>
       <c r="AD53">
         <f>IFERROR(VLOOKUP(M53,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>67.100000000000009</v>
+        <v>21.099999999999998</v>
       </c>
       <c r="AE53">
         <f>IFERROR(VLOOKUP(N53,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>58.9</v>
+        <v>67.100000000000009</v>
       </c>
       <c r="AF53">
         <f>IFERROR(VLOOKUP(O53,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>58.5</v>
+        <v>59.8</v>
       </c>
       <c r="AG53">
         <f>IFERROR(VLOOKUP(P53,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>35.199999999999996</v>
+        <v>59.599999999999994</v>
       </c>
       <c r="AH53">
         <f>IFERROR(VLOOKUP(Q53,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>75.099999999999994</v>
+        <v>57.4</v>
       </c>
       <c r="AI53">
         <f>IFERROR(VLOOKUP(R53,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>75.099999999999994</v>
+        <v>44.9</v>
       </c>
       <c r="AJ53">
         <f>IFERROR(VLOOKUP(S53,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>64.3</v>
+        <v>84.6</v>
       </c>
     </row>
     <row r="54" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="B54">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C54" t="s">
-        <v>820</v>
+        <v>976</v>
       </c>
       <c r="D54">
         <f t="shared" si="0"/>
-        <v>922.4</v>
+        <v>849.7</v>
       </c>
       <c r="E54" t="s">
-        <v>140</v>
+        <v>805</v>
       </c>
       <c r="F54" t="s">
-        <v>140</v>
+        <v>24</v>
       </c>
       <c r="G54" t="s">
-        <v>126</v>
+        <v>24</v>
       </c>
       <c r="H54" t="s">
-        <v>308</v>
+        <v>850</v>
       </c>
       <c r="I54" t="s">
+        <v>241</v>
+      </c>
+      <c r="J54" t="s">
+        <v>241</v>
+      </c>
+      <c r="K54" t="s">
+        <v>209</v>
+      </c>
+      <c r="L54" t="s">
+        <v>31</v>
+      </c>
+      <c r="M54" t="s">
         <v>332</v>
       </c>
-      <c r="J54" t="s">
-        <v>332</v>
-      </c>
-      <c r="K54" t="s">
+      <c r="N54" t="s">
         <v>233</v>
       </c>
-      <c r="L54" t="s">
+      <c r="O54" t="s">
         <v>297</v>
       </c>
-      <c r="M54" t="s">
-        <v>251</v>
-      </c>
-      <c r="N54" t="s">
-        <v>408</v>
-      </c>
-      <c r="O54" t="s">
-        <v>876</v>
-      </c>
       <c r="P54" t="s">
-        <v>853</v>
+        <v>844</v>
       </c>
       <c r="Q54" t="s">
+        <v>271</v>
+      </c>
+      <c r="R54" t="s">
+        <v>423</v>
+      </c>
+      <c r="S54" t="s">
         <v>206</v>
       </c>
-      <c r="R54" t="s">
-        <v>37</v>
-      </c>
-      <c r="S54" t="s">
-        <v>264</v>
-      </c>
       <c r="U54">
-        <f t="shared" si="3"/>
-        <v>3.6323589215971938E+26</v>
+        <f t="shared" si="5"/>
+        <v>1.3512046472451228E+26</v>
       </c>
       <c r="V54">
         <f>IFERROR(VLOOKUP(E54,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>47.9</v>
+        <v>52.400000000000006</v>
       </c>
       <c r="W54">
         <f>IFERROR(VLOOKUP(F54,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>47.9</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="X54">
         <f>IFERROR(VLOOKUP(G54,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>91.100000000000009</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="Y54">
         <f>IFERROR(VLOOKUP(H54,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>33.900000000000006</v>
+        <v>49.8</v>
       </c>
       <c r="Z54">
         <f>IFERROR(VLOOKUP(I54,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>67.100000000000009</v>
+        <v>49.8</v>
       </c>
       <c r="AA54">
         <f>IFERROR(VLOOKUP(J54,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>67.100000000000009</v>
+        <v>49.8</v>
       </c>
       <c r="AB54">
         <f>IFERROR(VLOOKUP(K54,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>58.9</v>
+        <v>36.5</v>
       </c>
       <c r="AC54">
         <f>IFERROR(VLOOKUP(L54,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>59.8</v>
+        <v>67.100000000000009</v>
       </c>
       <c r="AD54">
         <f>IFERROR(VLOOKUP(M54,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>35.199999999999996</v>
+        <v>67.100000000000009</v>
       </c>
       <c r="AE54">
         <f>IFERROR(VLOOKUP(N54,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>85.9</v>
+        <v>58.9</v>
       </c>
       <c r="AF54">
         <f>IFERROR(VLOOKUP(O54,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>75.099999999999994</v>
+        <v>59.8</v>
       </c>
       <c r="AG54">
         <f>IFERROR(VLOOKUP(P54,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>57.4</v>
+        <v>35.199999999999996</v>
       </c>
       <c r="AH54">
         <f>IFERROR(VLOOKUP(Q54,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>44.9</v>
+        <v>56.100000000000009</v>
       </c>
       <c r="AI54">
         <f>IFERROR(VLOOKUP(R54,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>64.3</v>
+        <v>75.099999999999994</v>
       </c>
       <c r="AJ54">
         <f>IFERROR(VLOOKUP(S54,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>85.9</v>
+        <v>44.9</v>
       </c>
     </row>
     <row r="55" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="B55">
         <v>12</v>
       </c>
       <c r="C55" t="s">
-        <v>807</v>
+        <v>820</v>
       </c>
       <c r="D55">
         <f t="shared" si="0"/>
-        <v>978.3</v>
+        <v>866.30000000000007</v>
       </c>
       <c r="E55" t="s">
         <v>72</v>
       </c>
       <c r="F55" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="G55" t="s">
-        <v>887</v>
+        <v>850</v>
       </c>
       <c r="H55" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="I55" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="J55" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="K55" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="L55" t="s">
+        <v>778</v>
+      </c>
+      <c r="M55" t="s">
         <v>31</v>
       </c>
-      <c r="M55" t="s">
+      <c r="N55" t="s">
         <v>233</v>
       </c>
-      <c r="N55" t="s">
-        <v>815</v>
-      </c>
       <c r="O55" t="s">
-        <v>392</v>
+        <v>317</v>
       </c>
       <c r="P55" t="s">
-        <v>853</v>
+        <v>844</v>
       </c>
       <c r="Q55" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="R55" t="s">
-        <v>206</v>
+        <v>423</v>
       </c>
       <c r="S55" t="s">
-        <v>37</v>
+        <v>643</v>
       </c>
       <c r="U55">
-        <f t="shared" si="3"/>
-        <v>1.3146691949147157E+27</v>
+        <f t="shared" si="5"/>
+        <v>1.467371650705056E+26</v>
       </c>
       <c r="V55">
         <f>IFERROR(VLOOKUP(E55,BattleData!$A$2:$B$463,2,FALSE),0)</f>
@@ -10536,55 +10553,55 @@
       </c>
       <c r="W55">
         <f>IFERROR(VLOOKUP(F55,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>73.599999999999994</v>
+        <v>46</v>
       </c>
       <c r="X55">
         <f>IFERROR(VLOOKUP(G55,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>68.8</v>
+        <v>49.8</v>
       </c>
       <c r="Y55">
         <f>IFERROR(VLOOKUP(H55,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>68.8</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="Z55">
         <f>IFERROR(VLOOKUP(I55,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>68.8</v>
+        <v>44.2</v>
       </c>
       <c r="AA55">
         <f>IFERROR(VLOOKUP(J55,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>62.8</v>
+        <v>91.100000000000009</v>
       </c>
       <c r="AB55">
         <f>IFERROR(VLOOKUP(K55,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>91.100000000000009</v>
+        <v>70.399999999999991</v>
       </c>
       <c r="AC55">
         <f>IFERROR(VLOOKUP(L55,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>67.100000000000009</v>
+        <v>40.6</v>
       </c>
       <c r="AD55">
         <f>IFERROR(VLOOKUP(M55,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>58.9</v>
+        <v>67.100000000000009</v>
       </c>
       <c r="AE55">
         <f>IFERROR(VLOOKUP(N55,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>51.6</v>
+        <v>58.9</v>
       </c>
       <c r="AF55">
         <f>IFERROR(VLOOKUP(O55,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>59.599999999999994</v>
+        <v>58.5</v>
       </c>
       <c r="AG55">
         <f>IFERROR(VLOOKUP(P55,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>57.4</v>
+        <v>35.199999999999996</v>
       </c>
       <c r="AH55">
         <f>IFERROR(VLOOKUP(Q55,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>83.8</v>
+        <v>75.099999999999994</v>
       </c>
       <c r="AI55">
         <f>IFERROR(VLOOKUP(R55,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>44.9</v>
+        <v>75.099999999999994</v>
       </c>
       <c r="AJ55">
         <f>IFERROR(VLOOKUP(S55,BattleData!$A$2:$B$463,2,FALSE),0)</f>
@@ -10593,146 +10610,582 @@
     </row>
     <row r="56" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="B56">
         <v>12</v>
       </c>
       <c r="C56" t="s">
-        <v>807</v>
+        <v>820</v>
       </c>
       <c r="D56">
         <f t="shared" si="0"/>
-        <v>1038.6000000000001</v>
+        <v>922.4</v>
       </c>
       <c r="E56" t="s">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="F56" t="s">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="G56" t="s">
-        <v>842</v>
+        <v>126</v>
       </c>
       <c r="H56" t="s">
-        <v>806</v>
+        <v>308</v>
       </c>
       <c r="I56" t="s">
-        <v>99</v>
+        <v>332</v>
       </c>
       <c r="J56" t="s">
-        <v>126</v>
+        <v>332</v>
       </c>
       <c r="K56" t="s">
-        <v>392</v>
+        <v>233</v>
       </c>
       <c r="L56" t="s">
-        <v>392</v>
+        <v>297</v>
       </c>
       <c r="M56" t="s">
-        <v>392</v>
+        <v>251</v>
       </c>
       <c r="N56" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="O56" t="s">
-        <v>396</v>
+        <v>876</v>
       </c>
       <c r="P56" t="s">
-        <v>896</v>
+        <v>853</v>
       </c>
       <c r="Q56" t="s">
-        <v>852</v>
+        <v>206</v>
       </c>
       <c r="R56" t="s">
-        <v>389</v>
+        <v>37</v>
       </c>
       <c r="S56" t="s">
         <v>264</v>
       </c>
       <c r="U56">
-        <f t="shared" si="3"/>
-        <v>3.2469539533624805E+27</v>
+        <f t="shared" si="5"/>
+        <v>3.6323589215971938E+26</v>
       </c>
       <c r="V56">
         <f>IFERROR(VLOOKUP(E56,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>68.8</v>
+        <v>47.9</v>
       </c>
       <c r="W56">
         <f>IFERROR(VLOOKUP(F56,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>68.8</v>
+        <v>47.9</v>
       </c>
       <c r="X56">
         <f>IFERROR(VLOOKUP(G56,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>71.2</v>
+        <v>91.100000000000009</v>
       </c>
       <c r="Y56">
         <f>IFERROR(VLOOKUP(H56,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>71.2</v>
+        <v>33.900000000000006</v>
       </c>
       <c r="Z56">
         <f>IFERROR(VLOOKUP(I56,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>45.5</v>
+        <v>67.100000000000009</v>
       </c>
       <c r="AA56">
         <f>IFERROR(VLOOKUP(J56,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>91.100000000000009</v>
+        <v>67.100000000000009</v>
       </c>
       <c r="AB56">
         <f>IFERROR(VLOOKUP(K56,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>59.599999999999994</v>
+        <v>58.9</v>
       </c>
       <c r="AC56">
         <f>IFERROR(VLOOKUP(L56,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>59.599999999999994</v>
+        <v>59.8</v>
       </c>
       <c r="AD56">
         <f>IFERROR(VLOOKUP(M56,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>59.599999999999994</v>
+        <v>35.199999999999996</v>
       </c>
       <c r="AE56">
         <f>IFERROR(VLOOKUP(N56,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>74.7</v>
+        <v>85.9</v>
       </c>
       <c r="AF56">
         <f>IFERROR(VLOOKUP(O56,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>74.7</v>
+        <v>75.099999999999994</v>
       </c>
       <c r="AG56">
         <f>IFERROR(VLOOKUP(P56,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>79.400000000000006</v>
+        <v>57.4</v>
       </c>
       <c r="AH56">
         <f>IFERROR(VLOOKUP(Q56,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>73</v>
+        <v>44.9</v>
       </c>
       <c r="AI56">
         <f>IFERROR(VLOOKUP(R56,BattleData!$A$2:$B$463,2,FALSE),0)</f>
-        <v>55.500000000000007</v>
+        <v>64.3</v>
       </c>
       <c r="AJ56">
         <f>IFERROR(VLOOKUP(S56,BattleData!$A$2:$B$463,2,FALSE),0)</f>
         <v>85.9</v>
       </c>
     </row>
+    <row r="57" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>979</v>
+      </c>
+      <c r="B57">
+        <v>12</v>
+      </c>
+      <c r="C57" t="s">
+        <v>807</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="0"/>
+        <v>978.3</v>
+      </c>
+      <c r="E57" t="s">
+        <v>72</v>
+      </c>
+      <c r="F57" t="s">
+        <v>24</v>
+      </c>
+      <c r="G57" t="s">
+        <v>887</v>
+      </c>
+      <c r="H57" t="s">
+        <v>40</v>
+      </c>
+      <c r="I57" t="s">
+        <v>40</v>
+      </c>
+      <c r="J57" t="s">
+        <v>104</v>
+      </c>
+      <c r="K57" t="s">
+        <v>126</v>
+      </c>
+      <c r="L57" t="s">
+        <v>31</v>
+      </c>
+      <c r="M57" t="s">
+        <v>233</v>
+      </c>
+      <c r="N57" t="s">
+        <v>815</v>
+      </c>
+      <c r="O57" t="s">
+        <v>392</v>
+      </c>
+      <c r="P57" t="s">
+        <v>853</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>877</v>
+      </c>
+      <c r="R57" t="s">
+        <v>206</v>
+      </c>
+      <c r="S57" t="s">
+        <v>37</v>
+      </c>
+      <c r="U57">
+        <f t="shared" si="5"/>
+        <v>1.3146691949147157E+27</v>
+      </c>
+      <c r="V57">
+        <f>IFERROR(VLOOKUP(E57,BattleData!$A$2:$B$463,2,FALSE),0)</f>
+        <v>56.8</v>
+      </c>
+      <c r="W57">
+        <f>IFERROR(VLOOKUP(F57,BattleData!$A$2:$B$463,2,FALSE),0)</f>
+        <v>73.599999999999994</v>
+      </c>
+      <c r="X57">
+        <f>IFERROR(VLOOKUP(G57,BattleData!$A$2:$B$463,2,FALSE),0)</f>
+        <v>68.8</v>
+      </c>
+      <c r="Y57">
+        <f>IFERROR(VLOOKUP(H57,BattleData!$A$2:$B$463,2,FALSE),0)</f>
+        <v>68.8</v>
+      </c>
+      <c r="Z57">
+        <f>IFERROR(VLOOKUP(I57,BattleData!$A$2:$B$463,2,FALSE),0)</f>
+        <v>68.8</v>
+      </c>
+      <c r="AA57">
+        <f>IFERROR(VLOOKUP(J57,BattleData!$A$2:$B$463,2,FALSE),0)</f>
+        <v>62.8</v>
+      </c>
+      <c r="AB57">
+        <f>IFERROR(VLOOKUP(K57,BattleData!$A$2:$B$463,2,FALSE),0)</f>
+        <v>91.100000000000009</v>
+      </c>
+      <c r="AC57">
+        <f>IFERROR(VLOOKUP(L57,BattleData!$A$2:$B$463,2,FALSE),0)</f>
+        <v>67.100000000000009</v>
+      </c>
+      <c r="AD57">
+        <f>IFERROR(VLOOKUP(M57,BattleData!$A$2:$B$463,2,FALSE),0)</f>
+        <v>58.9</v>
+      </c>
+      <c r="AE57">
+        <f>IFERROR(VLOOKUP(N57,BattleData!$A$2:$B$463,2,FALSE),0)</f>
+        <v>51.6</v>
+      </c>
+      <c r="AF57">
+        <f>IFERROR(VLOOKUP(O57,BattleData!$A$2:$B$463,2,FALSE),0)</f>
+        <v>59.599999999999994</v>
+      </c>
+      <c r="AG57">
+        <f>IFERROR(VLOOKUP(P57,BattleData!$A$2:$B$463,2,FALSE),0)</f>
+        <v>57.4</v>
+      </c>
+      <c r="AH57">
+        <f>IFERROR(VLOOKUP(Q57,BattleData!$A$2:$B$463,2,FALSE),0)</f>
+        <v>83.8</v>
+      </c>
+      <c r="AI57">
+        <f>IFERROR(VLOOKUP(R57,BattleData!$A$2:$B$463,2,FALSE),0)</f>
+        <v>44.9</v>
+      </c>
+      <c r="AJ57">
+        <f>IFERROR(VLOOKUP(S57,BattleData!$A$2:$B$463,2,FALSE),0)</f>
+        <v>64.3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>980</v>
+      </c>
+      <c r="B58">
+        <v>12</v>
+      </c>
+      <c r="C58" t="s">
+        <v>807</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="0"/>
+        <v>1038.6000000000001</v>
+      </c>
+      <c r="E58" t="s">
+        <v>40</v>
+      </c>
+      <c r="F58" t="s">
+        <v>40</v>
+      </c>
+      <c r="G58" t="s">
+        <v>842</v>
+      </c>
+      <c r="H58" t="s">
+        <v>806</v>
+      </c>
+      <c r="I58" t="s">
+        <v>99</v>
+      </c>
+      <c r="J58" t="s">
+        <v>126</v>
+      </c>
+      <c r="K58" t="s">
+        <v>392</v>
+      </c>
+      <c r="L58" t="s">
+        <v>392</v>
+      </c>
+      <c r="M58" t="s">
+        <v>392</v>
+      </c>
+      <c r="N58" t="s">
+        <v>396</v>
+      </c>
+      <c r="O58" t="s">
+        <v>396</v>
+      </c>
+      <c r="P58" t="s">
+        <v>896</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>852</v>
+      </c>
+      <c r="R58" t="s">
+        <v>389</v>
+      </c>
+      <c r="S58" t="s">
+        <v>264</v>
+      </c>
+      <c r="U58">
+        <f t="shared" si="5"/>
+        <v>3.2469539533624805E+27</v>
+      </c>
+      <c r="V58">
+        <f>IFERROR(VLOOKUP(E58,BattleData!$A$2:$B$463,2,FALSE),0)</f>
+        <v>68.8</v>
+      </c>
+      <c r="W58">
+        <f>IFERROR(VLOOKUP(F58,BattleData!$A$2:$B$463,2,FALSE),0)</f>
+        <v>68.8</v>
+      </c>
+      <c r="X58">
+        <f>IFERROR(VLOOKUP(G58,BattleData!$A$2:$B$463,2,FALSE),0)</f>
+        <v>71.2</v>
+      </c>
+      <c r="Y58">
+        <f>IFERROR(VLOOKUP(H58,BattleData!$A$2:$B$463,2,FALSE),0)</f>
+        <v>71.2</v>
+      </c>
+      <c r="Z58">
+        <f>IFERROR(VLOOKUP(I58,BattleData!$A$2:$B$463,2,FALSE),0)</f>
+        <v>45.5</v>
+      </c>
+      <c r="AA58">
+        <f>IFERROR(VLOOKUP(J58,BattleData!$A$2:$B$463,2,FALSE),0)</f>
+        <v>91.100000000000009</v>
+      </c>
+      <c r="AB58">
+        <f>IFERROR(VLOOKUP(K58,BattleData!$A$2:$B$463,2,FALSE),0)</f>
+        <v>59.599999999999994</v>
+      </c>
+      <c r="AC58">
+        <f>IFERROR(VLOOKUP(L58,BattleData!$A$2:$B$463,2,FALSE),0)</f>
+        <v>59.599999999999994</v>
+      </c>
+      <c r="AD58">
+        <f>IFERROR(VLOOKUP(M58,BattleData!$A$2:$B$463,2,FALSE),0)</f>
+        <v>59.599999999999994</v>
+      </c>
+      <c r="AE58">
+        <f>IFERROR(VLOOKUP(N58,BattleData!$A$2:$B$463,2,FALSE),0)</f>
+        <v>74.7</v>
+      </c>
+      <c r="AF58">
+        <f>IFERROR(VLOOKUP(O58,BattleData!$A$2:$B$463,2,FALSE),0)</f>
+        <v>74.7</v>
+      </c>
+      <c r="AG58">
+        <f>IFERROR(VLOOKUP(P58,BattleData!$A$2:$B$463,2,FALSE),0)</f>
+        <v>79.400000000000006</v>
+      </c>
+      <c r="AH58">
+        <f>IFERROR(VLOOKUP(Q58,BattleData!$A$2:$B$463,2,FALSE),0)</f>
+        <v>73</v>
+      </c>
+      <c r="AI58">
+        <f>IFERROR(VLOOKUP(R58,BattleData!$A$2:$B$463,2,FALSE),0)</f>
+        <v>55.500000000000007</v>
+      </c>
+      <c r="AJ58">
+        <f>IFERROR(VLOOKUP(S58,BattleData!$A$2:$B$463,2,FALSE),0)</f>
+        <v>85.9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B59">
+        <v>7</v>
+      </c>
+      <c r="C59" t="s">
+        <v>841</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="0"/>
+        <v>697.3</v>
+      </c>
+      <c r="E59" t="s">
+        <v>182</v>
+      </c>
+      <c r="F59" t="s">
+        <v>62</v>
+      </c>
+      <c r="G59" t="s">
+        <v>101</v>
+      </c>
+      <c r="H59" t="s">
+        <v>101</v>
+      </c>
+      <c r="I59" t="s">
+        <v>75</v>
+      </c>
+      <c r="J59" t="s">
+        <v>902</v>
+      </c>
+      <c r="K59" t="s">
+        <v>902</v>
+      </c>
+      <c r="L59" t="s">
+        <v>145</v>
+      </c>
+      <c r="M59" t="s">
+        <v>145</v>
+      </c>
+      <c r="N59" t="s">
+        <v>180</v>
+      </c>
+      <c r="U59">
+        <f t="shared" ref="U59:U60" si="6">PRODUCT(V59:AJ59)</f>
+        <v>1.0695580653403446E+18</v>
+      </c>
+      <c r="V59">
+        <f>IFERROR(VLOOKUP(E59,BattleData!$A$2:$B$463,2,FALSE),0)</f>
+        <v>21.3</v>
+      </c>
+      <c r="W59">
+        <f>IFERROR(VLOOKUP(F59,BattleData!$A$2:$B$463,2,FALSE),0)</f>
+        <v>30</v>
+      </c>
+      <c r="X59">
+        <f>IFERROR(VLOOKUP(G59,BattleData!$A$2:$B$463,2,FALSE),0)</f>
+        <v>70.399999999999991</v>
+      </c>
+      <c r="Y59">
+        <f>IFERROR(VLOOKUP(H59,BattleData!$A$2:$B$463,2,FALSE),0)</f>
+        <v>70.399999999999991</v>
+      </c>
+      <c r="Z59">
+        <f>IFERROR(VLOOKUP(I59,BattleData!$A$2:$B$463,2,FALSE),0)</f>
+        <v>68.600000000000009</v>
+      </c>
+      <c r="AA59">
+        <f>IFERROR(VLOOKUP(J59,BattleData!$A$2:$B$463,2,FALSE),0)</f>
+        <v>97.1</v>
+      </c>
+      <c r="AB59">
+        <f>IFERROR(VLOOKUP(K59,BattleData!$A$2:$B$463,2,FALSE),0)</f>
+        <v>97.1</v>
+      </c>
+      <c r="AC59">
+        <f>IFERROR(VLOOKUP(L59,BattleData!$A$2:$B$463,2,FALSE),0)</f>
+        <v>76</v>
+      </c>
+      <c r="AD59">
+        <f>IFERROR(VLOOKUP(M59,BattleData!$A$2:$B$463,2,FALSE),0)</f>
+        <v>76</v>
+      </c>
+      <c r="AE59">
+        <f>IFERROR(VLOOKUP(N59,BattleData!$A$2:$B$463,2,FALSE),0)</f>
+        <v>90.4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B60">
+        <v>7</v>
+      </c>
+      <c r="C60" t="s">
+        <v>841</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="0"/>
+        <v>696.5</v>
+      </c>
+      <c r="E60" t="s">
+        <v>72</v>
+      </c>
+      <c r="F60" t="s">
+        <v>54</v>
+      </c>
+      <c r="G60" t="s">
+        <v>1005</v>
+      </c>
+      <c r="H60" t="s">
+        <v>75</v>
+      </c>
+      <c r="I60" t="s">
+        <v>75</v>
+      </c>
+      <c r="J60" t="s">
+        <v>75</v>
+      </c>
+      <c r="K60" t="s">
+        <v>75</v>
+      </c>
+      <c r="L60" t="s">
+        <v>902</v>
+      </c>
+      <c r="M60" t="s">
+        <v>145</v>
+      </c>
+      <c r="N60" t="s">
+        <v>132</v>
+      </c>
+      <c r="U60">
+        <f t="shared" si="6"/>
+        <v>1.7377079324293356E+18</v>
+      </c>
+      <c r="V60">
+        <f>IFERROR(VLOOKUP(E60,BattleData!$A$2:$B$463,2,FALSE),0)</f>
+        <v>56.8</v>
+      </c>
+      <c r="W60">
+        <f>IFERROR(VLOOKUP(F60,BattleData!$A$2:$B$463,2,FALSE),0)</f>
+        <v>28.499999999999996</v>
+      </c>
+      <c r="X60">
+        <f>IFERROR(VLOOKUP(G60,BattleData!$A$2:$B$463,2,FALSE),0)</f>
+        <v>70.399999999999991</v>
+      </c>
+      <c r="Y60">
+        <f>IFERROR(VLOOKUP(H60,BattleData!$A$2:$B$463,2,FALSE),0)</f>
+        <v>68.600000000000009</v>
+      </c>
+      <c r="Z60">
+        <f>IFERROR(VLOOKUP(I60,BattleData!$A$2:$B$463,2,FALSE),0)</f>
+        <v>68.600000000000009</v>
+      </c>
+      <c r="AA60">
+        <f>IFERROR(VLOOKUP(J60,BattleData!$A$2:$B$463,2,FALSE),0)</f>
+        <v>68.600000000000009</v>
+      </c>
+      <c r="AB60">
+        <f>IFERROR(VLOOKUP(K60,BattleData!$A$2:$B$463,2,FALSE),0)</f>
+        <v>68.600000000000009</v>
+      </c>
+      <c r="AC60">
+        <f>IFERROR(VLOOKUP(L60,BattleData!$A$2:$B$463,2,FALSE),0)</f>
+        <v>97.1</v>
+      </c>
+      <c r="AD60">
+        <f>IFERROR(VLOOKUP(M60,BattleData!$A$2:$B$463,2,FALSE),0)</f>
+        <v>76</v>
+      </c>
+      <c r="AE60">
+        <f>IFERROR(VLOOKUP(N60,BattleData!$A$2:$B$463,2,FALSE),0)</f>
+        <v>93.300000000000011</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="U2">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U3:U41">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+  <conditionalFormatting sqref="U3:U5 U7:U43">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U42">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+  <conditionalFormatting sqref="U44">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U43:U56">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="U45:U58">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U59:U60">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U6">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -46703,7 +47156,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P482"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="130" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A452" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="L470" sqref="L470"/>
@@ -66701,6 +67154,106 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q463"/>
   <sheetViews>
@@ -87360,7 +87913,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B463"/>
   <sheetViews>
